--- a/ARTIKEL-STAMMBLATT.xlsx
+++ b/ARTIKEL-STAMMBLATT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tgmwien-my.sharepoint.com/personal/schladek_student_tgm_ac_at/Documents/Dokumente/4. Klasse/ITP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{681F5193-D40C-4A43-B72B-1E5949435165}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DF8E7940-875A-435F-BCAA-B8E0440B7D24}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="8_{681F5193-D40C-4A43-B72B-1E5949435165}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2C337D3E-E08C-4847-957B-13D5491A60F5}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12710" yWindow="0" windowWidth="12980" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lieferant" sheetId="3" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="550">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="551">
   <si>
     <t>Fachinformation nur für internen Gebrauch!</t>
   </si>
@@ -1820,6 +1820,9 @@
   </si>
   <si>
     <t>Clever</t>
+  </si>
+  <si>
+    <t>321321</t>
   </si>
 </sst>
 </file>
@@ -2716,7 +2719,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="215">
+  <cellXfs count="216">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -3126,6 +3129,221 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="171" fontId="4" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="170" fontId="7" fillId="6" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="170" fontId="7" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="171" fontId="4" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="171" fontId="4" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="6" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="6" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="6" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="6" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="6" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="6" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="6" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="6" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
@@ -3206,222 +3424,11 @@
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="6" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="6" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="167" fontId="7" fillId="6" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="167" fontId="7" fillId="6" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="6" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="6" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="6" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="6" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="171" fontId="4" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="170" fontId="7" fillId="6" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="170" fontId="7" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="171" fontId="4" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="171" fontId="4" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="9" fontId="7" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
@@ -6658,10 +6665,6 @@
 </externalLink>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
@@ -6954,8 +6957,8 @@
   </sheetPr>
   <dimension ref="A1:XFD1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:S10"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A18" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33:AO34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="1" defaultRowHeight="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7104,71 +7107,71 @@
       <c r="CI1" s="73"/>
     </row>
     <row r="2" spans="1:133" s="7" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="135" t="s">
+      <c r="A2" s="194" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="135"/>
-      <c r="C2" s="135"/>
-      <c r="D2" s="135"/>
-      <c r="E2" s="135"/>
-      <c r="F2" s="135"/>
-      <c r="G2" s="135"/>
-      <c r="H2" s="135"/>
-      <c r="I2" s="135"/>
-      <c r="J2" s="135"/>
-      <c r="K2" s="135"/>
-      <c r="L2" s="135"/>
-      <c r="M2" s="135"/>
-      <c r="N2" s="135"/>
-      <c r="O2" s="135"/>
-      <c r="P2" s="135"/>
-      <c r="Q2" s="135"/>
-      <c r="R2" s="135"/>
-      <c r="S2" s="135"/>
-      <c r="T2" s="135"/>
-      <c r="U2" s="135"/>
-      <c r="V2" s="135"/>
-      <c r="W2" s="135"/>
-      <c r="X2" s="135"/>
-      <c r="Y2" s="135"/>
-      <c r="Z2" s="135"/>
-      <c r="AA2" s="135"/>
-      <c r="AB2" s="135"/>
-      <c r="AC2" s="135"/>
-      <c r="AD2" s="135"/>
-      <c r="AE2" s="135"/>
-      <c r="AF2" s="135"/>
-      <c r="AG2" s="135"/>
-      <c r="AH2" s="135"/>
-      <c r="AI2" s="135"/>
-      <c r="AJ2" s="135"/>
-      <c r="AK2" s="135"/>
-      <c r="AL2" s="135"/>
-      <c r="AM2" s="135"/>
-      <c r="AN2" s="135"/>
-      <c r="AO2" s="135"/>
-      <c r="AP2" s="135"/>
-      <c r="AQ2" s="135"/>
-      <c r="AR2" s="135"/>
+      <c r="B2" s="194"/>
+      <c r="C2" s="194"/>
+      <c r="D2" s="194"/>
+      <c r="E2" s="194"/>
+      <c r="F2" s="194"/>
+      <c r="G2" s="194"/>
+      <c r="H2" s="194"/>
+      <c r="I2" s="194"/>
+      <c r="J2" s="194"/>
+      <c r="K2" s="194"/>
+      <c r="L2" s="194"/>
+      <c r="M2" s="194"/>
+      <c r="N2" s="194"/>
+      <c r="O2" s="194"/>
+      <c r="P2" s="194"/>
+      <c r="Q2" s="194"/>
+      <c r="R2" s="194"/>
+      <c r="S2" s="194"/>
+      <c r="T2" s="194"/>
+      <c r="U2" s="194"/>
+      <c r="V2" s="194"/>
+      <c r="W2" s="194"/>
+      <c r="X2" s="194"/>
+      <c r="Y2" s="194"/>
+      <c r="Z2" s="194"/>
+      <c r="AA2" s="194"/>
+      <c r="AB2" s="194"/>
+      <c r="AC2" s="194"/>
+      <c r="AD2" s="194"/>
+      <c r="AE2" s="194"/>
+      <c r="AF2" s="194"/>
+      <c r="AG2" s="194"/>
+      <c r="AH2" s="194"/>
+      <c r="AI2" s="194"/>
+      <c r="AJ2" s="194"/>
+      <c r="AK2" s="194"/>
+      <c r="AL2" s="194"/>
+      <c r="AM2" s="194"/>
+      <c r="AN2" s="194"/>
+      <c r="AO2" s="194"/>
+      <c r="AP2" s="194"/>
+      <c r="AQ2" s="194"/>
+      <c r="AR2" s="194"/>
       <c r="AS2" s="72"/>
       <c r="AT2" s="72"/>
-      <c r="AU2" s="136"/>
-      <c r="AV2" s="136"/>
-      <c r="AW2" s="136"/>
-      <c r="AX2" s="136"/>
-      <c r="AY2" s="136"/>
-      <c r="AZ2" s="136"/>
-      <c r="BA2" s="136"/>
-      <c r="BB2" s="136"/>
-      <c r="BC2" s="136"/>
-      <c r="BD2" s="136"/>
-      <c r="BE2" s="136"/>
-      <c r="BF2" s="136"/>
-      <c r="BG2" s="136"/>
-      <c r="BH2" s="136"/>
-      <c r="BI2" s="136"/>
-      <c r="BJ2" s="136"/>
-      <c r="BK2" s="136"/>
+      <c r="AU2" s="195"/>
+      <c r="AV2" s="195"/>
+      <c r="AW2" s="195"/>
+      <c r="AX2" s="195"/>
+      <c r="AY2" s="195"/>
+      <c r="AZ2" s="195"/>
+      <c r="BA2" s="195"/>
+      <c r="BB2" s="195"/>
+      <c r="BC2" s="195"/>
+      <c r="BD2" s="195"/>
+      <c r="BE2" s="195"/>
+      <c r="BF2" s="195"/>
+      <c r="BG2" s="195"/>
+      <c r="BH2" s="195"/>
+      <c r="BI2" s="195"/>
+      <c r="BJ2" s="195"/>
+      <c r="BK2" s="195"/>
       <c r="CL2" s="5"/>
       <c r="CM2" s="2"/>
       <c r="CN2" s="2"/>
@@ -7188,69 +7191,69 @@
       <c r="DI2" s="2"/>
     </row>
     <row r="3" spans="1:133" s="7" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="135"/>
-      <c r="B3" s="135"/>
-      <c r="C3" s="135"/>
-      <c r="D3" s="135"/>
-      <c r="E3" s="135"/>
-      <c r="F3" s="135"/>
-      <c r="G3" s="135"/>
-      <c r="H3" s="135"/>
-      <c r="I3" s="135"/>
-      <c r="J3" s="135"/>
-      <c r="K3" s="135"/>
-      <c r="L3" s="135"/>
-      <c r="M3" s="135"/>
-      <c r="N3" s="135"/>
-      <c r="O3" s="135"/>
-      <c r="P3" s="135"/>
-      <c r="Q3" s="135"/>
-      <c r="R3" s="135"/>
-      <c r="S3" s="135"/>
-      <c r="T3" s="135"/>
-      <c r="U3" s="135"/>
-      <c r="V3" s="135"/>
-      <c r="W3" s="135"/>
-      <c r="X3" s="135"/>
-      <c r="Y3" s="135"/>
-      <c r="Z3" s="135"/>
-      <c r="AA3" s="135"/>
-      <c r="AB3" s="135"/>
-      <c r="AC3" s="135"/>
-      <c r="AD3" s="135"/>
-      <c r="AE3" s="135"/>
-      <c r="AF3" s="135"/>
-      <c r="AG3" s="135"/>
-      <c r="AH3" s="135"/>
-      <c r="AI3" s="135"/>
-      <c r="AJ3" s="135"/>
-      <c r="AK3" s="135"/>
-      <c r="AL3" s="135"/>
-      <c r="AM3" s="135"/>
-      <c r="AN3" s="135"/>
-      <c r="AO3" s="135"/>
-      <c r="AP3" s="135"/>
-      <c r="AQ3" s="135"/>
-      <c r="AR3" s="135"/>
+      <c r="A3" s="194"/>
+      <c r="B3" s="194"/>
+      <c r="C3" s="194"/>
+      <c r="D3" s="194"/>
+      <c r="E3" s="194"/>
+      <c r="F3" s="194"/>
+      <c r="G3" s="194"/>
+      <c r="H3" s="194"/>
+      <c r="I3" s="194"/>
+      <c r="J3" s="194"/>
+      <c r="K3" s="194"/>
+      <c r="L3" s="194"/>
+      <c r="M3" s="194"/>
+      <c r="N3" s="194"/>
+      <c r="O3" s="194"/>
+      <c r="P3" s="194"/>
+      <c r="Q3" s="194"/>
+      <c r="R3" s="194"/>
+      <c r="S3" s="194"/>
+      <c r="T3" s="194"/>
+      <c r="U3" s="194"/>
+      <c r="V3" s="194"/>
+      <c r="W3" s="194"/>
+      <c r="X3" s="194"/>
+      <c r="Y3" s="194"/>
+      <c r="Z3" s="194"/>
+      <c r="AA3" s="194"/>
+      <c r="AB3" s="194"/>
+      <c r="AC3" s="194"/>
+      <c r="AD3" s="194"/>
+      <c r="AE3" s="194"/>
+      <c r="AF3" s="194"/>
+      <c r="AG3" s="194"/>
+      <c r="AH3" s="194"/>
+      <c r="AI3" s="194"/>
+      <c r="AJ3" s="194"/>
+      <c r="AK3" s="194"/>
+      <c r="AL3" s="194"/>
+      <c r="AM3" s="194"/>
+      <c r="AN3" s="194"/>
+      <c r="AO3" s="194"/>
+      <c r="AP3" s="194"/>
+      <c r="AQ3" s="194"/>
+      <c r="AR3" s="194"/>
       <c r="AS3" s="72"/>
       <c r="AT3" s="72"/>
-      <c r="AU3" s="136"/>
-      <c r="AV3" s="136"/>
-      <c r="AW3" s="136"/>
-      <c r="AX3" s="136"/>
-      <c r="AY3" s="136"/>
-      <c r="AZ3" s="136"/>
-      <c r="BA3" s="136"/>
-      <c r="BB3" s="136"/>
-      <c r="BC3" s="136"/>
-      <c r="BD3" s="136"/>
-      <c r="BE3" s="136"/>
-      <c r="BF3" s="136"/>
-      <c r="BG3" s="136"/>
-      <c r="BH3" s="136"/>
-      <c r="BI3" s="136"/>
-      <c r="BJ3" s="136"/>
-      <c r="BK3" s="136"/>
+      <c r="AU3" s="195"/>
+      <c r="AV3" s="195"/>
+      <c r="AW3" s="195"/>
+      <c r="AX3" s="195"/>
+      <c r="AY3" s="195"/>
+      <c r="AZ3" s="195"/>
+      <c r="BA3" s="195"/>
+      <c r="BB3" s="195"/>
+      <c r="BC3" s="195"/>
+      <c r="BD3" s="195"/>
+      <c r="BE3" s="195"/>
+      <c r="BF3" s="195"/>
+      <c r="BG3" s="195"/>
+      <c r="BH3" s="195"/>
+      <c r="BI3" s="195"/>
+      <c r="BJ3" s="195"/>
+      <c r="BK3" s="195"/>
       <c r="CL3" s="5"/>
       <c r="CM3" s="2"/>
       <c r="CN3" s="2"/>
@@ -7422,24 +7425,24 @@
       <c r="BP5" s="37"/>
       <c r="BQ5" s="37"/>
       <c r="BR5" s="37"/>
-      <c r="BS5" s="137">
+      <c r="BS5" s="196">
         <f ca="1">TODAY()</f>
-        <v>45602</v>
-      </c>
-      <c r="BT5" s="137"/>
-      <c r="BU5" s="137"/>
-      <c r="BV5" s="137"/>
-      <c r="BW5" s="137"/>
-      <c r="BX5" s="137"/>
-      <c r="BY5" s="137"/>
-      <c r="BZ5" s="137"/>
-      <c r="CA5" s="137"/>
-      <c r="CB5" s="137"/>
-      <c r="CC5" s="137"/>
-      <c r="CD5" s="137"/>
-      <c r="CE5" s="137"/>
-      <c r="CF5" s="137"/>
-      <c r="CG5" s="137"/>
+        <v>45609</v>
+      </c>
+      <c r="BT5" s="196"/>
+      <c r="BU5" s="196"/>
+      <c r="BV5" s="196"/>
+      <c r="BW5" s="196"/>
+      <c r="BX5" s="196"/>
+      <c r="BY5" s="196"/>
+      <c r="BZ5" s="196"/>
+      <c r="CA5" s="196"/>
+      <c r="CB5" s="196"/>
+      <c r="CC5" s="196"/>
+      <c r="CD5" s="196"/>
+      <c r="CE5" s="196"/>
+      <c r="CF5" s="196"/>
+      <c r="CG5" s="196"/>
       <c r="CL5" s="5"/>
       <c r="CM5" s="70" t="s">
         <v>2</v>
@@ -7522,21 +7525,21 @@
       <c r="BJ6" s="64"/>
       <c r="BK6" s="64"/>
       <c r="BL6" s="64"/>
-      <c r="BS6" s="138"/>
-      <c r="BT6" s="138"/>
-      <c r="BU6" s="138"/>
-      <c r="BV6" s="138"/>
-      <c r="BW6" s="138"/>
-      <c r="BX6" s="138"/>
-      <c r="BY6" s="138"/>
-      <c r="BZ6" s="138"/>
-      <c r="CA6" s="138"/>
-      <c r="CB6" s="138"/>
-      <c r="CC6" s="138"/>
-      <c r="CD6" s="138"/>
-      <c r="CE6" s="138"/>
-      <c r="CF6" s="138"/>
-      <c r="CG6" s="138"/>
+      <c r="BS6" s="197"/>
+      <c r="BT6" s="197"/>
+      <c r="BU6" s="197"/>
+      <c r="BV6" s="197"/>
+      <c r="BW6" s="197"/>
+      <c r="BX6" s="197"/>
+      <c r="BY6" s="197"/>
+      <c r="BZ6" s="197"/>
+      <c r="CA6" s="197"/>
+      <c r="CB6" s="197"/>
+      <c r="CC6" s="197"/>
+      <c r="CD6" s="197"/>
+      <c r="CE6" s="197"/>
+      <c r="CF6" s="197"/>
+      <c r="CG6" s="197"/>
       <c r="CM6" s="61">
         <v>0</v>
       </c>
@@ -7566,7 +7569,7 @@
       <c r="CW6" s="2"/>
       <c r="CX6" s="62">
         <f ca="1">TODAY()</f>
-        <v>45602</v>
+        <v>45609</v>
       </c>
       <c r="CY6" s="43"/>
       <c r="CZ6" s="2"/>
@@ -7588,89 +7591,89 @@
     </row>
     <row r="7" spans="1:133" s="7" customFormat="1" ht="11.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="59"/>
-      <c r="B7" s="139"/>
-      <c r="C7" s="139"/>
-      <c r="D7" s="139"/>
-      <c r="E7" s="139"/>
-      <c r="F7" s="139"/>
-      <c r="G7" s="139"/>
-      <c r="H7" s="139"/>
-      <c r="I7" s="139"/>
-      <c r="J7" s="139"/>
-      <c r="K7" s="139"/>
-      <c r="L7" s="139"/>
-      <c r="M7" s="139"/>
-      <c r="N7" s="139"/>
-      <c r="O7" s="139"/>
-      <c r="P7" s="139"/>
-      <c r="Q7" s="139"/>
-      <c r="R7" s="139"/>
-      <c r="S7" s="139"/>
-      <c r="T7" s="139"/>
-      <c r="U7" s="139"/>
-      <c r="V7" s="140"/>
-      <c r="W7" s="140"/>
-      <c r="X7" s="140"/>
-      <c r="Y7" s="140"/>
-      <c r="Z7" s="140"/>
-      <c r="AA7" s="140"/>
-      <c r="AB7" s="140"/>
-      <c r="AC7" s="140"/>
-      <c r="AD7" s="140"/>
-      <c r="AE7" s="140"/>
-      <c r="AF7" s="140"/>
-      <c r="AG7" s="140"/>
-      <c r="AH7" s="140"/>
-      <c r="AI7" s="140"/>
-      <c r="AJ7" s="140"/>
-      <c r="AK7" s="140"/>
-      <c r="AL7" s="140"/>
-      <c r="AM7" s="140"/>
-      <c r="AN7" s="140"/>
-      <c r="AO7" s="140"/>
+      <c r="B7" s="198"/>
+      <c r="C7" s="198"/>
+      <c r="D7" s="198"/>
+      <c r="E7" s="198"/>
+      <c r="F7" s="198"/>
+      <c r="G7" s="198"/>
+      <c r="H7" s="198"/>
+      <c r="I7" s="198"/>
+      <c r="J7" s="198"/>
+      <c r="K7" s="198"/>
+      <c r="L7" s="198"/>
+      <c r="M7" s="198"/>
+      <c r="N7" s="198"/>
+      <c r="O7" s="198"/>
+      <c r="P7" s="198"/>
+      <c r="Q7" s="198"/>
+      <c r="R7" s="198"/>
+      <c r="S7" s="198"/>
+      <c r="T7" s="198"/>
+      <c r="U7" s="198"/>
+      <c r="V7" s="199"/>
+      <c r="W7" s="199"/>
+      <c r="X7" s="199"/>
+      <c r="Y7" s="199"/>
+      <c r="Z7" s="199"/>
+      <c r="AA7" s="199"/>
+      <c r="AB7" s="199"/>
+      <c r="AC7" s="199"/>
+      <c r="AD7" s="199"/>
+      <c r="AE7" s="199"/>
+      <c r="AF7" s="199"/>
+      <c r="AG7" s="199"/>
+      <c r="AH7" s="199"/>
+      <c r="AI7" s="199"/>
+      <c r="AJ7" s="199"/>
+      <c r="AK7" s="199"/>
+      <c r="AL7" s="199"/>
+      <c r="AM7" s="199"/>
+      <c r="AN7" s="199"/>
+      <c r="AO7" s="199"/>
       <c r="AP7" s="63"/>
       <c r="AQ7" s="37"/>
       <c r="AR7" s="59"/>
-      <c r="AS7" s="139"/>
-      <c r="AT7" s="139"/>
-      <c r="AU7" s="139"/>
-      <c r="AV7" s="139"/>
-      <c r="AW7" s="139"/>
-      <c r="AX7" s="139"/>
-      <c r="AY7" s="139"/>
-      <c r="AZ7" s="139"/>
-      <c r="BA7" s="139"/>
-      <c r="BB7" s="139"/>
-      <c r="BC7" s="139"/>
-      <c r="BD7" s="139"/>
-      <c r="BE7" s="139"/>
-      <c r="BF7" s="139"/>
-      <c r="BG7" s="139"/>
-      <c r="BH7" s="139"/>
-      <c r="BI7" s="139"/>
-      <c r="BJ7" s="139"/>
-      <c r="BK7" s="139"/>
-      <c r="BL7" s="139"/>
-      <c r="BM7" s="140"/>
-      <c r="BN7" s="140"/>
-      <c r="BO7" s="140"/>
-      <c r="BP7" s="140"/>
-      <c r="BQ7" s="140"/>
-      <c r="BR7" s="140"/>
-      <c r="BS7" s="140"/>
-      <c r="BT7" s="140"/>
-      <c r="BU7" s="140"/>
-      <c r="BV7" s="140"/>
-      <c r="BW7" s="140"/>
-      <c r="BX7" s="140"/>
-      <c r="BY7" s="140"/>
-      <c r="BZ7" s="140"/>
-      <c r="CA7" s="140"/>
-      <c r="CB7" s="140"/>
-      <c r="CC7" s="140"/>
-      <c r="CD7" s="140"/>
-      <c r="CE7" s="140"/>
-      <c r="CF7" s="140"/>
+      <c r="AS7" s="198"/>
+      <c r="AT7" s="198"/>
+      <c r="AU7" s="198"/>
+      <c r="AV7" s="198"/>
+      <c r="AW7" s="198"/>
+      <c r="AX7" s="198"/>
+      <c r="AY7" s="198"/>
+      <c r="AZ7" s="198"/>
+      <c r="BA7" s="198"/>
+      <c r="BB7" s="198"/>
+      <c r="BC7" s="198"/>
+      <c r="BD7" s="198"/>
+      <c r="BE7" s="198"/>
+      <c r="BF7" s="198"/>
+      <c r="BG7" s="198"/>
+      <c r="BH7" s="198"/>
+      <c r="BI7" s="198"/>
+      <c r="BJ7" s="198"/>
+      <c r="BK7" s="198"/>
+      <c r="BL7" s="198"/>
+      <c r="BM7" s="199"/>
+      <c r="BN7" s="199"/>
+      <c r="BO7" s="199"/>
+      <c r="BP7" s="199"/>
+      <c r="BQ7" s="199"/>
+      <c r="BR7" s="199"/>
+      <c r="BS7" s="199"/>
+      <c r="BT7" s="199"/>
+      <c r="BU7" s="199"/>
+      <c r="BV7" s="199"/>
+      <c r="BW7" s="199"/>
+      <c r="BX7" s="199"/>
+      <c r="BY7" s="199"/>
+      <c r="BZ7" s="199"/>
+      <c r="CA7" s="199"/>
+      <c r="CB7" s="199"/>
+      <c r="CC7" s="199"/>
+      <c r="CD7" s="199"/>
+      <c r="CE7" s="199"/>
+      <c r="CF7" s="199"/>
       <c r="CG7" s="63"/>
       <c r="CL7" s="5"/>
       <c r="CM7" s="61">
@@ -7702,7 +7705,7 @@
       <c r="CW7" s="2"/>
       <c r="CX7" s="62">
         <f ca="1">TODAY()+365</f>
-        <v>45967</v>
+        <v>45974</v>
       </c>
       <c r="CY7" s="43"/>
       <c r="CZ7" s="2"/>
@@ -7725,89 +7728,89 @@
     </row>
     <row r="8" spans="1:133" s="7" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="59"/>
-      <c r="B8" s="141"/>
-      <c r="C8" s="141"/>
-      <c r="D8" s="141"/>
-      <c r="E8" s="141"/>
-      <c r="F8" s="141"/>
-      <c r="G8" s="141"/>
-      <c r="H8" s="141"/>
-      <c r="I8" s="141"/>
-      <c r="J8" s="141"/>
-      <c r="K8" s="141"/>
-      <c r="L8" s="141"/>
-      <c r="M8" s="141"/>
-      <c r="N8" s="141"/>
-      <c r="O8" s="141"/>
-      <c r="P8" s="141"/>
-      <c r="Q8" s="141"/>
-      <c r="R8" s="141"/>
-      <c r="S8" s="141"/>
-      <c r="T8" s="141"/>
-      <c r="U8" s="141"/>
-      <c r="V8" s="141"/>
-      <c r="W8" s="141"/>
-      <c r="X8" s="141"/>
-      <c r="Y8" s="141"/>
-      <c r="Z8" s="141"/>
-      <c r="AA8" s="141"/>
-      <c r="AB8" s="141"/>
-      <c r="AC8" s="141"/>
-      <c r="AD8" s="141"/>
-      <c r="AE8" s="141"/>
-      <c r="AF8" s="141"/>
-      <c r="AG8" s="141"/>
-      <c r="AH8" s="141"/>
-      <c r="AI8" s="141"/>
-      <c r="AJ8" s="141"/>
-      <c r="AK8" s="141"/>
-      <c r="AL8" s="141"/>
-      <c r="AM8" s="141"/>
-      <c r="AN8" s="141"/>
-      <c r="AO8" s="141"/>
+      <c r="B8" s="200"/>
+      <c r="C8" s="200"/>
+      <c r="D8" s="200"/>
+      <c r="E8" s="200"/>
+      <c r="F8" s="200"/>
+      <c r="G8" s="200"/>
+      <c r="H8" s="200"/>
+      <c r="I8" s="200"/>
+      <c r="J8" s="200"/>
+      <c r="K8" s="200"/>
+      <c r="L8" s="200"/>
+      <c r="M8" s="200"/>
+      <c r="N8" s="200"/>
+      <c r="O8" s="200"/>
+      <c r="P8" s="200"/>
+      <c r="Q8" s="200"/>
+      <c r="R8" s="200"/>
+      <c r="S8" s="200"/>
+      <c r="T8" s="200"/>
+      <c r="U8" s="200"/>
+      <c r="V8" s="200"/>
+      <c r="W8" s="200"/>
+      <c r="X8" s="200"/>
+      <c r="Y8" s="200"/>
+      <c r="Z8" s="200"/>
+      <c r="AA8" s="200"/>
+      <c r="AB8" s="200"/>
+      <c r="AC8" s="200"/>
+      <c r="AD8" s="200"/>
+      <c r="AE8" s="200"/>
+      <c r="AF8" s="200"/>
+      <c r="AG8" s="200"/>
+      <c r="AH8" s="200"/>
+      <c r="AI8" s="200"/>
+      <c r="AJ8" s="200"/>
+      <c r="AK8" s="200"/>
+      <c r="AL8" s="200"/>
+      <c r="AM8" s="200"/>
+      <c r="AN8" s="200"/>
+      <c r="AO8" s="200"/>
       <c r="AP8" s="58"/>
       <c r="AQ8" s="37"/>
       <c r="AR8" s="59"/>
-      <c r="AS8" s="141"/>
-      <c r="AT8" s="141"/>
-      <c r="AU8" s="141"/>
-      <c r="AV8" s="141"/>
-      <c r="AW8" s="141"/>
-      <c r="AX8" s="141"/>
-      <c r="AY8" s="141"/>
-      <c r="AZ8" s="141"/>
-      <c r="BA8" s="141"/>
-      <c r="BB8" s="141"/>
-      <c r="BC8" s="141"/>
-      <c r="BD8" s="141"/>
-      <c r="BE8" s="141"/>
-      <c r="BF8" s="141"/>
-      <c r="BG8" s="141"/>
-      <c r="BH8" s="141"/>
-      <c r="BI8" s="141"/>
-      <c r="BJ8" s="141"/>
-      <c r="BK8" s="141"/>
-      <c r="BL8" s="141"/>
-      <c r="BM8" s="141"/>
-      <c r="BN8" s="141"/>
-      <c r="BO8" s="141"/>
-      <c r="BP8" s="141"/>
-      <c r="BQ8" s="141"/>
-      <c r="BR8" s="141"/>
-      <c r="BS8" s="141"/>
-      <c r="BT8" s="141"/>
-      <c r="BU8" s="141"/>
-      <c r="BV8" s="141"/>
-      <c r="BW8" s="141"/>
-      <c r="BX8" s="141"/>
-      <c r="BY8" s="141"/>
-      <c r="BZ8" s="141"/>
-      <c r="CA8" s="141"/>
-      <c r="CB8" s="141"/>
-      <c r="CC8" s="141"/>
-      <c r="CD8" s="141"/>
-      <c r="CE8" s="141"/>
-      <c r="CF8" s="141"/>
+      <c r="AS8" s="200"/>
+      <c r="AT8" s="200"/>
+      <c r="AU8" s="200"/>
+      <c r="AV8" s="200"/>
+      <c r="AW8" s="200"/>
+      <c r="AX8" s="200"/>
+      <c r="AY8" s="200"/>
+      <c r="AZ8" s="200"/>
+      <c r="BA8" s="200"/>
+      <c r="BB8" s="200"/>
+      <c r="BC8" s="200"/>
+      <c r="BD8" s="200"/>
+      <c r="BE8" s="200"/>
+      <c r="BF8" s="200"/>
+      <c r="BG8" s="200"/>
+      <c r="BH8" s="200"/>
+      <c r="BI8" s="200"/>
+      <c r="BJ8" s="200"/>
+      <c r="BK8" s="200"/>
+      <c r="BL8" s="200"/>
+      <c r="BM8" s="200"/>
+      <c r="BN8" s="200"/>
+      <c r="BO8" s="200"/>
+      <c r="BP8" s="200"/>
+      <c r="BQ8" s="200"/>
+      <c r="BR8" s="200"/>
+      <c r="BS8" s="200"/>
+      <c r="BT8" s="200"/>
+      <c r="BU8" s="200"/>
+      <c r="BV8" s="200"/>
+      <c r="BW8" s="200"/>
+      <c r="BX8" s="200"/>
+      <c r="BY8" s="200"/>
+      <c r="BZ8" s="200"/>
+      <c r="CA8" s="200"/>
+      <c r="CB8" s="200"/>
+      <c r="CC8" s="200"/>
+      <c r="CD8" s="200"/>
+      <c r="CE8" s="200"/>
+      <c r="CF8" s="200"/>
       <c r="CG8" s="58"/>
       <c r="CL8" s="5"/>
       <c r="CM8" s="61">
@@ -7858,91 +7861,91 @@
     </row>
     <row r="9" spans="1:133" s="7" customFormat="1" ht="11.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A9" s="59"/>
-      <c r="B9" s="142">
-        <v>1234567891234</v>
-      </c>
-      <c r="C9" s="142"/>
-      <c r="D9" s="142"/>
-      <c r="E9" s="142"/>
-      <c r="F9" s="142"/>
-      <c r="G9" s="142"/>
-      <c r="H9" s="142"/>
-      <c r="I9" s="142"/>
-      <c r="J9" s="142"/>
-      <c r="K9" s="142"/>
-      <c r="L9" s="142"/>
-      <c r="M9" s="142"/>
-      <c r="N9" s="142"/>
-      <c r="O9" s="142"/>
-      <c r="P9" s="142"/>
-      <c r="Q9" s="142"/>
-      <c r="R9" s="142"/>
-      <c r="S9" s="142"/>
+      <c r="B9" s="201">
+        <v>6237481278293</v>
+      </c>
+      <c r="C9" s="201"/>
+      <c r="D9" s="201"/>
+      <c r="E9" s="201"/>
+      <c r="F9" s="201"/>
+      <c r="G9" s="201"/>
+      <c r="H9" s="201"/>
+      <c r="I9" s="201"/>
+      <c r="J9" s="201"/>
+      <c r="K9" s="201"/>
+      <c r="L9" s="201"/>
+      <c r="M9" s="201"/>
+      <c r="N9" s="201"/>
+      <c r="O9" s="201"/>
+      <c r="P9" s="201"/>
+      <c r="Q9" s="201"/>
+      <c r="R9" s="201"/>
+      <c r="S9" s="201"/>
       <c r="T9" s="60"/>
       <c r="U9" s="60"/>
-      <c r="V9" s="144"/>
-      <c r="W9" s="145"/>
-      <c r="X9" s="145"/>
-      <c r="Y9" s="145"/>
-      <c r="Z9" s="145"/>
-      <c r="AA9" s="145"/>
-      <c r="AB9" s="145"/>
-      <c r="AC9" s="145"/>
-      <c r="AD9" s="145"/>
-      <c r="AE9" s="145"/>
-      <c r="AF9" s="145"/>
-      <c r="AG9" s="145"/>
-      <c r="AH9" s="145"/>
-      <c r="AI9" s="145"/>
-      <c r="AJ9" s="145"/>
-      <c r="AK9" s="145"/>
-      <c r="AL9" s="145"/>
-      <c r="AM9" s="145"/>
-      <c r="AN9" s="145"/>
-      <c r="AO9" s="145"/>
+      <c r="V9" s="203"/>
+      <c r="W9" s="204"/>
+      <c r="X9" s="204"/>
+      <c r="Y9" s="204"/>
+      <c r="Z9" s="204"/>
+      <c r="AA9" s="204"/>
+      <c r="AB9" s="204"/>
+      <c r="AC9" s="204"/>
+      <c r="AD9" s="204"/>
+      <c r="AE9" s="204"/>
+      <c r="AF9" s="204"/>
+      <c r="AG9" s="204"/>
+      <c r="AH9" s="204"/>
+      <c r="AI9" s="204"/>
+      <c r="AJ9" s="204"/>
+      <c r="AK9" s="204"/>
+      <c r="AL9" s="204"/>
+      <c r="AM9" s="204"/>
+      <c r="AN9" s="204"/>
+      <c r="AO9" s="204"/>
       <c r="AP9" s="58"/>
       <c r="AQ9" s="37"/>
       <c r="AR9" s="59"/>
-      <c r="AS9" s="147"/>
-      <c r="AT9" s="147"/>
-      <c r="AU9" s="147"/>
-      <c r="AV9" s="147"/>
-      <c r="AW9" s="147"/>
-      <c r="AX9" s="147"/>
-      <c r="AY9" s="147"/>
-      <c r="AZ9" s="147"/>
-      <c r="BA9" s="147"/>
-      <c r="BB9" s="147"/>
-      <c r="BC9" s="147"/>
-      <c r="BD9" s="147"/>
-      <c r="BE9" s="147"/>
-      <c r="BF9" s="147"/>
-      <c r="BG9" s="147"/>
-      <c r="BH9" s="147"/>
-      <c r="BI9" s="147"/>
-      <c r="BJ9" s="147"/>
-      <c r="BK9" s="147"/>
-      <c r="BL9" s="147"/>
-      <c r="BM9" s="147"/>
-      <c r="BN9" s="147"/>
-      <c r="BO9" s="147"/>
-      <c r="BP9" s="147"/>
-      <c r="BQ9" s="147"/>
-      <c r="BR9" s="147"/>
-      <c r="BS9" s="147"/>
-      <c r="BT9" s="147"/>
-      <c r="BU9" s="147"/>
-      <c r="BV9" s="147"/>
-      <c r="BW9" s="147"/>
-      <c r="BX9" s="147"/>
-      <c r="BY9" s="147"/>
-      <c r="BZ9" s="147"/>
-      <c r="CA9" s="147"/>
-      <c r="CB9" s="147"/>
-      <c r="CC9" s="147"/>
-      <c r="CD9" s="147"/>
-      <c r="CE9" s="147"/>
-      <c r="CF9" s="147"/>
+      <c r="AS9" s="206"/>
+      <c r="AT9" s="206"/>
+      <c r="AU9" s="206"/>
+      <c r="AV9" s="206"/>
+      <c r="AW9" s="206"/>
+      <c r="AX9" s="206"/>
+      <c r="AY9" s="206"/>
+      <c r="AZ9" s="206"/>
+      <c r="BA9" s="206"/>
+      <c r="BB9" s="206"/>
+      <c r="BC9" s="206"/>
+      <c r="BD9" s="206"/>
+      <c r="BE9" s="206"/>
+      <c r="BF9" s="206"/>
+      <c r="BG9" s="206"/>
+      <c r="BH9" s="206"/>
+      <c r="BI9" s="206"/>
+      <c r="BJ9" s="206"/>
+      <c r="BK9" s="206"/>
+      <c r="BL9" s="206"/>
+      <c r="BM9" s="206"/>
+      <c r="BN9" s="206"/>
+      <c r="BO9" s="206"/>
+      <c r="BP9" s="206"/>
+      <c r="BQ9" s="206"/>
+      <c r="BR9" s="206"/>
+      <c r="BS9" s="206"/>
+      <c r="BT9" s="206"/>
+      <c r="BU9" s="206"/>
+      <c r="BV9" s="206"/>
+      <c r="BW9" s="206"/>
+      <c r="BX9" s="206"/>
+      <c r="BY9" s="206"/>
+      <c r="BZ9" s="206"/>
+      <c r="CA9" s="206"/>
+      <c r="CB9" s="206"/>
+      <c r="CC9" s="206"/>
+      <c r="CD9" s="206"/>
+      <c r="CE9" s="206"/>
+      <c r="CF9" s="206"/>
       <c r="CG9" s="58"/>
       <c r="CL9" s="5"/>
       <c r="CM9" s="61">
@@ -7991,89 +7994,89 @@
     </row>
     <row r="10" spans="1:133" s="7" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="56"/>
-      <c r="B10" s="143"/>
-      <c r="C10" s="143"/>
-      <c r="D10" s="143"/>
-      <c r="E10" s="143"/>
-      <c r="F10" s="143"/>
-      <c r="G10" s="143"/>
-      <c r="H10" s="143"/>
-      <c r="I10" s="143"/>
-      <c r="J10" s="143"/>
-      <c r="K10" s="143"/>
-      <c r="L10" s="143"/>
-      <c r="M10" s="143"/>
-      <c r="N10" s="143"/>
-      <c r="O10" s="143"/>
-      <c r="P10" s="143"/>
-      <c r="Q10" s="143"/>
-      <c r="R10" s="143"/>
-      <c r="S10" s="143"/>
+      <c r="B10" s="202"/>
+      <c r="C10" s="202"/>
+      <c r="D10" s="202"/>
+      <c r="E10" s="202"/>
+      <c r="F10" s="202"/>
+      <c r="G10" s="202"/>
+      <c r="H10" s="202"/>
+      <c r="I10" s="202"/>
+      <c r="J10" s="202"/>
+      <c r="K10" s="202"/>
+      <c r="L10" s="202"/>
+      <c r="M10" s="202"/>
+      <c r="N10" s="202"/>
+      <c r="O10" s="202"/>
+      <c r="P10" s="202"/>
+      <c r="Q10" s="202"/>
+      <c r="R10" s="202"/>
+      <c r="S10" s="202"/>
       <c r="T10" s="57"/>
       <c r="U10" s="57"/>
-      <c r="V10" s="146"/>
-      <c r="W10" s="146"/>
-      <c r="X10" s="146"/>
-      <c r="Y10" s="146"/>
-      <c r="Z10" s="146"/>
-      <c r="AA10" s="146"/>
-      <c r="AB10" s="146"/>
-      <c r="AC10" s="146"/>
-      <c r="AD10" s="146"/>
-      <c r="AE10" s="146"/>
-      <c r="AF10" s="146"/>
-      <c r="AG10" s="146"/>
-      <c r="AH10" s="146"/>
-      <c r="AI10" s="146"/>
-      <c r="AJ10" s="146"/>
-      <c r="AK10" s="146"/>
-      <c r="AL10" s="146"/>
-      <c r="AM10" s="146"/>
-      <c r="AN10" s="146"/>
-      <c r="AO10" s="146"/>
+      <c r="V10" s="205"/>
+      <c r="W10" s="205"/>
+      <c r="X10" s="205"/>
+      <c r="Y10" s="205"/>
+      <c r="Z10" s="205"/>
+      <c r="AA10" s="205"/>
+      <c r="AB10" s="205"/>
+      <c r="AC10" s="205"/>
+      <c r="AD10" s="205"/>
+      <c r="AE10" s="205"/>
+      <c r="AF10" s="205"/>
+      <c r="AG10" s="205"/>
+      <c r="AH10" s="205"/>
+      <c r="AI10" s="205"/>
+      <c r="AJ10" s="205"/>
+      <c r="AK10" s="205"/>
+      <c r="AL10" s="205"/>
+      <c r="AM10" s="205"/>
+      <c r="AN10" s="205"/>
+      <c r="AO10" s="205"/>
       <c r="AP10" s="55"/>
       <c r="AQ10" s="37"/>
       <c r="AR10" s="56"/>
-      <c r="AS10" s="148"/>
-      <c r="AT10" s="148"/>
-      <c r="AU10" s="148"/>
-      <c r="AV10" s="148"/>
-      <c r="AW10" s="148"/>
-      <c r="AX10" s="148"/>
-      <c r="AY10" s="148"/>
-      <c r="AZ10" s="148"/>
-      <c r="BA10" s="148"/>
-      <c r="BB10" s="148"/>
-      <c r="BC10" s="148"/>
-      <c r="BD10" s="148"/>
-      <c r="BE10" s="148"/>
-      <c r="BF10" s="148"/>
-      <c r="BG10" s="148"/>
-      <c r="BH10" s="148"/>
-      <c r="BI10" s="148"/>
-      <c r="BJ10" s="148"/>
-      <c r="BK10" s="148"/>
-      <c r="BL10" s="148"/>
-      <c r="BM10" s="148"/>
-      <c r="BN10" s="148"/>
-      <c r="BO10" s="148"/>
-      <c r="BP10" s="148"/>
-      <c r="BQ10" s="148"/>
-      <c r="BR10" s="148"/>
-      <c r="BS10" s="148"/>
-      <c r="BT10" s="148"/>
-      <c r="BU10" s="148"/>
-      <c r="BV10" s="148"/>
-      <c r="BW10" s="148"/>
-      <c r="BX10" s="148"/>
-      <c r="BY10" s="148"/>
-      <c r="BZ10" s="148"/>
-      <c r="CA10" s="148"/>
-      <c r="CB10" s="148"/>
-      <c r="CC10" s="148"/>
-      <c r="CD10" s="148"/>
-      <c r="CE10" s="148"/>
-      <c r="CF10" s="148"/>
+      <c r="AS10" s="207"/>
+      <c r="AT10" s="207"/>
+      <c r="AU10" s="207"/>
+      <c r="AV10" s="207"/>
+      <c r="AW10" s="207"/>
+      <c r="AX10" s="207"/>
+      <c r="AY10" s="207"/>
+      <c r="AZ10" s="207"/>
+      <c r="BA10" s="207"/>
+      <c r="BB10" s="207"/>
+      <c r="BC10" s="207"/>
+      <c r="BD10" s="207"/>
+      <c r="BE10" s="207"/>
+      <c r="BF10" s="207"/>
+      <c r="BG10" s="207"/>
+      <c r="BH10" s="207"/>
+      <c r="BI10" s="207"/>
+      <c r="BJ10" s="207"/>
+      <c r="BK10" s="207"/>
+      <c r="BL10" s="207"/>
+      <c r="BM10" s="207"/>
+      <c r="BN10" s="207"/>
+      <c r="BO10" s="207"/>
+      <c r="BP10" s="207"/>
+      <c r="BQ10" s="207"/>
+      <c r="BR10" s="207"/>
+      <c r="BS10" s="207"/>
+      <c r="BT10" s="207"/>
+      <c r="BU10" s="207"/>
+      <c r="BV10" s="207"/>
+      <c r="BW10" s="207"/>
+      <c r="BX10" s="207"/>
+      <c r="BY10" s="207"/>
+      <c r="BZ10" s="207"/>
+      <c r="CA10" s="207"/>
+      <c r="CB10" s="207"/>
+      <c r="CC10" s="207"/>
+      <c r="CD10" s="207"/>
+      <c r="CE10" s="207"/>
+      <c r="CF10" s="207"/>
       <c r="CG10" s="55"/>
       <c r="CL10" s="5"/>
       <c r="CM10" s="2"/>
@@ -8349,55 +8352,55 @@
       <c r="N13" s="88"/>
       <c r="O13" s="88"/>
       <c r="P13" s="88"/>
-      <c r="Q13" s="151" t="s">
+      <c r="Q13" s="210" t="s">
         <v>548</v>
       </c>
-      <c r="R13" s="151"/>
-      <c r="S13" s="151"/>
-      <c r="T13" s="151"/>
-      <c r="U13" s="151"/>
-      <c r="V13" s="151"/>
-      <c r="W13" s="151"/>
-      <c r="X13" s="151"/>
-      <c r="Y13" s="151"/>
-      <c r="Z13" s="151"/>
-      <c r="AA13" s="151"/>
-      <c r="AB13" s="151"/>
-      <c r="AC13" s="151"/>
-      <c r="AD13" s="151"/>
-      <c r="AE13" s="151"/>
-      <c r="AF13" s="151"/>
-      <c r="AG13" s="151"/>
-      <c r="AH13" s="151"/>
-      <c r="AI13" s="151"/>
-      <c r="AJ13" s="151"/>
-      <c r="AK13" s="151"/>
-      <c r="AL13" s="151"/>
-      <c r="AM13" s="151"/>
-      <c r="AN13" s="151"/>
-      <c r="AO13" s="151"/>
+      <c r="R13" s="210"/>
+      <c r="S13" s="210"/>
+      <c r="T13" s="210"/>
+      <c r="U13" s="210"/>
+      <c r="V13" s="210"/>
+      <c r="W13" s="210"/>
+      <c r="X13" s="210"/>
+      <c r="Y13" s="210"/>
+      <c r="Z13" s="210"/>
+      <c r="AA13" s="210"/>
+      <c r="AB13" s="210"/>
+      <c r="AC13" s="210"/>
+      <c r="AD13" s="210"/>
+      <c r="AE13" s="210"/>
+      <c r="AF13" s="210"/>
+      <c r="AG13" s="210"/>
+      <c r="AH13" s="210"/>
+      <c r="AI13" s="210"/>
+      <c r="AJ13" s="210"/>
+      <c r="AK13" s="210"/>
+      <c r="AL13" s="210"/>
+      <c r="AM13" s="210"/>
+      <c r="AN13" s="210"/>
+      <c r="AO13" s="210"/>
       <c r="AP13" s="32"/>
       <c r="AQ13" s="37"/>
       <c r="AR13" s="25"/>
-      <c r="AS13" s="153"/>
-      <c r="AT13" s="153"/>
-      <c r="AU13" s="153"/>
-      <c r="AV13" s="153"/>
-      <c r="AW13" s="153"/>
-      <c r="AX13" s="153"/>
-      <c r="AY13" s="153"/>
-      <c r="AZ13" s="153"/>
-      <c r="BA13" s="153"/>
-      <c r="BB13" s="153"/>
-      <c r="BC13" s="153"/>
-      <c r="BD13" s="153"/>
-      <c r="BE13" s="153"/>
-      <c r="BF13" s="153"/>
-      <c r="BG13" s="153"/>
-      <c r="BH13" s="153"/>
-      <c r="BI13" s="153"/>
-      <c r="BJ13" s="153"/>
-      <c r="BK13" s="153"/>
+      <c r="AS13" s="212"/>
+      <c r="AT13" s="212"/>
+      <c r="AU13" s="212"/>
+      <c r="AV13" s="212"/>
+      <c r="AW13" s="212"/>
+      <c r="AX13" s="212"/>
+      <c r="AY13" s="212"/>
+      <c r="AZ13" s="212"/>
+      <c r="BA13" s="212"/>
+      <c r="BB13" s="212"/>
+      <c r="BC13" s="212"/>
+      <c r="BD13" s="212"/>
+      <c r="BE13" s="212"/>
+      <c r="BF13" s="212"/>
+      <c r="BG13" s="212"/>
+      <c r="BH13" s="212"/>
+      <c r="BI13" s="212"/>
+      <c r="BJ13" s="212"/>
+      <c r="BK13" s="212"/>
       <c r="BL13" s="54"/>
       <c r="BM13" s="54"/>
       <c r="BN13" s="54"/>
@@ -8480,53 +8483,53 @@
       <c r="N14" s="89"/>
       <c r="O14" s="89"/>
       <c r="P14" s="89"/>
-      <c r="Q14" s="152"/>
-      <c r="R14" s="152"/>
-      <c r="S14" s="152"/>
-      <c r="T14" s="152"/>
-      <c r="U14" s="152"/>
-      <c r="V14" s="152"/>
-      <c r="W14" s="152"/>
-      <c r="X14" s="152"/>
-      <c r="Y14" s="152"/>
-      <c r="Z14" s="152"/>
-      <c r="AA14" s="152"/>
-      <c r="AB14" s="152"/>
-      <c r="AC14" s="152"/>
-      <c r="AD14" s="152"/>
-      <c r="AE14" s="152"/>
-      <c r="AF14" s="152"/>
-      <c r="AG14" s="152"/>
-      <c r="AH14" s="152"/>
-      <c r="AI14" s="152"/>
-      <c r="AJ14" s="152"/>
-      <c r="AK14" s="152"/>
-      <c r="AL14" s="152"/>
-      <c r="AM14" s="152"/>
-      <c r="AN14" s="152"/>
-      <c r="AO14" s="152"/>
+      <c r="Q14" s="211"/>
+      <c r="R14" s="211"/>
+      <c r="S14" s="211"/>
+      <c r="T14" s="211"/>
+      <c r="U14" s="211"/>
+      <c r="V14" s="211"/>
+      <c r="W14" s="211"/>
+      <c r="X14" s="211"/>
+      <c r="Y14" s="211"/>
+      <c r="Z14" s="211"/>
+      <c r="AA14" s="211"/>
+      <c r="AB14" s="211"/>
+      <c r="AC14" s="211"/>
+      <c r="AD14" s="211"/>
+      <c r="AE14" s="211"/>
+      <c r="AF14" s="211"/>
+      <c r="AG14" s="211"/>
+      <c r="AH14" s="211"/>
+      <c r="AI14" s="211"/>
+      <c r="AJ14" s="211"/>
+      <c r="AK14" s="211"/>
+      <c r="AL14" s="211"/>
+      <c r="AM14" s="211"/>
+      <c r="AN14" s="211"/>
+      <c r="AO14" s="211"/>
       <c r="AP14" s="22"/>
       <c r="AQ14" s="37"/>
       <c r="AR14" s="40"/>
-      <c r="AS14" s="154"/>
-      <c r="AT14" s="154"/>
-      <c r="AU14" s="154"/>
-      <c r="AV14" s="154"/>
-      <c r="AW14" s="154"/>
-      <c r="AX14" s="154"/>
-      <c r="AY14" s="154"/>
-      <c r="AZ14" s="154"/>
-      <c r="BA14" s="154"/>
-      <c r="BB14" s="154"/>
-      <c r="BC14" s="154"/>
-      <c r="BD14" s="154"/>
-      <c r="BE14" s="154"/>
-      <c r="BF14" s="154"/>
-      <c r="BG14" s="154"/>
-      <c r="BH14" s="154"/>
-      <c r="BI14" s="154"/>
-      <c r="BJ14" s="154"/>
-      <c r="BK14" s="154"/>
+      <c r="AS14" s="213"/>
+      <c r="AT14" s="213"/>
+      <c r="AU14" s="213"/>
+      <c r="AV14" s="213"/>
+      <c r="AW14" s="213"/>
+      <c r="AX14" s="213"/>
+      <c r="AY14" s="213"/>
+      <c r="AZ14" s="213"/>
+      <c r="BA14" s="213"/>
+      <c r="BB14" s="213"/>
+      <c r="BC14" s="213"/>
+      <c r="BD14" s="213"/>
+      <c r="BE14" s="213"/>
+      <c r="BF14" s="213"/>
+      <c r="BG14" s="213"/>
+      <c r="BH14" s="213"/>
+      <c r="BI14" s="213"/>
+      <c r="BJ14" s="213"/>
+      <c r="BK14" s="213"/>
       <c r="BL14" s="117"/>
       <c r="BM14" s="117"/>
       <c r="BN14" s="117"/>
@@ -8601,41 +8604,41 @@
       <c r="F15" s="90"/>
       <c r="G15" s="90"/>
       <c r="H15" s="90"/>
-      <c r="I15" s="149" t="s">
+      <c r="I15" s="208" t="s">
         <v>549</v>
       </c>
-      <c r="J15" s="149"/>
-      <c r="K15" s="149"/>
-      <c r="L15" s="149"/>
-      <c r="M15" s="149"/>
-      <c r="N15" s="149"/>
-      <c r="O15" s="149"/>
-      <c r="P15" s="149"/>
-      <c r="Q15" s="149"/>
-      <c r="R15" s="149"/>
-      <c r="S15" s="149"/>
-      <c r="T15" s="149"/>
-      <c r="U15" s="149"/>
-      <c r="V15" s="149"/>
-      <c r="W15" s="149"/>
-      <c r="X15" s="149"/>
-      <c r="Y15" s="149"/>
-      <c r="Z15" s="149"/>
-      <c r="AA15" s="149"/>
-      <c r="AB15" s="149"/>
-      <c r="AC15" s="149"/>
-      <c r="AD15" s="149"/>
-      <c r="AE15" s="149"/>
-      <c r="AF15" s="149"/>
-      <c r="AG15" s="149"/>
-      <c r="AH15" s="149"/>
-      <c r="AI15" s="149"/>
-      <c r="AJ15" s="149"/>
-      <c r="AK15" s="149"/>
-      <c r="AL15" s="149"/>
-      <c r="AM15" s="149"/>
-      <c r="AN15" s="149"/>
-      <c r="AO15" s="149"/>
+      <c r="J15" s="208"/>
+      <c r="K15" s="208"/>
+      <c r="L15" s="208"/>
+      <c r="M15" s="208"/>
+      <c r="N15" s="208"/>
+      <c r="O15" s="208"/>
+      <c r="P15" s="208"/>
+      <c r="Q15" s="208"/>
+      <c r="R15" s="208"/>
+      <c r="S15" s="208"/>
+      <c r="T15" s="208"/>
+      <c r="U15" s="208"/>
+      <c r="V15" s="208"/>
+      <c r="W15" s="208"/>
+      <c r="X15" s="208"/>
+      <c r="Y15" s="208"/>
+      <c r="Z15" s="208"/>
+      <c r="AA15" s="208"/>
+      <c r="AB15" s="208"/>
+      <c r="AC15" s="208"/>
+      <c r="AD15" s="208"/>
+      <c r="AE15" s="208"/>
+      <c r="AF15" s="208"/>
+      <c r="AG15" s="208"/>
+      <c r="AH15" s="208"/>
+      <c r="AI15" s="208"/>
+      <c r="AJ15" s="208"/>
+      <c r="AK15" s="208"/>
+      <c r="AL15" s="208"/>
+      <c r="AM15" s="208"/>
+      <c r="AN15" s="208"/>
+      <c r="AO15" s="208"/>
       <c r="AP15" s="22"/>
       <c r="AQ15" s="37"/>
       <c r="AR15" s="40"/>
@@ -8732,39 +8735,39 @@
       <c r="F16" s="91"/>
       <c r="G16" s="91"/>
       <c r="H16" s="91"/>
-      <c r="I16" s="150"/>
-      <c r="J16" s="150"/>
-      <c r="K16" s="150"/>
-      <c r="L16" s="150"/>
-      <c r="M16" s="150"/>
-      <c r="N16" s="150"/>
-      <c r="O16" s="150"/>
-      <c r="P16" s="150"/>
-      <c r="Q16" s="150"/>
-      <c r="R16" s="150"/>
-      <c r="S16" s="150"/>
-      <c r="T16" s="150"/>
-      <c r="U16" s="150"/>
-      <c r="V16" s="150"/>
-      <c r="W16" s="150"/>
-      <c r="X16" s="150"/>
-      <c r="Y16" s="150"/>
-      <c r="Z16" s="150"/>
-      <c r="AA16" s="150"/>
-      <c r="AB16" s="150"/>
-      <c r="AC16" s="150"/>
-      <c r="AD16" s="150"/>
-      <c r="AE16" s="150"/>
-      <c r="AF16" s="150"/>
-      <c r="AG16" s="150"/>
-      <c r="AH16" s="150"/>
-      <c r="AI16" s="150"/>
-      <c r="AJ16" s="150"/>
-      <c r="AK16" s="150"/>
-      <c r="AL16" s="150"/>
-      <c r="AM16" s="150"/>
-      <c r="AN16" s="150"/>
-      <c r="AO16" s="150"/>
+      <c r="I16" s="209"/>
+      <c r="J16" s="209"/>
+      <c r="K16" s="209"/>
+      <c r="L16" s="209"/>
+      <c r="M16" s="209"/>
+      <c r="N16" s="209"/>
+      <c r="O16" s="209"/>
+      <c r="P16" s="209"/>
+      <c r="Q16" s="209"/>
+      <c r="R16" s="209"/>
+      <c r="S16" s="209"/>
+      <c r="T16" s="209"/>
+      <c r="U16" s="209"/>
+      <c r="V16" s="209"/>
+      <c r="W16" s="209"/>
+      <c r="X16" s="209"/>
+      <c r="Y16" s="209"/>
+      <c r="Z16" s="209"/>
+      <c r="AA16" s="209"/>
+      <c r="AB16" s="209"/>
+      <c r="AC16" s="209"/>
+      <c r="AD16" s="209"/>
+      <c r="AE16" s="209"/>
+      <c r="AF16" s="209"/>
+      <c r="AG16" s="209"/>
+      <c r="AH16" s="209"/>
+      <c r="AI16" s="209"/>
+      <c r="AJ16" s="209"/>
+      <c r="AK16" s="209"/>
+      <c r="AL16" s="209"/>
+      <c r="AM16" s="209"/>
+      <c r="AN16" s="209"/>
+      <c r="AO16" s="209"/>
       <c r="AP16" s="17"/>
       <c r="AQ16" s="37"/>
       <c r="AR16" s="52"/>
@@ -8908,31 +8911,31 @@
       <c r="BE17" s="42"/>
       <c r="BF17" s="42"/>
       <c r="BG17" s="53"/>
-      <c r="BH17" s="134"/>
-      <c r="BI17" s="134"/>
-      <c r="BJ17" s="134"/>
-      <c r="BK17" s="134"/>
-      <c r="BL17" s="134"/>
-      <c r="BM17" s="134"/>
-      <c r="BN17" s="134"/>
-      <c r="BO17" s="134"/>
-      <c r="BP17" s="134"/>
-      <c r="BQ17" s="134"/>
-      <c r="BR17" s="134"/>
-      <c r="BS17" s="134"/>
-      <c r="BT17" s="134"/>
-      <c r="BU17" s="134"/>
-      <c r="BV17" s="134"/>
-      <c r="BW17" s="134"/>
-      <c r="BX17" s="134"/>
-      <c r="BY17" s="134"/>
-      <c r="BZ17" s="134"/>
-      <c r="CA17" s="134"/>
-      <c r="CB17" s="134"/>
-      <c r="CC17" s="134"/>
-      <c r="CD17" s="134"/>
-      <c r="CE17" s="134"/>
-      <c r="CF17" s="134"/>
+      <c r="BH17" s="193"/>
+      <c r="BI17" s="193"/>
+      <c r="BJ17" s="193"/>
+      <c r="BK17" s="193"/>
+      <c r="BL17" s="193"/>
+      <c r="BM17" s="193"/>
+      <c r="BN17" s="193"/>
+      <c r="BO17" s="193"/>
+      <c r="BP17" s="193"/>
+      <c r="BQ17" s="193"/>
+      <c r="BR17" s="193"/>
+      <c r="BS17" s="193"/>
+      <c r="BT17" s="193"/>
+      <c r="BU17" s="193"/>
+      <c r="BV17" s="193"/>
+      <c r="BW17" s="193"/>
+      <c r="BX17" s="193"/>
+      <c r="BY17" s="193"/>
+      <c r="BZ17" s="193"/>
+      <c r="CA17" s="193"/>
+      <c r="CB17" s="193"/>
+      <c r="CC17" s="193"/>
+      <c r="CD17" s="193"/>
+      <c r="CE17" s="193"/>
+      <c r="CF17" s="193"/>
       <c r="CG17" s="17"/>
       <c r="CL17" s="5"/>
       <c r="CM17" s="2"/>
@@ -9025,46 +9028,46 @@
       <c r="AU18" s="50"/>
       <c r="AV18" s="50"/>
       <c r="AW18" s="50"/>
-      <c r="AX18" s="164" t="s">
+      <c r="AX18" s="192" t="s">
         <v>90</v>
       </c>
-      <c r="AY18" s="164"/>
-      <c r="AZ18" s="164"/>
-      <c r="BA18" s="164"/>
-      <c r="BB18" s="164"/>
-      <c r="BC18" s="164"/>
-      <c r="BD18" s="164"/>
-      <c r="BE18" s="164"/>
-      <c r="BF18" s="164"/>
-      <c r="BG18" s="164"/>
-      <c r="BH18" s="155" t="str">
+      <c r="AY18" s="192"/>
+      <c r="AZ18" s="192"/>
+      <c r="BA18" s="192"/>
+      <c r="BB18" s="192"/>
+      <c r="BC18" s="192"/>
+      <c r="BD18" s="192"/>
+      <c r="BE18" s="192"/>
+      <c r="BF18" s="192"/>
+      <c r="BG18" s="192"/>
+      <c r="BH18" s="183" t="str">
         <f>IF(ISERROR(VLOOKUP(BH17,$DH$6:$DI$92,2,0)),"keine",VLOOKUP(BH17,$DH$6:$DI$92,2,0))</f>
         <v>keine</v>
       </c>
-      <c r="BI18" s="155"/>
-      <c r="BJ18" s="155"/>
-      <c r="BK18" s="155"/>
-      <c r="BL18" s="155"/>
-      <c r="BM18" s="155"/>
-      <c r="BN18" s="155"/>
-      <c r="BO18" s="155"/>
-      <c r="BP18" s="155"/>
-      <c r="BQ18" s="155"/>
-      <c r="BR18" s="155"/>
-      <c r="BS18" s="155"/>
-      <c r="BT18" s="155"/>
-      <c r="BU18" s="155"/>
-      <c r="BV18" s="155"/>
-      <c r="BW18" s="155"/>
-      <c r="BX18" s="155"/>
-      <c r="BY18" s="155"/>
-      <c r="BZ18" s="155"/>
-      <c r="CA18" s="155"/>
-      <c r="CB18" s="155"/>
-      <c r="CC18" s="155"/>
-      <c r="CD18" s="155"/>
-      <c r="CE18" s="155"/>
-      <c r="CF18" s="155"/>
+      <c r="BI18" s="183"/>
+      <c r="BJ18" s="183"/>
+      <c r="BK18" s="183"/>
+      <c r="BL18" s="183"/>
+      <c r="BM18" s="183"/>
+      <c r="BN18" s="183"/>
+      <c r="BO18" s="183"/>
+      <c r="BP18" s="183"/>
+      <c r="BQ18" s="183"/>
+      <c r="BR18" s="183"/>
+      <c r="BS18" s="183"/>
+      <c r="BT18" s="183"/>
+      <c r="BU18" s="183"/>
+      <c r="BV18" s="183"/>
+      <c r="BW18" s="183"/>
+      <c r="BX18" s="183"/>
+      <c r="BY18" s="183"/>
+      <c r="BZ18" s="183"/>
+      <c r="CA18" s="183"/>
+      <c r="CB18" s="183"/>
+      <c r="CC18" s="183"/>
+      <c r="CD18" s="183"/>
+      <c r="CE18" s="183"/>
+      <c r="CF18" s="183"/>
       <c r="CG18" s="17"/>
       <c r="CL18" s="5"/>
       <c r="CM18" s="2"/>
@@ -9107,46 +9110,52 @@
     </row>
     <row r="19" spans="1:133 16384:16384" s="7" customFormat="1" ht="11.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="25"/>
-      <c r="B19" s="156"/>
-      <c r="C19" s="156"/>
-      <c r="D19" s="156"/>
-      <c r="E19" s="156"/>
-      <c r="F19" s="156"/>
-      <c r="G19" s="156"/>
-      <c r="H19" s="156"/>
-      <c r="I19" s="156"/>
-      <c r="J19" s="156"/>
+      <c r="B19" s="184">
+        <v>0.1</v>
+      </c>
+      <c r="C19" s="184"/>
+      <c r="D19" s="184"/>
+      <c r="E19" s="184"/>
+      <c r="F19" s="184"/>
+      <c r="G19" s="184"/>
+      <c r="H19" s="184"/>
+      <c r="I19" s="184"/>
+      <c r="J19" s="184"/>
       <c r="K19" s="47"/>
-      <c r="L19" s="156"/>
-      <c r="M19" s="156"/>
-      <c r="N19" s="156"/>
-      <c r="O19" s="156"/>
-      <c r="P19" s="156"/>
-      <c r="Q19" s="156"/>
-      <c r="R19" s="156"/>
+      <c r="L19" s="184">
+        <v>0.01</v>
+      </c>
+      <c r="M19" s="184"/>
+      <c r="N19" s="184"/>
+      <c r="O19" s="184"/>
+      <c r="P19" s="184"/>
+      <c r="Q19" s="184"/>
+      <c r="R19" s="184"/>
       <c r="S19" s="47"/>
-      <c r="T19" s="158"/>
-      <c r="U19" s="158"/>
-      <c r="V19" s="158"/>
-      <c r="W19" s="158"/>
-      <c r="X19" s="158"/>
-      <c r="Y19" s="158"/>
-      <c r="Z19" s="158"/>
-      <c r="AA19" s="158"/>
-      <c r="AB19" s="158"/>
-      <c r="AC19" s="158"/>
-      <c r="AD19" s="158"/>
-      <c r="AE19" s="158"/>
-      <c r="AF19" s="158"/>
-      <c r="AG19" s="158"/>
-      <c r="AH19" s="158"/>
-      <c r="AI19" s="158"/>
-      <c r="AJ19" s="158"/>
-      <c r="AK19" s="158"/>
-      <c r="AL19" s="158"/>
-      <c r="AM19" s="158"/>
-      <c r="AN19" s="158"/>
-      <c r="AO19" s="158"/>
+      <c r="T19" s="215">
+        <v>0.05</v>
+      </c>
+      <c r="U19" s="186"/>
+      <c r="V19" s="186"/>
+      <c r="W19" s="186"/>
+      <c r="X19" s="186"/>
+      <c r="Y19" s="186"/>
+      <c r="Z19" s="186"/>
+      <c r="AA19" s="186"/>
+      <c r="AB19" s="186"/>
+      <c r="AC19" s="186"/>
+      <c r="AD19" s="186"/>
+      <c r="AE19" s="186"/>
+      <c r="AF19" s="186"/>
+      <c r="AG19" s="186"/>
+      <c r="AH19" s="186"/>
+      <c r="AI19" s="186"/>
+      <c r="AJ19" s="186"/>
+      <c r="AK19" s="186"/>
+      <c r="AL19" s="186"/>
+      <c r="AM19" s="186"/>
+      <c r="AN19" s="186"/>
+      <c r="AO19" s="186"/>
       <c r="AP19" s="32"/>
       <c r="AQ19" s="37"/>
       <c r="AR19" s="37"/>
@@ -9232,46 +9241,46 @@
     </row>
     <row r="20" spans="1:133 16384:16384" s="7" customFormat="1" ht="11.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="21"/>
-      <c r="B20" s="157"/>
-      <c r="C20" s="157"/>
-      <c r="D20" s="157"/>
-      <c r="E20" s="157"/>
-      <c r="F20" s="157"/>
-      <c r="G20" s="157"/>
-      <c r="H20" s="157"/>
-      <c r="I20" s="157"/>
-      <c r="J20" s="157"/>
+      <c r="B20" s="185"/>
+      <c r="C20" s="185"/>
+      <c r="D20" s="185"/>
+      <c r="E20" s="185"/>
+      <c r="F20" s="185"/>
+      <c r="G20" s="185"/>
+      <c r="H20" s="185"/>
+      <c r="I20" s="185"/>
+      <c r="J20" s="185"/>
       <c r="K20" s="46"/>
-      <c r="L20" s="157"/>
-      <c r="M20" s="157"/>
-      <c r="N20" s="157"/>
-      <c r="O20" s="157"/>
-      <c r="P20" s="157"/>
-      <c r="Q20" s="157"/>
-      <c r="R20" s="157"/>
+      <c r="L20" s="185"/>
+      <c r="M20" s="185"/>
+      <c r="N20" s="185"/>
+      <c r="O20" s="185"/>
+      <c r="P20" s="185"/>
+      <c r="Q20" s="185"/>
+      <c r="R20" s="185"/>
       <c r="S20" s="46"/>
-      <c r="T20" s="159"/>
-      <c r="U20" s="159"/>
-      <c r="V20" s="159"/>
-      <c r="W20" s="159"/>
-      <c r="X20" s="159"/>
-      <c r="Y20" s="159"/>
-      <c r="Z20" s="159"/>
-      <c r="AA20" s="159"/>
-      <c r="AB20" s="159"/>
-      <c r="AC20" s="159"/>
-      <c r="AD20" s="159"/>
-      <c r="AE20" s="159"/>
-      <c r="AF20" s="159"/>
-      <c r="AG20" s="159"/>
-      <c r="AH20" s="159"/>
-      <c r="AI20" s="159"/>
-      <c r="AJ20" s="159"/>
-      <c r="AK20" s="159"/>
-      <c r="AL20" s="159"/>
-      <c r="AM20" s="159"/>
-      <c r="AN20" s="159"/>
-      <c r="AO20" s="159"/>
+      <c r="T20" s="187"/>
+      <c r="U20" s="187"/>
+      <c r="V20" s="187"/>
+      <c r="W20" s="187"/>
+      <c r="X20" s="187"/>
+      <c r="Y20" s="187"/>
+      <c r="Z20" s="187"/>
+      <c r="AA20" s="187"/>
+      <c r="AB20" s="187"/>
+      <c r="AC20" s="187"/>
+      <c r="AD20" s="187"/>
+      <c r="AE20" s="187"/>
+      <c r="AF20" s="187"/>
+      <c r="AG20" s="187"/>
+      <c r="AH20" s="187"/>
+      <c r="AI20" s="187"/>
+      <c r="AJ20" s="187"/>
+      <c r="AK20" s="187"/>
+      <c r="AL20" s="187"/>
+      <c r="AM20" s="187"/>
+      <c r="AN20" s="187"/>
+      <c r="AO20" s="187"/>
       <c r="AP20" s="17"/>
       <c r="AQ20" s="37"/>
       <c r="AR20" s="100"/>
@@ -9605,46 +9614,46 @@
     </row>
     <row r="23" spans="1:133 16384:16384" s="7" customFormat="1" ht="11.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="25"/>
-      <c r="B23" s="160"/>
-      <c r="C23" s="160"/>
-      <c r="D23" s="160"/>
-      <c r="E23" s="160"/>
-      <c r="F23" s="160"/>
-      <c r="G23" s="160"/>
-      <c r="H23" s="160"/>
-      <c r="I23" s="160"/>
-      <c r="J23" s="160"/>
-      <c r="K23" s="160"/>
-      <c r="L23" s="160"/>
-      <c r="M23" s="160"/>
-      <c r="N23" s="160"/>
-      <c r="O23" s="160"/>
-      <c r="P23" s="160"/>
-      <c r="Q23" s="160"/>
-      <c r="R23" s="160"/>
+      <c r="B23" s="188"/>
+      <c r="C23" s="188"/>
+      <c r="D23" s="188"/>
+      <c r="E23" s="188"/>
+      <c r="F23" s="188"/>
+      <c r="G23" s="188"/>
+      <c r="H23" s="188"/>
+      <c r="I23" s="188"/>
+      <c r="J23" s="188"/>
+      <c r="K23" s="188"/>
+      <c r="L23" s="188"/>
+      <c r="M23" s="188"/>
+      <c r="N23" s="188"/>
+      <c r="O23" s="188"/>
+      <c r="P23" s="188"/>
+      <c r="Q23" s="188"/>
+      <c r="R23" s="188"/>
       <c r="S23" s="49"/>
-      <c r="T23" s="162"/>
-      <c r="U23" s="162"/>
-      <c r="V23" s="162"/>
-      <c r="W23" s="162"/>
-      <c r="X23" s="162"/>
-      <c r="Y23" s="162"/>
-      <c r="Z23" s="162"/>
-      <c r="AA23" s="162"/>
+      <c r="T23" s="190"/>
+      <c r="U23" s="190"/>
+      <c r="V23" s="190"/>
+      <c r="W23" s="190"/>
+      <c r="X23" s="190"/>
+      <c r="Y23" s="190"/>
+      <c r="Z23" s="190"/>
+      <c r="AA23" s="190"/>
       <c r="AB23" s="47"/>
-      <c r="AC23" s="160"/>
-      <c r="AD23" s="160"/>
-      <c r="AE23" s="160"/>
-      <c r="AF23" s="160"/>
-      <c r="AG23" s="160"/>
-      <c r="AH23" s="160"/>
-      <c r="AI23" s="160"/>
-      <c r="AJ23" s="160"/>
-      <c r="AK23" s="160"/>
-      <c r="AL23" s="160"/>
-      <c r="AM23" s="160"/>
-      <c r="AN23" s="160"/>
-      <c r="AO23" s="160"/>
+      <c r="AC23" s="188"/>
+      <c r="AD23" s="188"/>
+      <c r="AE23" s="188"/>
+      <c r="AF23" s="188"/>
+      <c r="AG23" s="188"/>
+      <c r="AH23" s="188"/>
+      <c r="AI23" s="188"/>
+      <c r="AJ23" s="188"/>
+      <c r="AK23" s="188"/>
+      <c r="AL23" s="188"/>
+      <c r="AM23" s="188"/>
+      <c r="AN23" s="188"/>
+      <c r="AO23" s="188"/>
       <c r="AP23" s="32"/>
       <c r="AQ23" s="37"/>
       <c r="AR23" s="100"/>
@@ -9730,46 +9739,46 @@
     </row>
     <row r="24" spans="1:133 16384:16384" s="7" customFormat="1" ht="11.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="21"/>
-      <c r="B24" s="161"/>
-      <c r="C24" s="161"/>
-      <c r="D24" s="161"/>
-      <c r="E24" s="161"/>
-      <c r="F24" s="161"/>
-      <c r="G24" s="161"/>
-      <c r="H24" s="161"/>
-      <c r="I24" s="161"/>
-      <c r="J24" s="161"/>
-      <c r="K24" s="161"/>
-      <c r="L24" s="161"/>
-      <c r="M24" s="161"/>
-      <c r="N24" s="161"/>
-      <c r="O24" s="161"/>
-      <c r="P24" s="161"/>
-      <c r="Q24" s="161"/>
-      <c r="R24" s="161"/>
+      <c r="B24" s="189"/>
+      <c r="C24" s="189"/>
+      <c r="D24" s="189"/>
+      <c r="E24" s="189"/>
+      <c r="F24" s="189"/>
+      <c r="G24" s="189"/>
+      <c r="H24" s="189"/>
+      <c r="I24" s="189"/>
+      <c r="J24" s="189"/>
+      <c r="K24" s="189"/>
+      <c r="L24" s="189"/>
+      <c r="M24" s="189"/>
+      <c r="N24" s="189"/>
+      <c r="O24" s="189"/>
+      <c r="P24" s="189"/>
+      <c r="Q24" s="189"/>
+      <c r="R24" s="189"/>
       <c r="S24" s="48"/>
-      <c r="T24" s="163"/>
-      <c r="U24" s="163"/>
-      <c r="V24" s="163"/>
-      <c r="W24" s="163"/>
-      <c r="X24" s="163"/>
-      <c r="Y24" s="163"/>
-      <c r="Z24" s="163"/>
-      <c r="AA24" s="163"/>
+      <c r="T24" s="191"/>
+      <c r="U24" s="191"/>
+      <c r="V24" s="191"/>
+      <c r="W24" s="191"/>
+      <c r="X24" s="191"/>
+      <c r="Y24" s="191"/>
+      <c r="Z24" s="191"/>
+      <c r="AA24" s="191"/>
       <c r="AB24" s="46"/>
-      <c r="AC24" s="161"/>
-      <c r="AD24" s="161"/>
-      <c r="AE24" s="161"/>
-      <c r="AF24" s="161"/>
-      <c r="AG24" s="161"/>
-      <c r="AH24" s="161"/>
-      <c r="AI24" s="161"/>
-      <c r="AJ24" s="161"/>
-      <c r="AK24" s="161"/>
-      <c r="AL24" s="161"/>
-      <c r="AM24" s="161"/>
-      <c r="AN24" s="161"/>
-      <c r="AO24" s="161"/>
+      <c r="AC24" s="189"/>
+      <c r="AD24" s="189"/>
+      <c r="AE24" s="189"/>
+      <c r="AF24" s="189"/>
+      <c r="AG24" s="189"/>
+      <c r="AH24" s="189"/>
+      <c r="AI24" s="189"/>
+      <c r="AJ24" s="189"/>
+      <c r="AK24" s="189"/>
+      <c r="AL24" s="189"/>
+      <c r="AM24" s="189"/>
+      <c r="AN24" s="189"/>
+      <c r="AO24" s="189"/>
       <c r="AP24" s="17"/>
       <c r="AQ24" s="37"/>
       <c r="AR24" s="100"/>
@@ -10112,46 +10121,50 @@
     </row>
     <row r="27" spans="1:133 16384:16384" s="7" customFormat="1" ht="11.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="25"/>
-      <c r="B27" s="167"/>
-      <c r="C27" s="167"/>
-      <c r="D27" s="167"/>
-      <c r="E27" s="167"/>
-      <c r="F27" s="167"/>
-      <c r="G27" s="167"/>
-      <c r="H27" s="167"/>
-      <c r="I27" s="167"/>
-      <c r="J27" s="167"/>
-      <c r="K27" s="167"/>
-      <c r="L27" s="167"/>
-      <c r="M27" s="167"/>
-      <c r="N27" s="167"/>
-      <c r="O27" s="167"/>
-      <c r="P27" s="167"/>
-      <c r="Q27" s="167"/>
-      <c r="R27" s="167"/>
-      <c r="S27" s="167"/>
+      <c r="B27" s="175">
+        <v>20</v>
+      </c>
+      <c r="C27" s="175"/>
+      <c r="D27" s="175"/>
+      <c r="E27" s="175"/>
+      <c r="F27" s="175"/>
+      <c r="G27" s="175"/>
+      <c r="H27" s="175"/>
+      <c r="I27" s="175"/>
+      <c r="J27" s="175"/>
+      <c r="K27" s="175"/>
+      <c r="L27" s="175"/>
+      <c r="M27" s="175"/>
+      <c r="N27" s="175"/>
+      <c r="O27" s="175"/>
+      <c r="P27" s="175"/>
+      <c r="Q27" s="175"/>
+      <c r="R27" s="175"/>
+      <c r="S27" s="175"/>
       <c r="T27" s="47"/>
       <c r="U27" s="47"/>
-      <c r="V27" s="167"/>
-      <c r="W27" s="167"/>
-      <c r="X27" s="167"/>
-      <c r="Y27" s="167"/>
-      <c r="Z27" s="167"/>
-      <c r="AA27" s="167"/>
-      <c r="AB27" s="167"/>
-      <c r="AC27" s="167"/>
-      <c r="AD27" s="167"/>
-      <c r="AE27" s="167"/>
-      <c r="AF27" s="167"/>
-      <c r="AG27" s="167"/>
-      <c r="AH27" s="167"/>
-      <c r="AI27" s="167"/>
-      <c r="AJ27" s="167"/>
-      <c r="AK27" s="167"/>
-      <c r="AL27" s="167"/>
-      <c r="AM27" s="167"/>
-      <c r="AN27" s="167"/>
-      <c r="AO27" s="167"/>
+      <c r="V27" s="175">
+        <v>10</v>
+      </c>
+      <c r="W27" s="175"/>
+      <c r="X27" s="175"/>
+      <c r="Y27" s="175"/>
+      <c r="Z27" s="175"/>
+      <c r="AA27" s="175"/>
+      <c r="AB27" s="175"/>
+      <c r="AC27" s="175"/>
+      <c r="AD27" s="175"/>
+      <c r="AE27" s="175"/>
+      <c r="AF27" s="175"/>
+      <c r="AG27" s="175"/>
+      <c r="AH27" s="175"/>
+      <c r="AI27" s="175"/>
+      <c r="AJ27" s="175"/>
+      <c r="AK27" s="175"/>
+      <c r="AL27" s="175"/>
+      <c r="AM27" s="175"/>
+      <c r="AN27" s="175"/>
+      <c r="AO27" s="175"/>
       <c r="AP27" s="32"/>
       <c r="AQ27" s="37"/>
       <c r="AR27" s="100"/>
@@ -10237,46 +10250,46 @@
     </row>
     <row r="28" spans="1:133 16384:16384" s="7" customFormat="1" ht="11.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="21"/>
-      <c r="B28" s="168"/>
-      <c r="C28" s="168"/>
-      <c r="D28" s="168"/>
-      <c r="E28" s="168"/>
-      <c r="F28" s="168"/>
-      <c r="G28" s="168"/>
-      <c r="H28" s="168"/>
-      <c r="I28" s="168"/>
-      <c r="J28" s="168"/>
-      <c r="K28" s="168"/>
-      <c r="L28" s="168"/>
-      <c r="M28" s="168"/>
-      <c r="N28" s="168"/>
-      <c r="O28" s="168"/>
-      <c r="P28" s="168"/>
-      <c r="Q28" s="168"/>
-      <c r="R28" s="168"/>
-      <c r="S28" s="168"/>
+      <c r="B28" s="176"/>
+      <c r="C28" s="176"/>
+      <c r="D28" s="176"/>
+      <c r="E28" s="176"/>
+      <c r="F28" s="176"/>
+      <c r="G28" s="176"/>
+      <c r="H28" s="176"/>
+      <c r="I28" s="176"/>
+      <c r="J28" s="176"/>
+      <c r="K28" s="176"/>
+      <c r="L28" s="176"/>
+      <c r="M28" s="176"/>
+      <c r="N28" s="176"/>
+      <c r="O28" s="176"/>
+      <c r="P28" s="176"/>
+      <c r="Q28" s="176"/>
+      <c r="R28" s="176"/>
+      <c r="S28" s="176"/>
       <c r="T28" s="46"/>
       <c r="U28" s="46"/>
-      <c r="V28" s="168"/>
-      <c r="W28" s="168"/>
-      <c r="X28" s="168"/>
-      <c r="Y28" s="168"/>
-      <c r="Z28" s="168"/>
-      <c r="AA28" s="168"/>
-      <c r="AB28" s="168"/>
-      <c r="AC28" s="168"/>
-      <c r="AD28" s="168"/>
-      <c r="AE28" s="168"/>
-      <c r="AF28" s="168"/>
-      <c r="AG28" s="168"/>
-      <c r="AH28" s="168"/>
-      <c r="AI28" s="168"/>
-      <c r="AJ28" s="168"/>
-      <c r="AK28" s="168"/>
-      <c r="AL28" s="168"/>
-      <c r="AM28" s="168"/>
-      <c r="AN28" s="168"/>
-      <c r="AO28" s="168"/>
+      <c r="V28" s="176"/>
+      <c r="W28" s="176"/>
+      <c r="X28" s="176"/>
+      <c r="Y28" s="176"/>
+      <c r="Z28" s="176"/>
+      <c r="AA28" s="176"/>
+      <c r="AB28" s="176"/>
+      <c r="AC28" s="176"/>
+      <c r="AD28" s="176"/>
+      <c r="AE28" s="176"/>
+      <c r="AF28" s="176"/>
+      <c r="AG28" s="176"/>
+      <c r="AH28" s="176"/>
+      <c r="AI28" s="176"/>
+      <c r="AJ28" s="176"/>
+      <c r="AK28" s="176"/>
+      <c r="AL28" s="176"/>
+      <c r="AM28" s="176"/>
+      <c r="AN28" s="176"/>
+      <c r="AO28" s="176"/>
       <c r="AP28" s="17"/>
       <c r="AQ28" s="37"/>
       <c r="AR28" s="100"/>
@@ -10596,46 +10609,48 @@
     </row>
     <row r="31" spans="1:133 16384:16384" s="7" customFormat="1" ht="11.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="25"/>
-      <c r="B31" s="169"/>
-      <c r="C31" s="169"/>
-      <c r="D31" s="169"/>
-      <c r="E31" s="169"/>
-      <c r="F31" s="169"/>
-      <c r="G31" s="169"/>
-      <c r="H31" s="169"/>
-      <c r="I31" s="169"/>
-      <c r="J31" s="169"/>
-      <c r="K31" s="169"/>
-      <c r="L31" s="169"/>
-      <c r="M31" s="169"/>
-      <c r="N31" s="169"/>
-      <c r="O31" s="169"/>
-      <c r="P31" s="169"/>
-      <c r="Q31" s="169"/>
-      <c r="R31" s="169"/>
-      <c r="S31" s="169"/>
-      <c r="T31" s="169"/>
-      <c r="U31" s="169"/>
-      <c r="V31" s="169"/>
-      <c r="W31" s="169"/>
-      <c r="X31" s="169"/>
-      <c r="Y31" s="169"/>
-      <c r="Z31" s="169"/>
-      <c r="AA31" s="169"/>
-      <c r="AB31" s="169"/>
-      <c r="AC31" s="169"/>
-      <c r="AD31" s="169"/>
-      <c r="AE31" s="169"/>
-      <c r="AF31" s="169"/>
-      <c r="AG31" s="169"/>
-      <c r="AH31" s="169"/>
-      <c r="AI31" s="169"/>
-      <c r="AJ31" s="169"/>
-      <c r="AK31" s="169"/>
-      <c r="AL31" s="169"/>
-      <c r="AM31" s="169"/>
-      <c r="AN31" s="169"/>
-      <c r="AO31" s="169"/>
+      <c r="B31" s="177" t="s">
+        <v>363</v>
+      </c>
+      <c r="C31" s="177"/>
+      <c r="D31" s="177"/>
+      <c r="E31" s="177"/>
+      <c r="F31" s="177"/>
+      <c r="G31" s="177"/>
+      <c r="H31" s="177"/>
+      <c r="I31" s="177"/>
+      <c r="J31" s="177"/>
+      <c r="K31" s="177"/>
+      <c r="L31" s="177"/>
+      <c r="M31" s="177"/>
+      <c r="N31" s="177"/>
+      <c r="O31" s="177"/>
+      <c r="P31" s="177"/>
+      <c r="Q31" s="177"/>
+      <c r="R31" s="177"/>
+      <c r="S31" s="177"/>
+      <c r="T31" s="177"/>
+      <c r="U31" s="177"/>
+      <c r="V31" s="177"/>
+      <c r="W31" s="177"/>
+      <c r="X31" s="177"/>
+      <c r="Y31" s="177"/>
+      <c r="Z31" s="177"/>
+      <c r="AA31" s="177"/>
+      <c r="AB31" s="177"/>
+      <c r="AC31" s="177"/>
+      <c r="AD31" s="177"/>
+      <c r="AE31" s="177"/>
+      <c r="AF31" s="177"/>
+      <c r="AG31" s="177"/>
+      <c r="AH31" s="177"/>
+      <c r="AI31" s="177"/>
+      <c r="AJ31" s="177"/>
+      <c r="AK31" s="177"/>
+      <c r="AL31" s="177"/>
+      <c r="AM31" s="177"/>
+      <c r="AN31" s="177"/>
+      <c r="AO31" s="177"/>
       <c r="AP31" s="32"/>
       <c r="AQ31" s="37"/>
       <c r="AR31" s="100"/>
@@ -10713,46 +10728,46 @@
     </row>
     <row r="32" spans="1:133 16384:16384" s="7" customFormat="1" ht="11.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="25"/>
-      <c r="B32" s="170"/>
-      <c r="C32" s="170"/>
-      <c r="D32" s="170"/>
-      <c r="E32" s="170"/>
-      <c r="F32" s="170"/>
-      <c r="G32" s="170"/>
-      <c r="H32" s="170"/>
-      <c r="I32" s="170"/>
-      <c r="J32" s="170"/>
-      <c r="K32" s="170"/>
-      <c r="L32" s="170"/>
-      <c r="M32" s="170"/>
-      <c r="N32" s="170"/>
-      <c r="O32" s="170"/>
-      <c r="P32" s="170"/>
-      <c r="Q32" s="170"/>
-      <c r="R32" s="170"/>
-      <c r="S32" s="170"/>
-      <c r="T32" s="170"/>
-      <c r="U32" s="170"/>
-      <c r="V32" s="170"/>
-      <c r="W32" s="170"/>
-      <c r="X32" s="170"/>
-      <c r="Y32" s="170"/>
-      <c r="Z32" s="170"/>
-      <c r="AA32" s="170"/>
-      <c r="AB32" s="170"/>
-      <c r="AC32" s="170"/>
-      <c r="AD32" s="170"/>
-      <c r="AE32" s="170"/>
-      <c r="AF32" s="170"/>
-      <c r="AG32" s="170"/>
-      <c r="AH32" s="170"/>
-      <c r="AI32" s="170"/>
-      <c r="AJ32" s="170"/>
-      <c r="AK32" s="170"/>
-      <c r="AL32" s="170"/>
-      <c r="AM32" s="170"/>
-      <c r="AN32" s="170"/>
-      <c r="AO32" s="170"/>
+      <c r="B32" s="178"/>
+      <c r="C32" s="178"/>
+      <c r="D32" s="178"/>
+      <c r="E32" s="178"/>
+      <c r="F32" s="178"/>
+      <c r="G32" s="178"/>
+      <c r="H32" s="178"/>
+      <c r="I32" s="178"/>
+      <c r="J32" s="178"/>
+      <c r="K32" s="178"/>
+      <c r="L32" s="178"/>
+      <c r="M32" s="178"/>
+      <c r="N32" s="178"/>
+      <c r="O32" s="178"/>
+      <c r="P32" s="178"/>
+      <c r="Q32" s="178"/>
+      <c r="R32" s="178"/>
+      <c r="S32" s="178"/>
+      <c r="T32" s="178"/>
+      <c r="U32" s="178"/>
+      <c r="V32" s="178"/>
+      <c r="W32" s="178"/>
+      <c r="X32" s="178"/>
+      <c r="Y32" s="178"/>
+      <c r="Z32" s="178"/>
+      <c r="AA32" s="178"/>
+      <c r="AB32" s="178"/>
+      <c r="AC32" s="178"/>
+      <c r="AD32" s="178"/>
+      <c r="AE32" s="178"/>
+      <c r="AF32" s="178"/>
+      <c r="AG32" s="178"/>
+      <c r="AH32" s="178"/>
+      <c r="AI32" s="178"/>
+      <c r="AJ32" s="178"/>
+      <c r="AK32" s="178"/>
+      <c r="AL32" s="178"/>
+      <c r="AM32" s="178"/>
+      <c r="AN32" s="178"/>
+      <c r="AO32" s="178"/>
       <c r="AP32" s="22"/>
       <c r="AQ32" s="37"/>
       <c r="AR32" s="100"/>
@@ -10830,46 +10845,48 @@
     </row>
     <row r="33" spans="1:306" s="7" customFormat="1" ht="11.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="25"/>
-      <c r="B33" s="176"/>
-      <c r="C33" s="176"/>
-      <c r="D33" s="176"/>
-      <c r="E33" s="176"/>
-      <c r="F33" s="176"/>
-      <c r="G33" s="176"/>
-      <c r="H33" s="176"/>
-      <c r="I33" s="176"/>
-      <c r="J33" s="176"/>
-      <c r="K33" s="176"/>
-      <c r="L33" s="176"/>
-      <c r="M33" s="176"/>
-      <c r="N33" s="176"/>
-      <c r="O33" s="176"/>
-      <c r="P33" s="176"/>
-      <c r="Q33" s="176"/>
-      <c r="R33" s="176"/>
-      <c r="S33" s="176"/>
-      <c r="T33" s="176"/>
-      <c r="U33" s="176"/>
-      <c r="V33" s="176"/>
-      <c r="W33" s="176"/>
-      <c r="X33" s="176"/>
-      <c r="Y33" s="176"/>
-      <c r="Z33" s="176"/>
-      <c r="AA33" s="176"/>
-      <c r="AB33" s="176"/>
-      <c r="AC33" s="176"/>
-      <c r="AD33" s="176"/>
-      <c r="AE33" s="176"/>
-      <c r="AF33" s="176"/>
-      <c r="AG33" s="176"/>
-      <c r="AH33" s="176"/>
-      <c r="AI33" s="176"/>
-      <c r="AJ33" s="176"/>
-      <c r="AK33" s="176"/>
-      <c r="AL33" s="176"/>
-      <c r="AM33" s="176"/>
-      <c r="AN33" s="176"/>
-      <c r="AO33" s="176"/>
+      <c r="B33" s="181" t="s">
+        <v>288</v>
+      </c>
+      <c r="C33" s="181"/>
+      <c r="D33" s="181"/>
+      <c r="E33" s="181"/>
+      <c r="F33" s="181"/>
+      <c r="G33" s="181"/>
+      <c r="H33" s="181"/>
+      <c r="I33" s="181"/>
+      <c r="J33" s="181"/>
+      <c r="K33" s="181"/>
+      <c r="L33" s="181"/>
+      <c r="M33" s="181"/>
+      <c r="N33" s="181"/>
+      <c r="O33" s="181"/>
+      <c r="P33" s="181"/>
+      <c r="Q33" s="181"/>
+      <c r="R33" s="181"/>
+      <c r="S33" s="181"/>
+      <c r="T33" s="181"/>
+      <c r="U33" s="181"/>
+      <c r="V33" s="181"/>
+      <c r="W33" s="181"/>
+      <c r="X33" s="181"/>
+      <c r="Y33" s="181"/>
+      <c r="Z33" s="181"/>
+      <c r="AA33" s="181"/>
+      <c r="AB33" s="181"/>
+      <c r="AC33" s="181"/>
+      <c r="AD33" s="181"/>
+      <c r="AE33" s="181"/>
+      <c r="AF33" s="181"/>
+      <c r="AG33" s="181"/>
+      <c r="AH33" s="181"/>
+      <c r="AI33" s="181"/>
+      <c r="AJ33" s="181"/>
+      <c r="AK33" s="181"/>
+      <c r="AL33" s="181"/>
+      <c r="AM33" s="181"/>
+      <c r="AN33" s="181"/>
+      <c r="AO33" s="181"/>
       <c r="AP33" s="22"/>
       <c r="AQ33" s="37"/>
       <c r="AR33" s="100"/>
@@ -10946,46 +10963,46 @@
     </row>
     <row r="34" spans="1:306" s="7" customFormat="1" ht="11.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="21"/>
-      <c r="B34" s="177"/>
-      <c r="C34" s="177"/>
-      <c r="D34" s="177"/>
-      <c r="E34" s="177"/>
-      <c r="F34" s="177"/>
-      <c r="G34" s="177"/>
-      <c r="H34" s="177"/>
-      <c r="I34" s="177"/>
-      <c r="J34" s="177"/>
-      <c r="K34" s="177"/>
-      <c r="L34" s="177"/>
-      <c r="M34" s="177"/>
-      <c r="N34" s="177"/>
-      <c r="O34" s="177"/>
-      <c r="P34" s="177"/>
-      <c r="Q34" s="177"/>
-      <c r="R34" s="177"/>
-      <c r="S34" s="177"/>
-      <c r="T34" s="177"/>
-      <c r="U34" s="177"/>
-      <c r="V34" s="177"/>
-      <c r="W34" s="177"/>
-      <c r="X34" s="177"/>
-      <c r="Y34" s="177"/>
-      <c r="Z34" s="177"/>
-      <c r="AA34" s="177"/>
-      <c r="AB34" s="177"/>
-      <c r="AC34" s="177"/>
-      <c r="AD34" s="177"/>
-      <c r="AE34" s="177"/>
-      <c r="AF34" s="177"/>
-      <c r="AG34" s="177"/>
-      <c r="AH34" s="177"/>
-      <c r="AI34" s="177"/>
-      <c r="AJ34" s="177"/>
-      <c r="AK34" s="177"/>
-      <c r="AL34" s="177"/>
-      <c r="AM34" s="177"/>
-      <c r="AN34" s="177"/>
-      <c r="AO34" s="177"/>
+      <c r="B34" s="182"/>
+      <c r="C34" s="182"/>
+      <c r="D34" s="182"/>
+      <c r="E34" s="182"/>
+      <c r="F34" s="182"/>
+      <c r="G34" s="182"/>
+      <c r="H34" s="182"/>
+      <c r="I34" s="182"/>
+      <c r="J34" s="182"/>
+      <c r="K34" s="182"/>
+      <c r="L34" s="182"/>
+      <c r="M34" s="182"/>
+      <c r="N34" s="182"/>
+      <c r="O34" s="182"/>
+      <c r="P34" s="182"/>
+      <c r="Q34" s="182"/>
+      <c r="R34" s="182"/>
+      <c r="S34" s="182"/>
+      <c r="T34" s="182"/>
+      <c r="U34" s="182"/>
+      <c r="V34" s="182"/>
+      <c r="W34" s="182"/>
+      <c r="X34" s="182"/>
+      <c r="Y34" s="182"/>
+      <c r="Z34" s="182"/>
+      <c r="AA34" s="182"/>
+      <c r="AB34" s="182"/>
+      <c r="AC34" s="182"/>
+      <c r="AD34" s="182"/>
+      <c r="AE34" s="182"/>
+      <c r="AF34" s="182"/>
+      <c r="AG34" s="182"/>
+      <c r="AH34" s="182"/>
+      <c r="AI34" s="182"/>
+      <c r="AJ34" s="182"/>
+      <c r="AK34" s="182"/>
+      <c r="AL34" s="182"/>
+      <c r="AM34" s="182"/>
+      <c r="AN34" s="182"/>
+      <c r="AO34" s="182"/>
       <c r="AP34" s="17"/>
       <c r="AQ34" s="37"/>
       <c r="AR34" s="111"/>
@@ -11062,46 +11079,48 @@
     </row>
     <row r="35" spans="1:306" s="7" customFormat="1" ht="19.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="130"/>
-      <c r="B35" s="175"/>
-      <c r="C35" s="175"/>
-      <c r="D35" s="175"/>
-      <c r="E35" s="175"/>
-      <c r="F35" s="175"/>
-      <c r="G35" s="175"/>
-      <c r="H35" s="175"/>
-      <c r="I35" s="175"/>
-      <c r="J35" s="175"/>
-      <c r="K35" s="175"/>
-      <c r="L35" s="175"/>
-      <c r="M35" s="175"/>
-      <c r="N35" s="175"/>
-      <c r="O35" s="175"/>
-      <c r="P35" s="175"/>
-      <c r="Q35" s="175"/>
-      <c r="R35" s="175"/>
-      <c r="S35" s="175"/>
-      <c r="T35" s="175"/>
-      <c r="U35" s="175"/>
-      <c r="V35" s="175"/>
-      <c r="W35" s="175"/>
-      <c r="X35" s="175"/>
-      <c r="Y35" s="175"/>
-      <c r="Z35" s="175"/>
-      <c r="AA35" s="175"/>
-      <c r="AB35" s="175"/>
-      <c r="AC35" s="175"/>
-      <c r="AD35" s="175"/>
-      <c r="AE35" s="175"/>
-      <c r="AF35" s="175"/>
-      <c r="AG35" s="175"/>
-      <c r="AH35" s="175"/>
-      <c r="AI35" s="175"/>
-      <c r="AJ35" s="175"/>
-      <c r="AK35" s="175"/>
-      <c r="AL35" s="175"/>
-      <c r="AM35" s="175"/>
-      <c r="AN35" s="175"/>
-      <c r="AO35" s="175"/>
+      <c r="B35" s="180" t="s">
+        <v>550</v>
+      </c>
+      <c r="C35" s="180"/>
+      <c r="D35" s="180"/>
+      <c r="E35" s="180"/>
+      <c r="F35" s="180"/>
+      <c r="G35" s="180"/>
+      <c r="H35" s="180"/>
+      <c r="I35" s="180"/>
+      <c r="J35" s="180"/>
+      <c r="K35" s="180"/>
+      <c r="L35" s="180"/>
+      <c r="M35" s="180"/>
+      <c r="N35" s="180"/>
+      <c r="O35" s="180"/>
+      <c r="P35" s="180"/>
+      <c r="Q35" s="180"/>
+      <c r="R35" s="180"/>
+      <c r="S35" s="180"/>
+      <c r="T35" s="180"/>
+      <c r="U35" s="180"/>
+      <c r="V35" s="180"/>
+      <c r="W35" s="180"/>
+      <c r="X35" s="180"/>
+      <c r="Y35" s="180"/>
+      <c r="Z35" s="180"/>
+      <c r="AA35" s="180"/>
+      <c r="AB35" s="180"/>
+      <c r="AC35" s="180"/>
+      <c r="AD35" s="180"/>
+      <c r="AE35" s="180"/>
+      <c r="AF35" s="180"/>
+      <c r="AG35" s="180"/>
+      <c r="AH35" s="180"/>
+      <c r="AI35" s="180"/>
+      <c r="AJ35" s="180"/>
+      <c r="AK35" s="180"/>
+      <c r="AL35" s="180"/>
+      <c r="AM35" s="180"/>
+      <c r="AN35" s="180"/>
+      <c r="AO35" s="180"/>
       <c r="AP35" s="131"/>
       <c r="AQ35" s="37"/>
       <c r="AR35" s="111"/>
@@ -11368,34 +11387,34 @@
     </row>
     <row r="38" spans="1:306" s="7" customFormat="1" ht="11.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="25"/>
-      <c r="B38" s="171" t="s">
+      <c r="B38" s="169" t="s">
         <v>193</v>
       </c>
-      <c r="C38" s="171"/>
-      <c r="D38" s="171"/>
-      <c r="E38" s="171"/>
-      <c r="F38" s="171"/>
-      <c r="G38" s="171"/>
-      <c r="H38" s="171"/>
-      <c r="I38" s="171"/>
-      <c r="J38" s="171"/>
-      <c r="K38" s="171"/>
-      <c r="L38" s="171"/>
-      <c r="M38" s="171"/>
-      <c r="N38" s="171"/>
-      <c r="O38" s="171"/>
-      <c r="P38" s="171"/>
-      <c r="Q38" s="171"/>
-      <c r="R38" s="171"/>
-      <c r="S38" s="171"/>
-      <c r="T38" s="171"/>
-      <c r="U38" s="171"/>
-      <c r="V38" s="171"/>
-      <c r="W38" s="171"/>
-      <c r="X38" s="171"/>
-      <c r="Y38" s="171"/>
-      <c r="Z38" s="171"/>
-      <c r="AA38" s="171"/>
+      <c r="C38" s="169"/>
+      <c r="D38" s="169"/>
+      <c r="E38" s="169"/>
+      <c r="F38" s="169"/>
+      <c r="G38" s="169"/>
+      <c r="H38" s="169"/>
+      <c r="I38" s="169"/>
+      <c r="J38" s="169"/>
+      <c r="K38" s="169"/>
+      <c r="L38" s="169"/>
+      <c r="M38" s="169"/>
+      <c r="N38" s="169"/>
+      <c r="O38" s="169"/>
+      <c r="P38" s="169"/>
+      <c r="Q38" s="169"/>
+      <c r="R38" s="169"/>
+      <c r="S38" s="169"/>
+      <c r="T38" s="169"/>
+      <c r="U38" s="169"/>
+      <c r="V38" s="169"/>
+      <c r="W38" s="169"/>
+      <c r="X38" s="169"/>
+      <c r="Y38" s="169"/>
+      <c r="Z38" s="169"/>
+      <c r="AA38" s="169"/>
       <c r="AB38" s="172"/>
       <c r="AC38" s="172"/>
       <c r="AD38" s="172"/>
@@ -11486,48 +11505,48 @@
     </row>
     <row r="39" spans="1:306" s="7" customFormat="1" ht="11.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="25"/>
-      <c r="B39" s="173" t="s">
+      <c r="B39" s="161" t="s">
         <v>197</v>
       </c>
-      <c r="C39" s="173"/>
-      <c r="D39" s="173"/>
-      <c r="E39" s="173"/>
-      <c r="F39" s="173"/>
-      <c r="G39" s="173"/>
-      <c r="H39" s="173"/>
-      <c r="I39" s="173"/>
-      <c r="J39" s="173"/>
-      <c r="K39" s="173"/>
-      <c r="L39" s="173"/>
-      <c r="M39" s="173"/>
-      <c r="N39" s="173"/>
-      <c r="O39" s="173"/>
-      <c r="P39" s="173"/>
-      <c r="Q39" s="173"/>
-      <c r="R39" s="173"/>
-      <c r="S39" s="173"/>
-      <c r="T39" s="173"/>
-      <c r="U39" s="173"/>
-      <c r="V39" s="173"/>
-      <c r="W39" s="173"/>
-      <c r="X39" s="173"/>
-      <c r="Y39" s="173"/>
-      <c r="Z39" s="173"/>
-      <c r="AA39" s="173"/>
-      <c r="AB39" s="174"/>
-      <c r="AC39" s="174"/>
-      <c r="AD39" s="174"/>
-      <c r="AE39" s="174"/>
-      <c r="AF39" s="174"/>
-      <c r="AG39" s="174"/>
-      <c r="AH39" s="174"/>
-      <c r="AI39" s="174"/>
-      <c r="AJ39" s="174"/>
-      <c r="AK39" s="174"/>
-      <c r="AL39" s="174"/>
-      <c r="AM39" s="174"/>
-      <c r="AN39" s="174"/>
-      <c r="AO39" s="174"/>
+      <c r="C39" s="161"/>
+      <c r="D39" s="161"/>
+      <c r="E39" s="161"/>
+      <c r="F39" s="161"/>
+      <c r="G39" s="161"/>
+      <c r="H39" s="161"/>
+      <c r="I39" s="161"/>
+      <c r="J39" s="161"/>
+      <c r="K39" s="161"/>
+      <c r="L39" s="161"/>
+      <c r="M39" s="161"/>
+      <c r="N39" s="161"/>
+      <c r="O39" s="161"/>
+      <c r="P39" s="161"/>
+      <c r="Q39" s="161"/>
+      <c r="R39" s="161"/>
+      <c r="S39" s="161"/>
+      <c r="T39" s="161"/>
+      <c r="U39" s="161"/>
+      <c r="V39" s="161"/>
+      <c r="W39" s="161"/>
+      <c r="X39" s="161"/>
+      <c r="Y39" s="161"/>
+      <c r="Z39" s="161"/>
+      <c r="AA39" s="161"/>
+      <c r="AB39" s="179"/>
+      <c r="AC39" s="179"/>
+      <c r="AD39" s="179"/>
+      <c r="AE39" s="179"/>
+      <c r="AF39" s="179"/>
+      <c r="AG39" s="179"/>
+      <c r="AH39" s="179"/>
+      <c r="AI39" s="179"/>
+      <c r="AJ39" s="179"/>
+      <c r="AK39" s="179"/>
+      <c r="AL39" s="179"/>
+      <c r="AM39" s="179"/>
+      <c r="AN39" s="179"/>
+      <c r="AO39" s="179"/>
       <c r="AP39" s="22"/>
       <c r="AQ39" s="37"/>
       <c r="AR39" s="21"/>
@@ -11604,48 +11623,48 @@
     </row>
     <row r="40" spans="1:306" s="7" customFormat="1" ht="11.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A40" s="25"/>
-      <c r="B40" s="173" t="s">
+      <c r="B40" s="161" t="s">
         <v>201</v>
       </c>
-      <c r="C40" s="173"/>
-      <c r="D40" s="173"/>
-      <c r="E40" s="173"/>
-      <c r="F40" s="173"/>
-      <c r="G40" s="173"/>
-      <c r="H40" s="173"/>
-      <c r="I40" s="173"/>
-      <c r="J40" s="173"/>
-      <c r="K40" s="173"/>
-      <c r="L40" s="173"/>
-      <c r="M40" s="173"/>
-      <c r="N40" s="173"/>
-      <c r="O40" s="173"/>
-      <c r="P40" s="173"/>
-      <c r="Q40" s="173"/>
-      <c r="R40" s="173"/>
-      <c r="S40" s="173"/>
-      <c r="T40" s="173"/>
-      <c r="U40" s="173"/>
-      <c r="V40" s="173"/>
-      <c r="W40" s="173"/>
-      <c r="X40" s="173"/>
-      <c r="Y40" s="173"/>
-      <c r="Z40" s="173"/>
-      <c r="AA40" s="173"/>
-      <c r="AB40" s="174"/>
-      <c r="AC40" s="174"/>
-      <c r="AD40" s="174"/>
-      <c r="AE40" s="174"/>
-      <c r="AF40" s="174"/>
-      <c r="AG40" s="174"/>
-      <c r="AH40" s="174"/>
-      <c r="AI40" s="174"/>
-      <c r="AJ40" s="174"/>
-      <c r="AK40" s="174"/>
-      <c r="AL40" s="174"/>
-      <c r="AM40" s="174"/>
-      <c r="AN40" s="174"/>
-      <c r="AO40" s="174"/>
+      <c r="C40" s="161"/>
+      <c r="D40" s="161"/>
+      <c r="E40" s="161"/>
+      <c r="F40" s="161"/>
+      <c r="G40" s="161"/>
+      <c r="H40" s="161"/>
+      <c r="I40" s="161"/>
+      <c r="J40" s="161"/>
+      <c r="K40" s="161"/>
+      <c r="L40" s="161"/>
+      <c r="M40" s="161"/>
+      <c r="N40" s="161"/>
+      <c r="O40" s="161"/>
+      <c r="P40" s="161"/>
+      <c r="Q40" s="161"/>
+      <c r="R40" s="161"/>
+      <c r="S40" s="161"/>
+      <c r="T40" s="161"/>
+      <c r="U40" s="161"/>
+      <c r="V40" s="161"/>
+      <c r="W40" s="161"/>
+      <c r="X40" s="161"/>
+      <c r="Y40" s="161"/>
+      <c r="Z40" s="161"/>
+      <c r="AA40" s="161"/>
+      <c r="AB40" s="179"/>
+      <c r="AC40" s="179"/>
+      <c r="AD40" s="179"/>
+      <c r="AE40" s="179"/>
+      <c r="AF40" s="179"/>
+      <c r="AG40" s="179"/>
+      <c r="AH40" s="179"/>
+      <c r="AI40" s="179"/>
+      <c r="AJ40" s="179"/>
+      <c r="AK40" s="179"/>
+      <c r="AL40" s="179"/>
+      <c r="AM40" s="179"/>
+      <c r="AN40" s="179"/>
+      <c r="AO40" s="179"/>
       <c r="AP40" s="22"/>
       <c r="AQ40" s="37"/>
       <c r="CL40" s="5"/>
@@ -11678,48 +11697,48 @@
     </row>
     <row r="41" spans="1:306" s="7" customFormat="1" ht="11.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A41" s="21"/>
-      <c r="B41" s="165" t="s">
+      <c r="B41" s="173" t="s">
         <v>14</v>
       </c>
-      <c r="C41" s="165"/>
-      <c r="D41" s="165"/>
-      <c r="E41" s="165"/>
-      <c r="F41" s="165"/>
-      <c r="G41" s="165"/>
-      <c r="H41" s="165"/>
-      <c r="I41" s="165"/>
-      <c r="J41" s="165"/>
-      <c r="K41" s="165"/>
-      <c r="L41" s="165"/>
-      <c r="M41" s="165"/>
-      <c r="N41" s="165"/>
-      <c r="O41" s="165"/>
-      <c r="P41" s="165"/>
-      <c r="Q41" s="165"/>
-      <c r="R41" s="165"/>
-      <c r="S41" s="165"/>
-      <c r="T41" s="165"/>
-      <c r="U41" s="165"/>
-      <c r="V41" s="165"/>
-      <c r="W41" s="165"/>
-      <c r="X41" s="165"/>
-      <c r="Y41" s="165"/>
-      <c r="Z41" s="165"/>
-      <c r="AA41" s="165"/>
-      <c r="AB41" s="166"/>
-      <c r="AC41" s="166"/>
-      <c r="AD41" s="166"/>
-      <c r="AE41" s="166"/>
-      <c r="AF41" s="166"/>
-      <c r="AG41" s="166"/>
-      <c r="AH41" s="166"/>
-      <c r="AI41" s="166"/>
-      <c r="AJ41" s="166"/>
-      <c r="AK41" s="166"/>
-      <c r="AL41" s="166"/>
-      <c r="AM41" s="166"/>
-      <c r="AN41" s="166"/>
-      <c r="AO41" s="166"/>
+      <c r="C41" s="173"/>
+      <c r="D41" s="173"/>
+      <c r="E41" s="173"/>
+      <c r="F41" s="173"/>
+      <c r="G41" s="173"/>
+      <c r="H41" s="173"/>
+      <c r="I41" s="173"/>
+      <c r="J41" s="173"/>
+      <c r="K41" s="173"/>
+      <c r="L41" s="173"/>
+      <c r="M41" s="173"/>
+      <c r="N41" s="173"/>
+      <c r="O41" s="173"/>
+      <c r="P41" s="173"/>
+      <c r="Q41" s="173"/>
+      <c r="R41" s="173"/>
+      <c r="S41" s="173"/>
+      <c r="T41" s="173"/>
+      <c r="U41" s="173"/>
+      <c r="V41" s="173"/>
+      <c r="W41" s="173"/>
+      <c r="X41" s="173"/>
+      <c r="Y41" s="173"/>
+      <c r="Z41" s="173"/>
+      <c r="AA41" s="173"/>
+      <c r="AB41" s="174"/>
+      <c r="AC41" s="174"/>
+      <c r="AD41" s="174"/>
+      <c r="AE41" s="174"/>
+      <c r="AF41" s="174"/>
+      <c r="AG41" s="174"/>
+      <c r="AH41" s="174"/>
+      <c r="AI41" s="174"/>
+      <c r="AJ41" s="174"/>
+      <c r="AK41" s="174"/>
+      <c r="AL41" s="174"/>
+      <c r="AM41" s="174"/>
+      <c r="AN41" s="174"/>
+      <c r="AO41" s="174"/>
       <c r="AP41" s="17"/>
       <c r="AQ41" s="37"/>
       <c r="AR41" s="52"/>
@@ -11797,46 +11816,46 @@
     <row r="42" spans="1:306" s="7" customFormat="1" ht="11.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="AQ42" s="37"/>
       <c r="AR42" s="40"/>
-      <c r="AS42" s="192"/>
-      <c r="AT42" s="192"/>
-      <c r="AU42" s="192"/>
-      <c r="AV42" s="192"/>
-      <c r="AW42" s="192"/>
-      <c r="AX42" s="192"/>
-      <c r="AY42" s="192"/>
-      <c r="AZ42" s="192"/>
-      <c r="BA42" s="192"/>
-      <c r="BB42" s="192"/>
-      <c r="BC42" s="192"/>
-      <c r="BD42" s="192"/>
-      <c r="BE42" s="192"/>
-      <c r="BF42" s="192"/>
-      <c r="BG42" s="192"/>
-      <c r="BH42" s="192"/>
-      <c r="BI42" s="192"/>
-      <c r="BJ42" s="192"/>
-      <c r="BK42" s="192"/>
-      <c r="BL42" s="192"/>
-      <c r="BM42" s="192"/>
-      <c r="BN42" s="192"/>
-      <c r="BO42" s="192"/>
-      <c r="BP42" s="192"/>
-      <c r="BQ42" s="192"/>
-      <c r="BR42" s="192"/>
-      <c r="BS42" s="192"/>
-      <c r="BT42" s="192"/>
-      <c r="BU42" s="192"/>
-      <c r="BV42" s="192"/>
-      <c r="BW42" s="192"/>
-      <c r="BX42" s="192"/>
-      <c r="BY42" s="192"/>
-      <c r="BZ42" s="192"/>
-      <c r="CA42" s="192"/>
-      <c r="CB42" s="192"/>
-      <c r="CC42" s="192"/>
-      <c r="CD42" s="192"/>
-      <c r="CE42" s="192"/>
-      <c r="CF42" s="192"/>
+      <c r="AS42" s="144"/>
+      <c r="AT42" s="144"/>
+      <c r="AU42" s="144"/>
+      <c r="AV42" s="144"/>
+      <c r="AW42" s="144"/>
+      <c r="AX42" s="144"/>
+      <c r="AY42" s="144"/>
+      <c r="AZ42" s="144"/>
+      <c r="BA42" s="144"/>
+      <c r="BB42" s="144"/>
+      <c r="BC42" s="144"/>
+      <c r="BD42" s="144"/>
+      <c r="BE42" s="144"/>
+      <c r="BF42" s="144"/>
+      <c r="BG42" s="144"/>
+      <c r="BH42" s="144"/>
+      <c r="BI42" s="144"/>
+      <c r="BJ42" s="144"/>
+      <c r="BK42" s="144"/>
+      <c r="BL42" s="144"/>
+      <c r="BM42" s="144"/>
+      <c r="BN42" s="144"/>
+      <c r="BO42" s="144"/>
+      <c r="BP42" s="144"/>
+      <c r="BQ42" s="144"/>
+      <c r="BR42" s="144"/>
+      <c r="BS42" s="144"/>
+      <c r="BT42" s="144"/>
+      <c r="BU42" s="144"/>
+      <c r="BV42" s="144"/>
+      <c r="BW42" s="144"/>
+      <c r="BX42" s="144"/>
+      <c r="BY42" s="144"/>
+      <c r="BZ42" s="144"/>
+      <c r="CA42" s="144"/>
+      <c r="CB42" s="144"/>
+      <c r="CC42" s="144"/>
+      <c r="CD42" s="144"/>
+      <c r="CE42" s="144"/>
+      <c r="CF42" s="144"/>
       <c r="CG42" s="22"/>
       <c r="CL42" s="5"/>
       <c r="CM42" s="2"/>
@@ -11913,46 +11932,46 @@
       <c r="AP43" s="37"/>
       <c r="AQ43" s="37"/>
       <c r="AR43" s="25"/>
-      <c r="AS43" s="193"/>
-      <c r="AT43" s="193"/>
-      <c r="AU43" s="193"/>
-      <c r="AV43" s="193"/>
-      <c r="AW43" s="193"/>
-      <c r="AX43" s="193"/>
-      <c r="AY43" s="193"/>
-      <c r="AZ43" s="193"/>
-      <c r="BA43" s="193"/>
-      <c r="BB43" s="193"/>
-      <c r="BC43" s="193"/>
-      <c r="BD43" s="193"/>
-      <c r="BE43" s="193"/>
-      <c r="BF43" s="193"/>
-      <c r="BG43" s="193"/>
-      <c r="BH43" s="193"/>
-      <c r="BI43" s="193"/>
-      <c r="BJ43" s="193"/>
-      <c r="BK43" s="193"/>
-      <c r="BL43" s="193"/>
-      <c r="BM43" s="193"/>
-      <c r="BN43" s="193"/>
-      <c r="BO43" s="193"/>
-      <c r="BP43" s="193"/>
-      <c r="BQ43" s="193"/>
-      <c r="BR43" s="193"/>
-      <c r="BS43" s="193"/>
-      <c r="BT43" s="193"/>
-      <c r="BU43" s="193"/>
-      <c r="BV43" s="193"/>
-      <c r="BW43" s="193"/>
-      <c r="BX43" s="193"/>
-      <c r="BY43" s="193"/>
-      <c r="BZ43" s="193"/>
-      <c r="CA43" s="193"/>
-      <c r="CB43" s="193"/>
-      <c r="CC43" s="193"/>
-      <c r="CD43" s="193"/>
-      <c r="CE43" s="193"/>
-      <c r="CF43" s="193"/>
+      <c r="AS43" s="145"/>
+      <c r="AT43" s="145"/>
+      <c r="AU43" s="145"/>
+      <c r="AV43" s="145"/>
+      <c r="AW43" s="145"/>
+      <c r="AX43" s="145"/>
+      <c r="AY43" s="145"/>
+      <c r="AZ43" s="145"/>
+      <c r="BA43" s="145"/>
+      <c r="BB43" s="145"/>
+      <c r="BC43" s="145"/>
+      <c r="BD43" s="145"/>
+      <c r="BE43" s="145"/>
+      <c r="BF43" s="145"/>
+      <c r="BG43" s="145"/>
+      <c r="BH43" s="145"/>
+      <c r="BI43" s="145"/>
+      <c r="BJ43" s="145"/>
+      <c r="BK43" s="145"/>
+      <c r="BL43" s="145"/>
+      <c r="BM43" s="145"/>
+      <c r="BN43" s="145"/>
+      <c r="BO43" s="145"/>
+      <c r="BP43" s="145"/>
+      <c r="BQ43" s="145"/>
+      <c r="BR43" s="145"/>
+      <c r="BS43" s="145"/>
+      <c r="BT43" s="145"/>
+      <c r="BU43" s="145"/>
+      <c r="BV43" s="145"/>
+      <c r="BW43" s="145"/>
+      <c r="BX43" s="145"/>
+      <c r="BY43" s="145"/>
+      <c r="BZ43" s="145"/>
+      <c r="CA43" s="145"/>
+      <c r="CB43" s="145"/>
+      <c r="CC43" s="145"/>
+      <c r="CD43" s="145"/>
+      <c r="CE43" s="145"/>
+      <c r="CF43" s="145"/>
       <c r="CG43" s="22"/>
       <c r="CL43" s="5"/>
       <c r="CM43" s="2"/>
@@ -11984,38 +12003,38 @@
     </row>
     <row r="44" spans="1:306" s="7" customFormat="1" ht="11.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="25"/>
-      <c r="B44" s="171" t="s">
+      <c r="B44" s="169" t="s">
         <v>213</v>
       </c>
-      <c r="C44" s="171"/>
-      <c r="D44" s="171"/>
-      <c r="E44" s="171"/>
-      <c r="F44" s="171"/>
-      <c r="G44" s="171"/>
-      <c r="H44" s="171"/>
-      <c r="I44" s="171"/>
-      <c r="J44" s="171"/>
-      <c r="K44" s="171"/>
-      <c r="L44" s="171"/>
-      <c r="M44" s="171"/>
-      <c r="N44" s="171"/>
-      <c r="O44" s="171"/>
-      <c r="P44" s="171"/>
-      <c r="Q44" s="171"/>
-      <c r="R44" s="171"/>
-      <c r="S44" s="171"/>
-      <c r="T44" s="171"/>
-      <c r="U44" s="171"/>
-      <c r="V44" s="171"/>
-      <c r="W44" s="171"/>
-      <c r="X44" s="171"/>
-      <c r="Y44" s="171"/>
-      <c r="Z44" s="171"/>
-      <c r="AA44" s="171"/>
-      <c r="AB44" s="171"/>
-      <c r="AC44" s="171"/>
-      <c r="AD44" s="185"/>
-      <c r="AE44" s="186"/>
+      <c r="C44" s="169"/>
+      <c r="D44" s="169"/>
+      <c r="E44" s="169"/>
+      <c r="F44" s="169"/>
+      <c r="G44" s="169"/>
+      <c r="H44" s="169"/>
+      <c r="I44" s="169"/>
+      <c r="J44" s="169"/>
+      <c r="K44" s="169"/>
+      <c r="L44" s="169"/>
+      <c r="M44" s="169"/>
+      <c r="N44" s="169"/>
+      <c r="O44" s="169"/>
+      <c r="P44" s="169"/>
+      <c r="Q44" s="169"/>
+      <c r="R44" s="169"/>
+      <c r="S44" s="169"/>
+      <c r="T44" s="169"/>
+      <c r="U44" s="169"/>
+      <c r="V44" s="169"/>
+      <c r="W44" s="169"/>
+      <c r="X44" s="169"/>
+      <c r="Y44" s="169"/>
+      <c r="Z44" s="169"/>
+      <c r="AA44" s="169"/>
+      <c r="AB44" s="169"/>
+      <c r="AC44" s="169"/>
+      <c r="AD44" s="170"/>
+      <c r="AE44" s="171"/>
       <c r="AF44" s="172"/>
       <c r="AG44" s="172"/>
       <c r="AH44" s="172"/>
@@ -12029,46 +12048,46 @@
       <c r="AP44" s="32"/>
       <c r="AQ44" s="37"/>
       <c r="AR44" s="21"/>
-      <c r="AS44" s="193"/>
-      <c r="AT44" s="193"/>
-      <c r="AU44" s="193"/>
-      <c r="AV44" s="193"/>
-      <c r="AW44" s="193"/>
-      <c r="AX44" s="193"/>
-      <c r="AY44" s="193"/>
-      <c r="AZ44" s="193"/>
-      <c r="BA44" s="193"/>
-      <c r="BB44" s="193"/>
-      <c r="BC44" s="193"/>
-      <c r="BD44" s="193"/>
-      <c r="BE44" s="193"/>
-      <c r="BF44" s="193"/>
-      <c r="BG44" s="193"/>
-      <c r="BH44" s="193"/>
-      <c r="BI44" s="193"/>
-      <c r="BJ44" s="193"/>
-      <c r="BK44" s="193"/>
-      <c r="BL44" s="193"/>
-      <c r="BM44" s="193"/>
-      <c r="BN44" s="193"/>
-      <c r="BO44" s="193"/>
-      <c r="BP44" s="193"/>
-      <c r="BQ44" s="193"/>
-      <c r="BR44" s="193"/>
-      <c r="BS44" s="193"/>
-      <c r="BT44" s="193"/>
-      <c r="BU44" s="193"/>
-      <c r="BV44" s="193"/>
-      <c r="BW44" s="193"/>
-      <c r="BX44" s="193"/>
-      <c r="BY44" s="193"/>
-      <c r="BZ44" s="193"/>
-      <c r="CA44" s="193"/>
-      <c r="CB44" s="193"/>
-      <c r="CC44" s="193"/>
-      <c r="CD44" s="193"/>
-      <c r="CE44" s="193"/>
-      <c r="CF44" s="193"/>
+      <c r="AS44" s="145"/>
+      <c r="AT44" s="145"/>
+      <c r="AU44" s="145"/>
+      <c r="AV44" s="145"/>
+      <c r="AW44" s="145"/>
+      <c r="AX44" s="145"/>
+      <c r="AY44" s="145"/>
+      <c r="AZ44" s="145"/>
+      <c r="BA44" s="145"/>
+      <c r="BB44" s="145"/>
+      <c r="BC44" s="145"/>
+      <c r="BD44" s="145"/>
+      <c r="BE44" s="145"/>
+      <c r="BF44" s="145"/>
+      <c r="BG44" s="145"/>
+      <c r="BH44" s="145"/>
+      <c r="BI44" s="145"/>
+      <c r="BJ44" s="145"/>
+      <c r="BK44" s="145"/>
+      <c r="BL44" s="145"/>
+      <c r="BM44" s="145"/>
+      <c r="BN44" s="145"/>
+      <c r="BO44" s="145"/>
+      <c r="BP44" s="145"/>
+      <c r="BQ44" s="145"/>
+      <c r="BR44" s="145"/>
+      <c r="BS44" s="145"/>
+      <c r="BT44" s="145"/>
+      <c r="BU44" s="145"/>
+      <c r="BV44" s="145"/>
+      <c r="BW44" s="145"/>
+      <c r="BX44" s="145"/>
+      <c r="BY44" s="145"/>
+      <c r="BZ44" s="145"/>
+      <c r="CA44" s="145"/>
+      <c r="CB44" s="145"/>
+      <c r="CC44" s="145"/>
+      <c r="CD44" s="145"/>
+      <c r="CE44" s="145"/>
+      <c r="CF44" s="145"/>
       <c r="CG44" s="17"/>
       <c r="CL44" s="5"/>
       <c r="CM44" s="2"/>
@@ -12100,91 +12119,91 @@
     </row>
     <row r="45" spans="1:306" s="7" customFormat="1" ht="11.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="25"/>
-      <c r="B45" s="173" t="s">
+      <c r="B45" s="161" t="s">
         <v>217</v>
       </c>
-      <c r="C45" s="173"/>
-      <c r="D45" s="173"/>
-      <c r="E45" s="173"/>
-      <c r="F45" s="173"/>
-      <c r="G45" s="173"/>
-      <c r="H45" s="173"/>
-      <c r="I45" s="173"/>
-      <c r="J45" s="173"/>
-      <c r="K45" s="173"/>
-      <c r="L45" s="173"/>
-      <c r="M45" s="173"/>
-      <c r="N45" s="173"/>
-      <c r="O45" s="173"/>
-      <c r="P45" s="173"/>
-      <c r="Q45" s="173"/>
-      <c r="R45" s="173"/>
-      <c r="S45" s="173"/>
-      <c r="T45" s="173"/>
-      <c r="U45" s="173"/>
-      <c r="V45" s="173"/>
-      <c r="W45" s="173"/>
-      <c r="X45" s="173"/>
-      <c r="Y45" s="173"/>
-      <c r="Z45" s="173"/>
-      <c r="AA45" s="173"/>
-      <c r="AB45" s="173"/>
-      <c r="AC45" s="173"/>
-      <c r="AD45" s="178"/>
-      <c r="AE45" s="179"/>
-      <c r="AF45" s="180"/>
-      <c r="AG45" s="180"/>
-      <c r="AH45" s="180"/>
-      <c r="AI45" s="180"/>
-      <c r="AJ45" s="180"/>
-      <c r="AK45" s="180"/>
-      <c r="AL45" s="180"/>
-      <c r="AM45" s="180"/>
-      <c r="AN45" s="180"/>
-      <c r="AO45" s="180"/>
+      <c r="C45" s="161"/>
+      <c r="D45" s="161"/>
+      <c r="E45" s="161"/>
+      <c r="F45" s="161"/>
+      <c r="G45" s="161"/>
+      <c r="H45" s="161"/>
+      <c r="I45" s="161"/>
+      <c r="J45" s="161"/>
+      <c r="K45" s="161"/>
+      <c r="L45" s="161"/>
+      <c r="M45" s="161"/>
+      <c r="N45" s="161"/>
+      <c r="O45" s="161"/>
+      <c r="P45" s="161"/>
+      <c r="Q45" s="161"/>
+      <c r="R45" s="161"/>
+      <c r="S45" s="161"/>
+      <c r="T45" s="161"/>
+      <c r="U45" s="161"/>
+      <c r="V45" s="161"/>
+      <c r="W45" s="161"/>
+      <c r="X45" s="161"/>
+      <c r="Y45" s="161"/>
+      <c r="Z45" s="161"/>
+      <c r="AA45" s="161"/>
+      <c r="AB45" s="161"/>
+      <c r="AC45" s="161"/>
+      <c r="AD45" s="162"/>
+      <c r="AE45" s="163"/>
+      <c r="AF45" s="164"/>
+      <c r="AG45" s="164"/>
+      <c r="AH45" s="164"/>
+      <c r="AI45" s="164"/>
+      <c r="AJ45" s="164"/>
+      <c r="AK45" s="164"/>
+      <c r="AL45" s="164"/>
+      <c r="AM45" s="164"/>
+      <c r="AN45" s="164"/>
+      <c r="AO45" s="164"/>
       <c r="AP45" s="22"/>
       <c r="AQ45" s="37"/>
       <c r="AR45" s="21"/>
-      <c r="AS45" s="194"/>
-      <c r="AT45" s="194"/>
-      <c r="AU45" s="194"/>
-      <c r="AV45" s="194"/>
-      <c r="AW45" s="194"/>
-      <c r="AX45" s="194"/>
-      <c r="AY45" s="194"/>
-      <c r="AZ45" s="194"/>
-      <c r="BA45" s="194"/>
-      <c r="BB45" s="194"/>
-      <c r="BC45" s="194"/>
-      <c r="BD45" s="194"/>
-      <c r="BE45" s="194"/>
-      <c r="BF45" s="194"/>
-      <c r="BG45" s="194"/>
-      <c r="BH45" s="194"/>
-      <c r="BI45" s="194"/>
-      <c r="BJ45" s="194"/>
-      <c r="BK45" s="194"/>
-      <c r="BL45" s="194"/>
-      <c r="BM45" s="194"/>
-      <c r="BN45" s="194"/>
-      <c r="BO45" s="194"/>
-      <c r="BP45" s="194"/>
-      <c r="BQ45" s="194"/>
-      <c r="BR45" s="194"/>
-      <c r="BS45" s="194"/>
-      <c r="BT45" s="194"/>
-      <c r="BU45" s="194"/>
-      <c r="BV45" s="194"/>
-      <c r="BW45" s="194"/>
-      <c r="BX45" s="194"/>
-      <c r="BY45" s="194"/>
-      <c r="BZ45" s="194"/>
-      <c r="CA45" s="194"/>
-      <c r="CB45" s="194"/>
-      <c r="CC45" s="194"/>
-      <c r="CD45" s="194"/>
-      <c r="CE45" s="194"/>
-      <c r="CF45" s="194"/>
+      <c r="AS45" s="146"/>
+      <c r="AT45" s="146"/>
+      <c r="AU45" s="146"/>
+      <c r="AV45" s="146"/>
+      <c r="AW45" s="146"/>
+      <c r="AX45" s="146"/>
+      <c r="AY45" s="146"/>
+      <c r="AZ45" s="146"/>
+      <c r="BA45" s="146"/>
+      <c r="BB45" s="146"/>
+      <c r="BC45" s="146"/>
+      <c r="BD45" s="146"/>
+      <c r="BE45" s="146"/>
+      <c r="BF45" s="146"/>
+      <c r="BG45" s="146"/>
+      <c r="BH45" s="146"/>
+      <c r="BI45" s="146"/>
+      <c r="BJ45" s="146"/>
+      <c r="BK45" s="146"/>
+      <c r="BL45" s="146"/>
+      <c r="BM45" s="146"/>
+      <c r="BN45" s="146"/>
+      <c r="BO45" s="146"/>
+      <c r="BP45" s="146"/>
+      <c r="BQ45" s="146"/>
+      <c r="BR45" s="146"/>
+      <c r="BS45" s="146"/>
+      <c r="BT45" s="146"/>
+      <c r="BU45" s="146"/>
+      <c r="BV45" s="146"/>
+      <c r="BW45" s="146"/>
+      <c r="BX45" s="146"/>
+      <c r="BY45" s="146"/>
+      <c r="BZ45" s="146"/>
+      <c r="CA45" s="146"/>
+      <c r="CB45" s="146"/>
+      <c r="CC45" s="146"/>
+      <c r="CD45" s="146"/>
+      <c r="CE45" s="146"/>
+      <c r="CF45" s="146"/>
       <c r="CG45" s="17"/>
       <c r="CP45" s="43" t="s">
         <v>218</v>
@@ -12202,48 +12221,48 @@
     </row>
     <row r="46" spans="1:306" s="7" customFormat="1" ht="11.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46" s="25"/>
-      <c r="B46" s="173" t="s">
+      <c r="B46" s="161" t="s">
         <v>221</v>
       </c>
-      <c r="C46" s="173"/>
-      <c r="D46" s="173"/>
-      <c r="E46" s="173"/>
-      <c r="F46" s="173"/>
-      <c r="G46" s="173"/>
-      <c r="H46" s="173"/>
-      <c r="I46" s="173"/>
-      <c r="J46" s="173"/>
-      <c r="K46" s="173"/>
-      <c r="L46" s="173"/>
-      <c r="M46" s="173"/>
-      <c r="N46" s="173"/>
-      <c r="O46" s="173"/>
-      <c r="P46" s="173"/>
-      <c r="Q46" s="173"/>
-      <c r="R46" s="173"/>
-      <c r="S46" s="173"/>
-      <c r="T46" s="173"/>
-      <c r="U46" s="173"/>
-      <c r="V46" s="173"/>
-      <c r="W46" s="173"/>
-      <c r="X46" s="173"/>
-      <c r="Y46" s="173"/>
-      <c r="Z46" s="173"/>
-      <c r="AA46" s="173"/>
-      <c r="AB46" s="173"/>
-      <c r="AC46" s="173"/>
-      <c r="AD46" s="178"/>
-      <c r="AE46" s="179"/>
-      <c r="AF46" s="180"/>
-      <c r="AG46" s="180"/>
-      <c r="AH46" s="180"/>
-      <c r="AI46" s="180"/>
-      <c r="AJ46" s="180"/>
-      <c r="AK46" s="180"/>
-      <c r="AL46" s="180"/>
-      <c r="AM46" s="180"/>
-      <c r="AN46" s="180"/>
-      <c r="AO46" s="180"/>
+      <c r="C46" s="161"/>
+      <c r="D46" s="161"/>
+      <c r="E46" s="161"/>
+      <c r="F46" s="161"/>
+      <c r="G46" s="161"/>
+      <c r="H46" s="161"/>
+      <c r="I46" s="161"/>
+      <c r="J46" s="161"/>
+      <c r="K46" s="161"/>
+      <c r="L46" s="161"/>
+      <c r="M46" s="161"/>
+      <c r="N46" s="161"/>
+      <c r="O46" s="161"/>
+      <c r="P46" s="161"/>
+      <c r="Q46" s="161"/>
+      <c r="R46" s="161"/>
+      <c r="S46" s="161"/>
+      <c r="T46" s="161"/>
+      <c r="U46" s="161"/>
+      <c r="V46" s="161"/>
+      <c r="W46" s="161"/>
+      <c r="X46" s="161"/>
+      <c r="Y46" s="161"/>
+      <c r="Z46" s="161"/>
+      <c r="AA46" s="161"/>
+      <c r="AB46" s="161"/>
+      <c r="AC46" s="161"/>
+      <c r="AD46" s="162"/>
+      <c r="AE46" s="163"/>
+      <c r="AF46" s="164"/>
+      <c r="AG46" s="164"/>
+      <c r="AH46" s="164"/>
+      <c r="AI46" s="164"/>
+      <c r="AJ46" s="164"/>
+      <c r="AK46" s="164"/>
+      <c r="AL46" s="164"/>
+      <c r="AM46" s="164"/>
+      <c r="AN46" s="164"/>
+      <c r="AO46" s="164"/>
       <c r="AP46" s="22"/>
       <c r="AQ46" s="37"/>
       <c r="CP46" s="43" t="s">
@@ -12262,46 +12281,46 @@
     </row>
     <row r="47" spans="1:306" s="7" customFormat="1" ht="11.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A47" s="21"/>
-      <c r="B47" s="181"/>
-      <c r="C47" s="181"/>
-      <c r="D47" s="181"/>
-      <c r="E47" s="181"/>
-      <c r="F47" s="181"/>
-      <c r="G47" s="181"/>
-      <c r="H47" s="181"/>
-      <c r="I47" s="181"/>
-      <c r="J47" s="181"/>
-      <c r="K47" s="181"/>
-      <c r="L47" s="181"/>
-      <c r="M47" s="181"/>
-      <c r="N47" s="181"/>
-      <c r="O47" s="181"/>
-      <c r="P47" s="181"/>
-      <c r="Q47" s="181"/>
-      <c r="R47" s="181"/>
-      <c r="S47" s="181"/>
-      <c r="T47" s="181"/>
-      <c r="U47" s="181"/>
-      <c r="V47" s="181"/>
-      <c r="W47" s="181"/>
-      <c r="X47" s="181"/>
-      <c r="Y47" s="181"/>
-      <c r="Z47" s="181"/>
-      <c r="AA47" s="181"/>
-      <c r="AB47" s="181"/>
-      <c r="AC47" s="181"/>
-      <c r="AD47" s="182"/>
-      <c r="AE47" s="183"/>
-      <c r="AF47" s="184"/>
-      <c r="AG47" s="184"/>
-      <c r="AH47" s="184"/>
-      <c r="AI47" s="184"/>
-      <c r="AJ47" s="184"/>
-      <c r="AK47" s="184"/>
-      <c r="AL47" s="184"/>
-      <c r="AM47" s="184"/>
-      <c r="AN47" s="184"/>
-      <c r="AO47" s="184"/>
+      <c r="B47" s="165"/>
+      <c r="C47" s="165"/>
+      <c r="D47" s="165"/>
+      <c r="E47" s="165"/>
+      <c r="F47" s="165"/>
+      <c r="G47" s="165"/>
+      <c r="H47" s="165"/>
+      <c r="I47" s="165"/>
+      <c r="J47" s="165"/>
+      <c r="K47" s="165"/>
+      <c r="L47" s="165"/>
+      <c r="M47" s="165"/>
+      <c r="N47" s="165"/>
+      <c r="O47" s="165"/>
+      <c r="P47" s="165"/>
+      <c r="Q47" s="165"/>
+      <c r="R47" s="165"/>
+      <c r="S47" s="165"/>
+      <c r="T47" s="165"/>
+      <c r="U47" s="165"/>
+      <c r="V47" s="165"/>
+      <c r="W47" s="165"/>
+      <c r="X47" s="165"/>
+      <c r="Y47" s="165"/>
+      <c r="Z47" s="165"/>
+      <c r="AA47" s="165"/>
+      <c r="AB47" s="165"/>
+      <c r="AC47" s="165"/>
+      <c r="AD47" s="166"/>
+      <c r="AE47" s="167"/>
+      <c r="AF47" s="168"/>
+      <c r="AG47" s="168"/>
+      <c r="AH47" s="168"/>
+      <c r="AI47" s="168"/>
+      <c r="AJ47" s="168"/>
+      <c r="AK47" s="168"/>
+      <c r="AL47" s="168"/>
+      <c r="AM47" s="168"/>
+      <c r="AN47" s="168"/>
+      <c r="AO47" s="168"/>
       <c r="AP47" s="17"/>
       <c r="AQ47" s="37"/>
       <c r="AR47" s="40"/>
@@ -12380,34 +12399,34 @@
       <c r="BD48" s="81"/>
       <c r="BE48" s="81"/>
       <c r="BF48" s="81"/>
-      <c r="BG48" s="195"/>
-      <c r="BH48" s="195"/>
-      <c r="BI48" s="195"/>
-      <c r="BJ48" s="195"/>
-      <c r="BK48" s="195"/>
-      <c r="BL48" s="195"/>
-      <c r="BM48" s="195"/>
-      <c r="BN48" s="195"/>
-      <c r="BO48" s="195"/>
-      <c r="BP48" s="195"/>
-      <c r="BQ48" s="195"/>
-      <c r="BR48" s="195"/>
-      <c r="BS48" s="195"/>
-      <c r="BT48" s="199" t="s">
+      <c r="BG48" s="147"/>
+      <c r="BH48" s="147"/>
+      <c r="BI48" s="147"/>
+      <c r="BJ48" s="147"/>
+      <c r="BK48" s="147"/>
+      <c r="BL48" s="147"/>
+      <c r="BM48" s="147"/>
+      <c r="BN48" s="147"/>
+      <c r="BO48" s="147"/>
+      <c r="BP48" s="147"/>
+      <c r="BQ48" s="147"/>
+      <c r="BR48" s="147"/>
+      <c r="BS48" s="147"/>
+      <c r="BT48" s="151" t="s">
         <v>229</v>
       </c>
-      <c r="BU48" s="199"/>
-      <c r="BV48" s="199"/>
-      <c r="BW48" s="199"/>
-      <c r="BX48" s="199"/>
-      <c r="BY48" s="199"/>
-      <c r="BZ48" s="199"/>
-      <c r="CA48" s="199"/>
-      <c r="CB48" s="199"/>
-      <c r="CC48" s="199"/>
-      <c r="CD48" s="199"/>
-      <c r="CE48" s="199"/>
-      <c r="CF48" s="199"/>
+      <c r="BU48" s="151"/>
+      <c r="BV48" s="151"/>
+      <c r="BW48" s="151"/>
+      <c r="BX48" s="151"/>
+      <c r="BY48" s="151"/>
+      <c r="BZ48" s="151"/>
+      <c r="CA48" s="151"/>
+      <c r="CB48" s="151"/>
+      <c r="CC48" s="151"/>
+      <c r="CD48" s="151"/>
+      <c r="CE48" s="151"/>
+      <c r="CF48" s="151"/>
       <c r="CG48" s="32"/>
       <c r="CP48" s="43" t="s">
         <v>230</v>
@@ -12570,32 +12589,32 @@
       <c r="BD49" s="82"/>
       <c r="BE49" s="82"/>
       <c r="BF49" s="82"/>
-      <c r="BG49" s="196"/>
-      <c r="BH49" s="196"/>
-      <c r="BI49" s="196"/>
-      <c r="BJ49" s="196"/>
-      <c r="BK49" s="196"/>
-      <c r="BL49" s="196"/>
-      <c r="BM49" s="196"/>
-      <c r="BN49" s="196"/>
-      <c r="BO49" s="196"/>
-      <c r="BP49" s="196"/>
-      <c r="BQ49" s="196"/>
-      <c r="BR49" s="196"/>
-      <c r="BS49" s="196"/>
+      <c r="BG49" s="148"/>
+      <c r="BH49" s="148"/>
+      <c r="BI49" s="148"/>
+      <c r="BJ49" s="148"/>
+      <c r="BK49" s="148"/>
+      <c r="BL49" s="148"/>
+      <c r="BM49" s="148"/>
+      <c r="BN49" s="148"/>
+      <c r="BO49" s="148"/>
+      <c r="BP49" s="148"/>
+      <c r="BQ49" s="148"/>
+      <c r="BR49" s="148"/>
+      <c r="BS49" s="148"/>
       <c r="BT49" s="75"/>
-      <c r="BU49" s="197"/>
-      <c r="BV49" s="197"/>
-      <c r="BW49" s="197"/>
-      <c r="BX49" s="197"/>
-      <c r="BY49" s="197"/>
-      <c r="BZ49" s="197"/>
-      <c r="CA49" s="197"/>
-      <c r="CB49" s="197"/>
-      <c r="CC49" s="197"/>
-      <c r="CD49" s="197"/>
-      <c r="CE49" s="197"/>
-      <c r="CF49" s="197"/>
+      <c r="BU49" s="149"/>
+      <c r="BV49" s="149"/>
+      <c r="BW49" s="149"/>
+      <c r="BX49" s="149"/>
+      <c r="BY49" s="149"/>
+      <c r="BZ49" s="149"/>
+      <c r="CA49" s="149"/>
+      <c r="CB49" s="149"/>
+      <c r="CC49" s="149"/>
+      <c r="CD49" s="149"/>
+      <c r="CE49" s="149"/>
+      <c r="CF49" s="149"/>
       <c r="CG49" s="22"/>
       <c r="CP49" s="43"/>
       <c r="CQ49" s="43"/>
@@ -12701,38 +12720,38 @@
       <c r="L50" s="36"/>
       <c r="M50" s="36"/>
       <c r="N50" s="36"/>
-      <c r="O50" s="210" t="s">
+      <c r="O50" s="134" t="s">
         <v>236</v>
       </c>
-      <c r="P50" s="210"/>
-      <c r="Q50" s="210"/>
-      <c r="R50" s="210"/>
-      <c r="S50" s="210"/>
-      <c r="T50" s="210"/>
-      <c r="U50" s="210"/>
-      <c r="V50" s="210"/>
+      <c r="P50" s="134"/>
+      <c r="Q50" s="134"/>
+      <c r="R50" s="134"/>
+      <c r="S50" s="134"/>
+      <c r="T50" s="134"/>
+      <c r="U50" s="134"/>
+      <c r="V50" s="134"/>
       <c r="W50" s="35"/>
-      <c r="X50" s="210" t="s">
+      <c r="X50" s="134" t="s">
         <v>237</v>
       </c>
-      <c r="Y50" s="210"/>
-      <c r="Z50" s="210"/>
-      <c r="AA50" s="210"/>
-      <c r="AB50" s="210"/>
-      <c r="AC50" s="210"/>
-      <c r="AD50" s="210"/>
-      <c r="AE50" s="210"/>
+      <c r="Y50" s="134"/>
+      <c r="Z50" s="134"/>
+      <c r="AA50" s="134"/>
+      <c r="AB50" s="134"/>
+      <c r="AC50" s="134"/>
+      <c r="AD50" s="134"/>
+      <c r="AE50" s="134"/>
       <c r="AF50" s="34"/>
-      <c r="AG50" s="212" t="s">
+      <c r="AG50" s="136" t="s">
         <v>238</v>
       </c>
-      <c r="AH50" s="212"/>
-      <c r="AI50" s="212"/>
-      <c r="AJ50" s="212"/>
-      <c r="AK50" s="212"/>
-      <c r="AL50" s="212"/>
-      <c r="AM50" s="212"/>
-      <c r="AN50" s="212"/>
+      <c r="AH50" s="136"/>
+      <c r="AI50" s="136"/>
+      <c r="AJ50" s="136"/>
+      <c r="AK50" s="136"/>
+      <c r="AL50" s="136"/>
+      <c r="AM50" s="136"/>
+      <c r="AN50" s="136"/>
       <c r="AO50" s="33"/>
       <c r="AP50" s="32"/>
       <c r="AR50" s="25"/>
@@ -12752,32 +12771,32 @@
       <c r="BD50" s="24"/>
       <c r="BE50" s="24"/>
       <c r="BF50" s="24"/>
-      <c r="BG50" s="196"/>
-      <c r="BH50" s="196"/>
-      <c r="BI50" s="196"/>
-      <c r="BJ50" s="196"/>
-      <c r="BK50" s="196"/>
-      <c r="BL50" s="196"/>
-      <c r="BM50" s="196"/>
-      <c r="BN50" s="196"/>
-      <c r="BO50" s="196"/>
-      <c r="BP50" s="196"/>
-      <c r="BQ50" s="196"/>
-      <c r="BR50" s="196"/>
-      <c r="BS50" s="196"/>
+      <c r="BG50" s="148"/>
+      <c r="BH50" s="148"/>
+      <c r="BI50" s="148"/>
+      <c r="BJ50" s="148"/>
+      <c r="BK50" s="148"/>
+      <c r="BL50" s="148"/>
+      <c r="BM50" s="148"/>
+      <c r="BN50" s="148"/>
+      <c r="BO50" s="148"/>
+      <c r="BP50" s="148"/>
+      <c r="BQ50" s="148"/>
+      <c r="BR50" s="148"/>
+      <c r="BS50" s="148"/>
       <c r="BT50" s="79"/>
-      <c r="BU50" s="197"/>
-      <c r="BV50" s="197"/>
-      <c r="BW50" s="197"/>
-      <c r="BX50" s="197"/>
-      <c r="BY50" s="197"/>
-      <c r="BZ50" s="197"/>
-      <c r="CA50" s="197"/>
-      <c r="CB50" s="197"/>
-      <c r="CC50" s="197"/>
-      <c r="CD50" s="197"/>
-      <c r="CE50" s="197"/>
-      <c r="CF50" s="197"/>
+      <c r="BU50" s="149"/>
+      <c r="BV50" s="149"/>
+      <c r="BW50" s="149"/>
+      <c r="BX50" s="149"/>
+      <c r="BY50" s="149"/>
+      <c r="BZ50" s="149"/>
+      <c r="CA50" s="149"/>
+      <c r="CB50" s="149"/>
+      <c r="CC50" s="149"/>
+      <c r="CD50" s="149"/>
+      <c r="CE50" s="149"/>
+      <c r="CF50" s="149"/>
       <c r="CG50" s="22"/>
       <c r="DA50" s="78" t="s">
         <v>240</v>
@@ -12880,32 +12899,32 @@
       <c r="L51" s="24"/>
       <c r="M51" s="24"/>
       <c r="N51" s="24"/>
-      <c r="O51" s="211"/>
-      <c r="P51" s="211"/>
-      <c r="Q51" s="211"/>
-      <c r="R51" s="211"/>
-      <c r="S51" s="211"/>
-      <c r="T51" s="211"/>
-      <c r="U51" s="211"/>
-      <c r="V51" s="211"/>
+      <c r="O51" s="135"/>
+      <c r="P51" s="135"/>
+      <c r="Q51" s="135"/>
+      <c r="R51" s="135"/>
+      <c r="S51" s="135"/>
+      <c r="T51" s="135"/>
+      <c r="U51" s="135"/>
+      <c r="V51" s="135"/>
       <c r="W51" s="31"/>
-      <c r="X51" s="211"/>
-      <c r="Y51" s="211"/>
-      <c r="Z51" s="211"/>
-      <c r="AA51" s="211"/>
-      <c r="AB51" s="211"/>
-      <c r="AC51" s="211"/>
-      <c r="AD51" s="211"/>
-      <c r="AE51" s="211"/>
+      <c r="X51" s="135"/>
+      <c r="Y51" s="135"/>
+      <c r="Z51" s="135"/>
+      <c r="AA51" s="135"/>
+      <c r="AB51" s="135"/>
+      <c r="AC51" s="135"/>
+      <c r="AD51" s="135"/>
+      <c r="AE51" s="135"/>
       <c r="AF51" s="30"/>
-      <c r="AG51" s="213"/>
-      <c r="AH51" s="213"/>
-      <c r="AI51" s="213"/>
-      <c r="AJ51" s="213"/>
-      <c r="AK51" s="213"/>
-      <c r="AL51" s="213"/>
-      <c r="AM51" s="213"/>
-      <c r="AN51" s="213"/>
+      <c r="AG51" s="137"/>
+      <c r="AH51" s="137"/>
+      <c r="AI51" s="137"/>
+      <c r="AJ51" s="137"/>
+      <c r="AK51" s="137"/>
+      <c r="AL51" s="137"/>
+      <c r="AM51" s="137"/>
+      <c r="AN51" s="137"/>
       <c r="AP51" s="22"/>
       <c r="AR51" s="21"/>
       <c r="AS51" s="76"/>
@@ -12936,18 +12955,18 @@
       <c r="BR51" s="83"/>
       <c r="BS51" s="83"/>
       <c r="BT51" s="76"/>
-      <c r="BU51" s="198"/>
-      <c r="BV51" s="198"/>
-      <c r="BW51" s="198"/>
-      <c r="BX51" s="198"/>
-      <c r="BY51" s="198"/>
-      <c r="BZ51" s="198"/>
-      <c r="CA51" s="198"/>
-      <c r="CB51" s="198"/>
-      <c r="CC51" s="198"/>
-      <c r="CD51" s="198"/>
-      <c r="CE51" s="198"/>
-      <c r="CF51" s="198"/>
+      <c r="BU51" s="150"/>
+      <c r="BV51" s="150"/>
+      <c r="BW51" s="150"/>
+      <c r="BX51" s="150"/>
+      <c r="BY51" s="150"/>
+      <c r="BZ51" s="150"/>
+      <c r="CA51" s="150"/>
+      <c r="CB51" s="150"/>
+      <c r="CC51" s="150"/>
+      <c r="CD51" s="150"/>
+      <c r="CE51" s="150"/>
+      <c r="CF51" s="150"/>
       <c r="CG51" s="17"/>
       <c r="DA51" s="78" t="s">
         <v>241</v>
@@ -13037,45 +13056,45 @@
     </row>
     <row r="52" spans="1:306" s="7" customFormat="1" ht="11.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A52" s="25"/>
-      <c r="B52" s="200" t="s">
+      <c r="B52" s="140" t="s">
         <v>242</v>
       </c>
-      <c r="C52" s="200"/>
-      <c r="D52" s="200"/>
-      <c r="E52" s="200"/>
-      <c r="F52" s="200"/>
-      <c r="G52" s="200"/>
-      <c r="H52" s="200"/>
-      <c r="I52" s="200"/>
-      <c r="J52" s="200"/>
-      <c r="K52" s="200"/>
-      <c r="L52" s="200"/>
-      <c r="M52" s="200"/>
-      <c r="N52" s="200"/>
-      <c r="O52" s="209"/>
-      <c r="P52" s="209"/>
-      <c r="Q52" s="209"/>
-      <c r="R52" s="209"/>
-      <c r="S52" s="209"/>
-      <c r="T52" s="209"/>
-      <c r="U52" s="209"/>
-      <c r="V52" s="209"/>
-      <c r="X52" s="209"/>
-      <c r="Y52" s="209"/>
-      <c r="Z52" s="209"/>
-      <c r="AA52" s="209"/>
-      <c r="AB52" s="209"/>
-      <c r="AC52" s="209"/>
-      <c r="AD52" s="209"/>
-      <c r="AE52" s="209"/>
-      <c r="AG52" s="209"/>
-      <c r="AH52" s="209"/>
-      <c r="AI52" s="209"/>
-      <c r="AJ52" s="209"/>
-      <c r="AK52" s="209"/>
-      <c r="AL52" s="209"/>
-      <c r="AM52" s="209"/>
-      <c r="AN52" s="209"/>
+      <c r="C52" s="140"/>
+      <c r="D52" s="140"/>
+      <c r="E52" s="140"/>
+      <c r="F52" s="140"/>
+      <c r="G52" s="140"/>
+      <c r="H52" s="140"/>
+      <c r="I52" s="140"/>
+      <c r="J52" s="140"/>
+      <c r="K52" s="140"/>
+      <c r="L52" s="140"/>
+      <c r="M52" s="140"/>
+      <c r="N52" s="140"/>
+      <c r="O52" s="142"/>
+      <c r="P52" s="142"/>
+      <c r="Q52" s="142"/>
+      <c r="R52" s="142"/>
+      <c r="S52" s="142"/>
+      <c r="T52" s="142"/>
+      <c r="U52" s="142"/>
+      <c r="V52" s="142"/>
+      <c r="X52" s="142"/>
+      <c r="Y52" s="142"/>
+      <c r="Z52" s="142"/>
+      <c r="AA52" s="142"/>
+      <c r="AB52" s="142"/>
+      <c r="AC52" s="142"/>
+      <c r="AD52" s="142"/>
+      <c r="AE52" s="142"/>
+      <c r="AG52" s="142"/>
+      <c r="AH52" s="142"/>
+      <c r="AI52" s="142"/>
+      <c r="AJ52" s="142"/>
+      <c r="AK52" s="142"/>
+      <c r="AL52" s="142"/>
+      <c r="AM52" s="142"/>
+      <c r="AN52" s="142"/>
       <c r="AP52" s="22"/>
       <c r="DA52" s="78" t="s">
         <v>243</v>
@@ -13165,47 +13184,47 @@
     </row>
     <row r="53" spans="1:306" s="7" customFormat="1" ht="11.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A53" s="25"/>
-      <c r="B53" s="200" t="s">
+      <c r="B53" s="140" t="s">
         <v>244</v>
       </c>
-      <c r="C53" s="200"/>
-      <c r="D53" s="200"/>
-      <c r="E53" s="200"/>
-      <c r="F53" s="200"/>
-      <c r="G53" s="200"/>
-      <c r="H53" s="200"/>
-      <c r="I53" s="200"/>
-      <c r="J53" s="200"/>
-      <c r="K53" s="200"/>
-      <c r="L53" s="200"/>
-      <c r="M53" s="200"/>
-      <c r="N53" s="200"/>
-      <c r="O53" s="208"/>
-      <c r="P53" s="208"/>
-      <c r="Q53" s="208"/>
-      <c r="R53" s="208"/>
-      <c r="S53" s="208"/>
-      <c r="T53" s="208"/>
-      <c r="U53" s="208"/>
-      <c r="V53" s="208"/>
-      <c r="X53" s="208"/>
-      <c r="Y53" s="208"/>
-      <c r="Z53" s="208"/>
-      <c r="AA53" s="208"/>
-      <c r="AB53" s="208"/>
-      <c r="AC53" s="208"/>
-      <c r="AD53" s="208"/>
-      <c r="AE53" s="208"/>
-      <c r="AG53" s="207" t="s">
+      <c r="C53" s="140"/>
+      <c r="D53" s="140"/>
+      <c r="E53" s="140"/>
+      <c r="F53" s="140"/>
+      <c r="G53" s="140"/>
+      <c r="H53" s="140"/>
+      <c r="I53" s="140"/>
+      <c r="J53" s="140"/>
+      <c r="K53" s="140"/>
+      <c r="L53" s="140"/>
+      <c r="M53" s="140"/>
+      <c r="N53" s="140"/>
+      <c r="O53" s="138"/>
+      <c r="P53" s="138"/>
+      <c r="Q53" s="138"/>
+      <c r="R53" s="138"/>
+      <c r="S53" s="138"/>
+      <c r="T53" s="138"/>
+      <c r="U53" s="138"/>
+      <c r="V53" s="138"/>
+      <c r="X53" s="138"/>
+      <c r="Y53" s="138"/>
+      <c r="Z53" s="138"/>
+      <c r="AA53" s="138"/>
+      <c r="AB53" s="138"/>
+      <c r="AC53" s="138"/>
+      <c r="AD53" s="138"/>
+      <c r="AE53" s="138"/>
+      <c r="AG53" s="139" t="s">
         <v>245</v>
       </c>
-      <c r="AH53" s="207"/>
-      <c r="AI53" s="207"/>
-      <c r="AJ53" s="207"/>
-      <c r="AK53" s="207"/>
-      <c r="AL53" s="207"/>
-      <c r="AM53" s="207"/>
-      <c r="AN53" s="207"/>
+      <c r="AH53" s="139"/>
+      <c r="AI53" s="139"/>
+      <c r="AJ53" s="139"/>
+      <c r="AK53" s="139"/>
+      <c r="AL53" s="139"/>
+      <c r="AM53" s="139"/>
+      <c r="AN53" s="139"/>
       <c r="AP53" s="22"/>
       <c r="AR53" s="40"/>
       <c r="AS53" s="39" t="s">
@@ -13339,47 +13358,47 @@
     </row>
     <row r="54" spans="1:306" s="7" customFormat="1" ht="11.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="25"/>
-      <c r="B54" s="200" t="s">
+      <c r="B54" s="140" t="s">
         <v>248</v>
       </c>
-      <c r="C54" s="200"/>
-      <c r="D54" s="200"/>
-      <c r="E54" s="200"/>
-      <c r="F54" s="200"/>
-      <c r="G54" s="200"/>
-      <c r="H54" s="200"/>
-      <c r="I54" s="200"/>
-      <c r="J54" s="200"/>
-      <c r="K54" s="200"/>
-      <c r="L54" s="200"/>
-      <c r="M54" s="200"/>
-      <c r="N54" s="200"/>
-      <c r="O54" s="208"/>
-      <c r="P54" s="208"/>
-      <c r="Q54" s="208"/>
-      <c r="R54" s="208"/>
-      <c r="S54" s="208"/>
-      <c r="T54" s="208"/>
-      <c r="U54" s="208"/>
-      <c r="V54" s="208"/>
-      <c r="X54" s="208"/>
-      <c r="Y54" s="208"/>
-      <c r="Z54" s="208"/>
-      <c r="AA54" s="208"/>
-      <c r="AB54" s="208"/>
-      <c r="AC54" s="208"/>
-      <c r="AD54" s="208"/>
-      <c r="AE54" s="208"/>
-      <c r="AG54" s="207" t="s">
+      <c r="C54" s="140"/>
+      <c r="D54" s="140"/>
+      <c r="E54" s="140"/>
+      <c r="F54" s="140"/>
+      <c r="G54" s="140"/>
+      <c r="H54" s="140"/>
+      <c r="I54" s="140"/>
+      <c r="J54" s="140"/>
+      <c r="K54" s="140"/>
+      <c r="L54" s="140"/>
+      <c r="M54" s="140"/>
+      <c r="N54" s="140"/>
+      <c r="O54" s="138"/>
+      <c r="P54" s="138"/>
+      <c r="Q54" s="138"/>
+      <c r="R54" s="138"/>
+      <c r="S54" s="138"/>
+      <c r="T54" s="138"/>
+      <c r="U54" s="138"/>
+      <c r="V54" s="138"/>
+      <c r="X54" s="138"/>
+      <c r="Y54" s="138"/>
+      <c r="Z54" s="138"/>
+      <c r="AA54" s="138"/>
+      <c r="AB54" s="138"/>
+      <c r="AC54" s="138"/>
+      <c r="AD54" s="138"/>
+      <c r="AE54" s="138"/>
+      <c r="AG54" s="139" t="s">
         <v>245</v>
       </c>
-      <c r="AH54" s="207"/>
-      <c r="AI54" s="207"/>
-      <c r="AJ54" s="207"/>
-      <c r="AK54" s="207"/>
-      <c r="AL54" s="207"/>
-      <c r="AM54" s="207"/>
-      <c r="AN54" s="207"/>
+      <c r="AH54" s="139"/>
+      <c r="AI54" s="139"/>
+      <c r="AJ54" s="139"/>
+      <c r="AK54" s="139"/>
+      <c r="AL54" s="139"/>
+      <c r="AM54" s="139"/>
+      <c r="AN54" s="139"/>
       <c r="AP54" s="22"/>
       <c r="AR54" s="25"/>
       <c r="AS54" s="92"/>
@@ -13513,46 +13532,46 @@
     </row>
     <row r="55" spans="1:306" s="7" customFormat="1" ht="11.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A55" s="25"/>
-      <c r="B55" s="200" t="s">
+      <c r="B55" s="140" t="s">
         <v>251</v>
       </c>
-      <c r="C55" s="200"/>
-      <c r="D55" s="200"/>
-      <c r="E55" s="200"/>
-      <c r="F55" s="200"/>
-      <c r="G55" s="200"/>
-      <c r="H55" s="200"/>
-      <c r="I55" s="200"/>
-      <c r="J55" s="200"/>
-      <c r="K55" s="200"/>
-      <c r="L55" s="200"/>
-      <c r="M55" s="200"/>
-      <c r="N55" s="200"/>
-      <c r="O55" s="206"/>
-      <c r="P55" s="206"/>
-      <c r="Q55" s="206"/>
-      <c r="R55" s="206"/>
-      <c r="S55" s="206"/>
-      <c r="T55" s="206"/>
-      <c r="U55" s="206"/>
-      <c r="V55" s="206"/>
+      <c r="C55" s="140"/>
+      <c r="D55" s="140"/>
+      <c r="E55" s="140"/>
+      <c r="F55" s="140"/>
+      <c r="G55" s="140"/>
+      <c r="H55" s="140"/>
+      <c r="I55" s="140"/>
+      <c r="J55" s="140"/>
+      <c r="K55" s="140"/>
+      <c r="L55" s="140"/>
+      <c r="M55" s="140"/>
+      <c r="N55" s="140"/>
+      <c r="O55" s="141"/>
+      <c r="P55" s="141"/>
+      <c r="Q55" s="141"/>
+      <c r="R55" s="141"/>
+      <c r="S55" s="141"/>
+      <c r="T55" s="141"/>
+      <c r="U55" s="141"/>
+      <c r="V55" s="141"/>
       <c r="W55" s="23"/>
-      <c r="X55" s="206"/>
-      <c r="Y55" s="206"/>
-      <c r="Z55" s="206"/>
-      <c r="AA55" s="206"/>
-      <c r="AB55" s="206"/>
-      <c r="AC55" s="206"/>
-      <c r="AD55" s="206"/>
-      <c r="AE55" s="206"/>
-      <c r="AG55" s="206"/>
-      <c r="AH55" s="206"/>
-      <c r="AI55" s="206"/>
-      <c r="AJ55" s="206"/>
-      <c r="AK55" s="206"/>
-      <c r="AL55" s="206"/>
-      <c r="AM55" s="206"/>
-      <c r="AN55" s="206"/>
+      <c r="X55" s="141"/>
+      <c r="Y55" s="141"/>
+      <c r="Z55" s="141"/>
+      <c r="AA55" s="141"/>
+      <c r="AB55" s="141"/>
+      <c r="AC55" s="141"/>
+      <c r="AD55" s="141"/>
+      <c r="AE55" s="141"/>
+      <c r="AG55" s="141"/>
+      <c r="AH55" s="141"/>
+      <c r="AI55" s="141"/>
+      <c r="AJ55" s="141"/>
+      <c r="AK55" s="141"/>
+      <c r="AL55" s="141"/>
+      <c r="AM55" s="141"/>
+      <c r="AN55" s="141"/>
       <c r="AP55" s="22"/>
       <c r="AR55" s="25"/>
       <c r="AS55" s="93"/>
@@ -13686,48 +13705,48 @@
     </row>
     <row r="56" spans="1:306" s="7" customFormat="1" ht="11.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A56" s="25"/>
-      <c r="B56" s="200" t="s">
+      <c r="B56" s="140" t="s">
         <v>254</v>
       </c>
-      <c r="C56" s="200"/>
-      <c r="D56" s="200"/>
-      <c r="E56" s="200"/>
-      <c r="F56" s="200"/>
-      <c r="G56" s="200"/>
-      <c r="H56" s="200"/>
-      <c r="I56" s="200"/>
-      <c r="J56" s="200"/>
-      <c r="K56" s="200"/>
-      <c r="L56" s="200"/>
-      <c r="M56" s="200"/>
-      <c r="N56" s="200"/>
-      <c r="O56" s="189"/>
-      <c r="P56" s="189"/>
-      <c r="Q56" s="189"/>
-      <c r="R56" s="189"/>
-      <c r="S56" s="189"/>
-      <c r="T56" s="189"/>
-      <c r="U56" s="189"/>
-      <c r="V56" s="189"/>
+      <c r="C56" s="140"/>
+      <c r="D56" s="140"/>
+      <c r="E56" s="140"/>
+      <c r="F56" s="140"/>
+      <c r="G56" s="140"/>
+      <c r="H56" s="140"/>
+      <c r="I56" s="140"/>
+      <c r="J56" s="140"/>
+      <c r="K56" s="140"/>
+      <c r="L56" s="140"/>
+      <c r="M56" s="140"/>
+      <c r="N56" s="140"/>
+      <c r="O56" s="152"/>
+      <c r="P56" s="152"/>
+      <c r="Q56" s="152"/>
+      <c r="R56" s="152"/>
+      <c r="S56" s="152"/>
+      <c r="T56" s="152"/>
+      <c r="U56" s="152"/>
+      <c r="V56" s="152"/>
       <c r="W56" s="23"/>
-      <c r="X56" s="189"/>
-      <c r="Y56" s="189"/>
-      <c r="Z56" s="189"/>
-      <c r="AA56" s="189"/>
-      <c r="AB56" s="189"/>
-      <c r="AC56" s="189"/>
-      <c r="AD56" s="189"/>
-      <c r="AE56" s="189"/>
-      <c r="AG56" s="190" t="s">
+      <c r="X56" s="152"/>
+      <c r="Y56" s="152"/>
+      <c r="Z56" s="152"/>
+      <c r="AA56" s="152"/>
+      <c r="AB56" s="152"/>
+      <c r="AC56" s="152"/>
+      <c r="AD56" s="152"/>
+      <c r="AE56" s="152"/>
+      <c r="AG56" s="154" t="s">
         <v>245</v>
       </c>
-      <c r="AH56" s="190"/>
-      <c r="AI56" s="190"/>
-      <c r="AJ56" s="190"/>
-      <c r="AK56" s="190"/>
-      <c r="AL56" s="190"/>
-      <c r="AM56" s="190"/>
-      <c r="AN56" s="190"/>
+      <c r="AH56" s="154"/>
+      <c r="AI56" s="154"/>
+      <c r="AJ56" s="154"/>
+      <c r="AK56" s="154"/>
+      <c r="AL56" s="154"/>
+      <c r="AM56" s="154"/>
+      <c r="AN56" s="154"/>
       <c r="AP56" s="22"/>
       <c r="AR56" s="25"/>
       <c r="AS56" s="93"/>
@@ -13861,50 +13880,50 @@
     </row>
     <row r="57" spans="1:306" s="7" customFormat="1" ht="11.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A57" s="25"/>
-      <c r="B57" s="200" t="s">
+      <c r="B57" s="140" t="s">
         <v>257</v>
       </c>
-      <c r="C57" s="200"/>
-      <c r="D57" s="200"/>
-      <c r="E57" s="200"/>
-      <c r="F57" s="200"/>
-      <c r="G57" s="200"/>
-      <c r="H57" s="200"/>
-      <c r="I57" s="200"/>
-      <c r="J57" s="200"/>
-      <c r="K57" s="200"/>
-      <c r="L57" s="200"/>
-      <c r="M57" s="200"/>
-      <c r="N57" s="200"/>
-      <c r="O57" s="189"/>
-      <c r="P57" s="189"/>
-      <c r="Q57" s="189"/>
-      <c r="R57" s="189"/>
-      <c r="S57" s="189"/>
-      <c r="T57" s="189"/>
-      <c r="U57" s="189"/>
-      <c r="V57" s="189"/>
+      <c r="C57" s="140"/>
+      <c r="D57" s="140"/>
+      <c r="E57" s="140"/>
+      <c r="F57" s="140"/>
+      <c r="G57" s="140"/>
+      <c r="H57" s="140"/>
+      <c r="I57" s="140"/>
+      <c r="J57" s="140"/>
+      <c r="K57" s="140"/>
+      <c r="L57" s="140"/>
+      <c r="M57" s="140"/>
+      <c r="N57" s="140"/>
+      <c r="O57" s="152"/>
+      <c r="P57" s="152"/>
+      <c r="Q57" s="152"/>
+      <c r="R57" s="152"/>
+      <c r="S57" s="152"/>
+      <c r="T57" s="152"/>
+      <c r="U57" s="152"/>
+      <c r="V57" s="152"/>
       <c r="W57" s="23"/>
-      <c r="X57" s="201" t="s">
+      <c r="X57" s="153" t="s">
         <v>245</v>
       </c>
-      <c r="Y57" s="201"/>
-      <c r="Z57" s="201"/>
-      <c r="AA57" s="201"/>
-      <c r="AB57" s="201"/>
-      <c r="AC57" s="201"/>
-      <c r="AD57" s="201"/>
-      <c r="AE57" s="201"/>
-      <c r="AG57" s="190" t="s">
+      <c r="Y57" s="153"/>
+      <c r="Z57" s="153"/>
+      <c r="AA57" s="153"/>
+      <c r="AB57" s="153"/>
+      <c r="AC57" s="153"/>
+      <c r="AD57" s="153"/>
+      <c r="AE57" s="153"/>
+      <c r="AG57" s="154" t="s">
         <v>245</v>
       </c>
-      <c r="AH57" s="190"/>
-      <c r="AI57" s="190"/>
-      <c r="AJ57" s="190"/>
-      <c r="AK57" s="190"/>
-      <c r="AL57" s="190"/>
-      <c r="AM57" s="190"/>
-      <c r="AN57" s="190"/>
+      <c r="AH57" s="154"/>
+      <c r="AI57" s="154"/>
+      <c r="AJ57" s="154"/>
+      <c r="AK57" s="154"/>
+      <c r="AL57" s="154"/>
+      <c r="AM57" s="154"/>
+      <c r="AN57" s="154"/>
       <c r="AP57" s="22"/>
       <c r="AR57" s="25"/>
       <c r="AS57" s="93"/>
@@ -14038,51 +14057,51 @@
     </row>
     <row r="58" spans="1:306" s="7" customFormat="1" ht="11.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A58" s="21"/>
-      <c r="B58" s="202" t="s">
+      <c r="B58" s="155" t="s">
         <v>260</v>
       </c>
-      <c r="C58" s="202"/>
-      <c r="D58" s="202"/>
-      <c r="E58" s="202"/>
-      <c r="F58" s="202"/>
-      <c r="G58" s="202"/>
-      <c r="H58" s="202"/>
-      <c r="I58" s="202"/>
-      <c r="J58" s="202"/>
-      <c r="K58" s="202"/>
-      <c r="L58" s="202"/>
-      <c r="M58" s="202"/>
-      <c r="N58" s="202"/>
-      <c r="O58" s="203"/>
-      <c r="P58" s="203"/>
-      <c r="Q58" s="203"/>
-      <c r="R58" s="203"/>
-      <c r="S58" s="203"/>
-      <c r="T58" s="203"/>
-      <c r="U58" s="203"/>
-      <c r="V58" s="203"/>
+      <c r="C58" s="155"/>
+      <c r="D58" s="155"/>
+      <c r="E58" s="155"/>
+      <c r="F58" s="155"/>
+      <c r="G58" s="155"/>
+      <c r="H58" s="155"/>
+      <c r="I58" s="155"/>
+      <c r="J58" s="155"/>
+      <c r="K58" s="155"/>
+      <c r="L58" s="155"/>
+      <c r="M58" s="155"/>
+      <c r="N58" s="155"/>
+      <c r="O58" s="156"/>
+      <c r="P58" s="156"/>
+      <c r="Q58" s="156"/>
+      <c r="R58" s="156"/>
+      <c r="S58" s="156"/>
+      <c r="T58" s="156"/>
+      <c r="U58" s="156"/>
+      <c r="V58" s="156"/>
       <c r="W58" s="20"/>
-      <c r="X58" s="204" t="s">
+      <c r="X58" s="157" t="s">
         <v>245</v>
       </c>
-      <c r="Y58" s="204"/>
-      <c r="Z58" s="204"/>
-      <c r="AA58" s="204"/>
-      <c r="AB58" s="204"/>
-      <c r="AC58" s="204"/>
-      <c r="AD58" s="204"/>
-      <c r="AE58" s="204"/>
+      <c r="Y58" s="157"/>
+      <c r="Z58" s="157"/>
+      <c r="AA58" s="157"/>
+      <c r="AB58" s="157"/>
+      <c r="AC58" s="157"/>
+      <c r="AD58" s="157"/>
+      <c r="AE58" s="157"/>
       <c r="AF58" s="19"/>
-      <c r="AG58" s="205" t="s">
+      <c r="AG58" s="158" t="s">
         <v>245</v>
       </c>
-      <c r="AH58" s="205"/>
-      <c r="AI58" s="205"/>
-      <c r="AJ58" s="205"/>
-      <c r="AK58" s="205"/>
-      <c r="AL58" s="205"/>
-      <c r="AM58" s="205"/>
-      <c r="AN58" s="205"/>
+      <c r="AH58" s="158"/>
+      <c r="AI58" s="158"/>
+      <c r="AJ58" s="158"/>
+      <c r="AK58" s="158"/>
+      <c r="AL58" s="158"/>
+      <c r="AM58" s="158"/>
+      <c r="AN58" s="158"/>
       <c r="AO58" s="18"/>
       <c r="AP58" s="17"/>
       <c r="AR58" s="21"/>
@@ -14199,49 +14218,49 @@
       <c r="AO60" s="14"/>
       <c r="AP60" s="14"/>
       <c r="AQ60" s="14"/>
-      <c r="AR60" s="187" t="s">
+      <c r="AR60" s="159" t="s">
         <v>264</v>
       </c>
-      <c r="AS60" s="187"/>
-      <c r="AT60" s="187"/>
-      <c r="AU60" s="187"/>
-      <c r="AV60" s="187"/>
-      <c r="AW60" s="187"/>
-      <c r="AX60" s="187"/>
-      <c r="AY60" s="187"/>
-      <c r="AZ60" s="187"/>
-      <c r="BA60" s="187"/>
-      <c r="BB60" s="187"/>
-      <c r="BC60" s="187"/>
-      <c r="BD60" s="187"/>
-      <c r="BE60" s="187"/>
-      <c r="BF60" s="187"/>
-      <c r="BG60" s="187"/>
-      <c r="BH60" s="187"/>
-      <c r="BI60" s="187"/>
-      <c r="BJ60" s="187"/>
-      <c r="BK60" s="187"/>
-      <c r="BL60" s="187"/>
-      <c r="BM60" s="187"/>
-      <c r="BN60" s="187"/>
-      <c r="BO60" s="187"/>
-      <c r="BP60" s="187"/>
-      <c r="BQ60" s="187"/>
-      <c r="BR60" s="187"/>
-      <c r="BS60" s="187"/>
-      <c r="BT60" s="187"/>
-      <c r="BU60" s="187"/>
-      <c r="BV60" s="187"/>
-      <c r="BW60" s="187"/>
-      <c r="BX60" s="187"/>
-      <c r="BY60" s="187"/>
-      <c r="BZ60" s="187"/>
-      <c r="CA60" s="187"/>
-      <c r="CB60" s="187"/>
-      <c r="CC60" s="187"/>
-      <c r="CD60" s="187"/>
-      <c r="CE60" s="187"/>
-      <c r="CF60" s="187"/>
+      <c r="AS60" s="159"/>
+      <c r="AT60" s="159"/>
+      <c r="AU60" s="159"/>
+      <c r="AV60" s="159"/>
+      <c r="AW60" s="159"/>
+      <c r="AX60" s="159"/>
+      <c r="AY60" s="159"/>
+      <c r="AZ60" s="159"/>
+      <c r="BA60" s="159"/>
+      <c r="BB60" s="159"/>
+      <c r="BC60" s="159"/>
+      <c r="BD60" s="159"/>
+      <c r="BE60" s="159"/>
+      <c r="BF60" s="159"/>
+      <c r="BG60" s="159"/>
+      <c r="BH60" s="159"/>
+      <c r="BI60" s="159"/>
+      <c r="BJ60" s="159"/>
+      <c r="BK60" s="159"/>
+      <c r="BL60" s="159"/>
+      <c r="BM60" s="159"/>
+      <c r="BN60" s="159"/>
+      <c r="BO60" s="159"/>
+      <c r="BP60" s="159"/>
+      <c r="BQ60" s="159"/>
+      <c r="BR60" s="159"/>
+      <c r="BS60" s="159"/>
+      <c r="BT60" s="159"/>
+      <c r="BU60" s="159"/>
+      <c r="BV60" s="159"/>
+      <c r="BW60" s="159"/>
+      <c r="BX60" s="159"/>
+      <c r="BY60" s="159"/>
+      <c r="BZ60" s="159"/>
+      <c r="CA60" s="159"/>
+      <c r="CB60" s="159"/>
+      <c r="CC60" s="159"/>
+      <c r="CD60" s="159"/>
+      <c r="CE60" s="159"/>
+      <c r="CF60" s="159"/>
       <c r="CG60" s="13"/>
       <c r="CL60" s="5"/>
       <c r="CM60" s="2"/>
@@ -14266,89 +14285,89 @@
     </row>
     <row r="61" spans="1:306" s="7" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="12"/>
-      <c r="C61" s="188" t="s">
+      <c r="C61" s="160" t="s">
         <v>266</v>
       </c>
-      <c r="D61" s="188"/>
-      <c r="E61" s="188"/>
-      <c r="F61" s="188"/>
-      <c r="G61" s="188"/>
-      <c r="H61" s="188"/>
-      <c r="I61" s="188"/>
-      <c r="J61" s="188"/>
-      <c r="K61" s="188"/>
-      <c r="L61" s="188"/>
-      <c r="M61" s="188"/>
-      <c r="N61" s="188"/>
-      <c r="O61" s="188"/>
-      <c r="P61" s="188"/>
-      <c r="Q61" s="188"/>
-      <c r="R61" s="188"/>
-      <c r="S61" s="188"/>
-      <c r="T61" s="188"/>
-      <c r="U61" s="188"/>
-      <c r="V61" s="188"/>
-      <c r="W61" s="188"/>
-      <c r="X61" s="188"/>
-      <c r="Y61" s="188"/>
-      <c r="Z61" s="188"/>
-      <c r="AA61" s="188"/>
-      <c r="AB61" s="188"/>
-      <c r="AC61" s="188"/>
-      <c r="AD61" s="188"/>
-      <c r="AE61" s="188"/>
-      <c r="AF61" s="188"/>
-      <c r="AG61" s="188"/>
-      <c r="AH61" s="188"/>
-      <c r="AI61" s="188"/>
-      <c r="AJ61" s="188"/>
-      <c r="AK61" s="188"/>
-      <c r="AL61" s="188"/>
-      <c r="AM61" s="188"/>
-      <c r="AN61" s="188"/>
-      <c r="AO61" s="188"/>
-      <c r="AP61" s="188"/>
-      <c r="AR61" s="188"/>
-      <c r="AS61" s="188"/>
-      <c r="AT61" s="188"/>
-      <c r="AU61" s="188"/>
-      <c r="AV61" s="188"/>
-      <c r="AW61" s="188"/>
-      <c r="AX61" s="188"/>
-      <c r="AY61" s="188"/>
-      <c r="AZ61" s="188"/>
-      <c r="BA61" s="188"/>
-      <c r="BB61" s="188"/>
-      <c r="BC61" s="188"/>
-      <c r="BD61" s="188"/>
-      <c r="BE61" s="188"/>
-      <c r="BF61" s="188"/>
-      <c r="BG61" s="188"/>
-      <c r="BH61" s="188"/>
-      <c r="BI61" s="188"/>
-      <c r="BJ61" s="188"/>
-      <c r="BK61" s="188"/>
-      <c r="BL61" s="188"/>
-      <c r="BM61" s="188"/>
-      <c r="BN61" s="188"/>
-      <c r="BO61" s="188"/>
-      <c r="BP61" s="188"/>
-      <c r="BQ61" s="188"/>
-      <c r="BR61" s="188"/>
-      <c r="BS61" s="188"/>
-      <c r="BT61" s="188"/>
-      <c r="BU61" s="188"/>
-      <c r="BV61" s="188"/>
-      <c r="BW61" s="188"/>
-      <c r="BX61" s="188"/>
-      <c r="BY61" s="188"/>
-      <c r="BZ61" s="188"/>
-      <c r="CA61" s="188"/>
-      <c r="CB61" s="188"/>
-      <c r="CC61" s="188"/>
-      <c r="CD61" s="188"/>
-      <c r="CE61" s="188"/>
-      <c r="CF61" s="188"/>
+      <c r="D61" s="160"/>
+      <c r="E61" s="160"/>
+      <c r="F61" s="160"/>
+      <c r="G61" s="160"/>
+      <c r="H61" s="160"/>
+      <c r="I61" s="160"/>
+      <c r="J61" s="160"/>
+      <c r="K61" s="160"/>
+      <c r="L61" s="160"/>
+      <c r="M61" s="160"/>
+      <c r="N61" s="160"/>
+      <c r="O61" s="160"/>
+      <c r="P61" s="160"/>
+      <c r="Q61" s="160"/>
+      <c r="R61" s="160"/>
+      <c r="S61" s="160"/>
+      <c r="T61" s="160"/>
+      <c r="U61" s="160"/>
+      <c r="V61" s="160"/>
+      <c r="W61" s="160"/>
+      <c r="X61" s="160"/>
+      <c r="Y61" s="160"/>
+      <c r="Z61" s="160"/>
+      <c r="AA61" s="160"/>
+      <c r="AB61" s="160"/>
+      <c r="AC61" s="160"/>
+      <c r="AD61" s="160"/>
+      <c r="AE61" s="160"/>
+      <c r="AF61" s="160"/>
+      <c r="AG61" s="160"/>
+      <c r="AH61" s="160"/>
+      <c r="AI61" s="160"/>
+      <c r="AJ61" s="160"/>
+      <c r="AK61" s="160"/>
+      <c r="AL61" s="160"/>
+      <c r="AM61" s="160"/>
+      <c r="AN61" s="160"/>
+      <c r="AO61" s="160"/>
+      <c r="AP61" s="160"/>
+      <c r="AR61" s="160"/>
+      <c r="AS61" s="160"/>
+      <c r="AT61" s="160"/>
+      <c r="AU61" s="160"/>
+      <c r="AV61" s="160"/>
+      <c r="AW61" s="160"/>
+      <c r="AX61" s="160"/>
+      <c r="AY61" s="160"/>
+      <c r="AZ61" s="160"/>
+      <c r="BA61" s="160"/>
+      <c r="BB61" s="160"/>
+      <c r="BC61" s="160"/>
+      <c r="BD61" s="160"/>
+      <c r="BE61" s="160"/>
+      <c r="BF61" s="160"/>
+      <c r="BG61" s="160"/>
+      <c r="BH61" s="160"/>
+      <c r="BI61" s="160"/>
+      <c r="BJ61" s="160"/>
+      <c r="BK61" s="160"/>
+      <c r="BL61" s="160"/>
+      <c r="BM61" s="160"/>
+      <c r="BN61" s="160"/>
+      <c r="BO61" s="160"/>
+      <c r="BP61" s="160"/>
+      <c r="BQ61" s="160"/>
+      <c r="BR61" s="160"/>
+      <c r="BS61" s="160"/>
+      <c r="BT61" s="160"/>
+      <c r="BU61" s="160"/>
+      <c r="BV61" s="160"/>
+      <c r="BW61" s="160"/>
+      <c r="BX61" s="160"/>
+      <c r="BY61" s="160"/>
+      <c r="BZ61" s="160"/>
+      <c r="CA61" s="160"/>
+      <c r="CB61" s="160"/>
+      <c r="CC61" s="160"/>
+      <c r="CD61" s="160"/>
+      <c r="CE61" s="160"/>
+      <c r="CF61" s="160"/>
       <c r="CG61" s="11"/>
       <c r="CL61" s="5"/>
       <c r="CM61" s="2"/>
@@ -14373,87 +14392,87 @@
     </row>
     <row r="62" spans="1:306" s="7" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="12"/>
-      <c r="C62" s="188"/>
-      <c r="D62" s="188"/>
-      <c r="E62" s="188"/>
-      <c r="F62" s="188"/>
-      <c r="G62" s="188"/>
-      <c r="H62" s="188"/>
-      <c r="I62" s="188"/>
-      <c r="J62" s="188"/>
-      <c r="K62" s="188"/>
-      <c r="L62" s="188"/>
-      <c r="M62" s="188"/>
-      <c r="N62" s="188"/>
-      <c r="O62" s="188"/>
-      <c r="P62" s="188"/>
-      <c r="Q62" s="188"/>
-      <c r="R62" s="188"/>
-      <c r="S62" s="188"/>
-      <c r="T62" s="188"/>
-      <c r="U62" s="188"/>
-      <c r="V62" s="188"/>
-      <c r="W62" s="188"/>
-      <c r="X62" s="188"/>
-      <c r="Y62" s="188"/>
-      <c r="Z62" s="188"/>
-      <c r="AA62" s="188"/>
-      <c r="AB62" s="188"/>
-      <c r="AC62" s="188"/>
-      <c r="AD62" s="188"/>
-      <c r="AE62" s="188"/>
-      <c r="AF62" s="188"/>
-      <c r="AG62" s="188"/>
-      <c r="AH62" s="188"/>
-      <c r="AI62" s="188"/>
-      <c r="AJ62" s="188"/>
-      <c r="AK62" s="188"/>
-      <c r="AL62" s="188"/>
-      <c r="AM62" s="188"/>
-      <c r="AN62" s="188"/>
-      <c r="AO62" s="188"/>
-      <c r="AP62" s="188"/>
-      <c r="AR62" s="188"/>
-      <c r="AS62" s="188"/>
-      <c r="AT62" s="188"/>
-      <c r="AU62" s="188"/>
-      <c r="AV62" s="188"/>
-      <c r="AW62" s="188"/>
-      <c r="AX62" s="188"/>
-      <c r="AY62" s="188"/>
-      <c r="AZ62" s="188"/>
-      <c r="BA62" s="188"/>
-      <c r="BB62" s="188"/>
-      <c r="BC62" s="188"/>
-      <c r="BD62" s="188"/>
-      <c r="BE62" s="188"/>
-      <c r="BF62" s="188"/>
-      <c r="BG62" s="188"/>
-      <c r="BH62" s="188"/>
-      <c r="BI62" s="188"/>
-      <c r="BJ62" s="188"/>
-      <c r="BK62" s="188"/>
-      <c r="BL62" s="188"/>
-      <c r="BM62" s="188"/>
-      <c r="BN62" s="188"/>
-      <c r="BO62" s="188"/>
-      <c r="BP62" s="188"/>
-      <c r="BQ62" s="188"/>
-      <c r="BR62" s="188"/>
-      <c r="BS62" s="188"/>
-      <c r="BT62" s="188"/>
-      <c r="BU62" s="188"/>
-      <c r="BV62" s="188"/>
-      <c r="BW62" s="188"/>
-      <c r="BX62" s="188"/>
-      <c r="BY62" s="188"/>
-      <c r="BZ62" s="188"/>
-      <c r="CA62" s="188"/>
-      <c r="CB62" s="188"/>
-      <c r="CC62" s="188"/>
-      <c r="CD62" s="188"/>
-      <c r="CE62" s="188"/>
-      <c r="CF62" s="188"/>
+      <c r="C62" s="160"/>
+      <c r="D62" s="160"/>
+      <c r="E62" s="160"/>
+      <c r="F62" s="160"/>
+      <c r="G62" s="160"/>
+      <c r="H62" s="160"/>
+      <c r="I62" s="160"/>
+      <c r="J62" s="160"/>
+      <c r="K62" s="160"/>
+      <c r="L62" s="160"/>
+      <c r="M62" s="160"/>
+      <c r="N62" s="160"/>
+      <c r="O62" s="160"/>
+      <c r="P62" s="160"/>
+      <c r="Q62" s="160"/>
+      <c r="R62" s="160"/>
+      <c r="S62" s="160"/>
+      <c r="T62" s="160"/>
+      <c r="U62" s="160"/>
+      <c r="V62" s="160"/>
+      <c r="W62" s="160"/>
+      <c r="X62" s="160"/>
+      <c r="Y62" s="160"/>
+      <c r="Z62" s="160"/>
+      <c r="AA62" s="160"/>
+      <c r="AB62" s="160"/>
+      <c r="AC62" s="160"/>
+      <c r="AD62" s="160"/>
+      <c r="AE62" s="160"/>
+      <c r="AF62" s="160"/>
+      <c r="AG62" s="160"/>
+      <c r="AH62" s="160"/>
+      <c r="AI62" s="160"/>
+      <c r="AJ62" s="160"/>
+      <c r="AK62" s="160"/>
+      <c r="AL62" s="160"/>
+      <c r="AM62" s="160"/>
+      <c r="AN62" s="160"/>
+      <c r="AO62" s="160"/>
+      <c r="AP62" s="160"/>
+      <c r="AR62" s="160"/>
+      <c r="AS62" s="160"/>
+      <c r="AT62" s="160"/>
+      <c r="AU62" s="160"/>
+      <c r="AV62" s="160"/>
+      <c r="AW62" s="160"/>
+      <c r="AX62" s="160"/>
+      <c r="AY62" s="160"/>
+      <c r="AZ62" s="160"/>
+      <c r="BA62" s="160"/>
+      <c r="BB62" s="160"/>
+      <c r="BC62" s="160"/>
+      <c r="BD62" s="160"/>
+      <c r="BE62" s="160"/>
+      <c r="BF62" s="160"/>
+      <c r="BG62" s="160"/>
+      <c r="BH62" s="160"/>
+      <c r="BI62" s="160"/>
+      <c r="BJ62" s="160"/>
+      <c r="BK62" s="160"/>
+      <c r="BL62" s="160"/>
+      <c r="BM62" s="160"/>
+      <c r="BN62" s="160"/>
+      <c r="BO62" s="160"/>
+      <c r="BP62" s="160"/>
+      <c r="BQ62" s="160"/>
+      <c r="BR62" s="160"/>
+      <c r="BS62" s="160"/>
+      <c r="BT62" s="160"/>
+      <c r="BU62" s="160"/>
+      <c r="BV62" s="160"/>
+      <c r="BW62" s="160"/>
+      <c r="BX62" s="160"/>
+      <c r="BY62" s="160"/>
+      <c r="BZ62" s="160"/>
+      <c r="CA62" s="160"/>
+      <c r="CB62" s="160"/>
+      <c r="CC62" s="160"/>
+      <c r="CD62" s="160"/>
+      <c r="CE62" s="160"/>
+      <c r="CF62" s="160"/>
       <c r="CG62" s="11"/>
       <c r="CL62" s="5"/>
       <c r="CM62" s="2"/>
@@ -14478,87 +14497,87 @@
     </row>
     <row r="63" spans="1:306" s="7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="12"/>
-      <c r="C63" s="188"/>
-      <c r="D63" s="188"/>
-      <c r="E63" s="188"/>
-      <c r="F63" s="188"/>
-      <c r="G63" s="188"/>
-      <c r="H63" s="188"/>
-      <c r="I63" s="188"/>
-      <c r="J63" s="188"/>
-      <c r="K63" s="188"/>
-      <c r="L63" s="188"/>
-      <c r="M63" s="188"/>
-      <c r="N63" s="188"/>
-      <c r="O63" s="188"/>
-      <c r="P63" s="188"/>
-      <c r="Q63" s="188"/>
-      <c r="R63" s="188"/>
-      <c r="S63" s="188"/>
-      <c r="T63" s="188"/>
-      <c r="U63" s="188"/>
-      <c r="V63" s="188"/>
-      <c r="W63" s="188"/>
-      <c r="X63" s="188"/>
-      <c r="Y63" s="188"/>
-      <c r="Z63" s="188"/>
-      <c r="AA63" s="188"/>
-      <c r="AB63" s="188"/>
-      <c r="AC63" s="188"/>
-      <c r="AD63" s="188"/>
-      <c r="AE63" s="188"/>
-      <c r="AF63" s="188"/>
-      <c r="AG63" s="188"/>
-      <c r="AH63" s="188"/>
-      <c r="AI63" s="188"/>
-      <c r="AJ63" s="188"/>
-      <c r="AK63" s="188"/>
-      <c r="AL63" s="188"/>
-      <c r="AM63" s="188"/>
-      <c r="AN63" s="188"/>
-      <c r="AO63" s="188"/>
-      <c r="AP63" s="188"/>
-      <c r="AR63" s="188"/>
-      <c r="AS63" s="188"/>
-      <c r="AT63" s="188"/>
-      <c r="AU63" s="188"/>
-      <c r="AV63" s="188"/>
-      <c r="AW63" s="188"/>
-      <c r="AX63" s="188"/>
-      <c r="AY63" s="188"/>
-      <c r="AZ63" s="188"/>
-      <c r="BA63" s="188"/>
-      <c r="BB63" s="188"/>
-      <c r="BC63" s="188"/>
-      <c r="BD63" s="188"/>
-      <c r="BE63" s="188"/>
-      <c r="BF63" s="188"/>
-      <c r="BG63" s="188"/>
-      <c r="BH63" s="188"/>
-      <c r="BI63" s="188"/>
-      <c r="BJ63" s="188"/>
-      <c r="BK63" s="188"/>
-      <c r="BL63" s="188"/>
-      <c r="BM63" s="188"/>
-      <c r="BN63" s="188"/>
-      <c r="BO63" s="188"/>
-      <c r="BP63" s="188"/>
-      <c r="BQ63" s="188"/>
-      <c r="BR63" s="188"/>
-      <c r="BS63" s="188"/>
-      <c r="BT63" s="188"/>
-      <c r="BU63" s="188"/>
-      <c r="BV63" s="188"/>
-      <c r="BW63" s="188"/>
-      <c r="BX63" s="188"/>
-      <c r="BY63" s="188"/>
-      <c r="BZ63" s="188"/>
-      <c r="CA63" s="188"/>
-      <c r="CB63" s="188"/>
-      <c r="CC63" s="188"/>
-      <c r="CD63" s="188"/>
-      <c r="CE63" s="188"/>
-      <c r="CF63" s="188"/>
+      <c r="C63" s="160"/>
+      <c r="D63" s="160"/>
+      <c r="E63" s="160"/>
+      <c r="F63" s="160"/>
+      <c r="G63" s="160"/>
+      <c r="H63" s="160"/>
+      <c r="I63" s="160"/>
+      <c r="J63" s="160"/>
+      <c r="K63" s="160"/>
+      <c r="L63" s="160"/>
+      <c r="M63" s="160"/>
+      <c r="N63" s="160"/>
+      <c r="O63" s="160"/>
+      <c r="P63" s="160"/>
+      <c r="Q63" s="160"/>
+      <c r="R63" s="160"/>
+      <c r="S63" s="160"/>
+      <c r="T63" s="160"/>
+      <c r="U63" s="160"/>
+      <c r="V63" s="160"/>
+      <c r="W63" s="160"/>
+      <c r="X63" s="160"/>
+      <c r="Y63" s="160"/>
+      <c r="Z63" s="160"/>
+      <c r="AA63" s="160"/>
+      <c r="AB63" s="160"/>
+      <c r="AC63" s="160"/>
+      <c r="AD63" s="160"/>
+      <c r="AE63" s="160"/>
+      <c r="AF63" s="160"/>
+      <c r="AG63" s="160"/>
+      <c r="AH63" s="160"/>
+      <c r="AI63" s="160"/>
+      <c r="AJ63" s="160"/>
+      <c r="AK63" s="160"/>
+      <c r="AL63" s="160"/>
+      <c r="AM63" s="160"/>
+      <c r="AN63" s="160"/>
+      <c r="AO63" s="160"/>
+      <c r="AP63" s="160"/>
+      <c r="AR63" s="160"/>
+      <c r="AS63" s="160"/>
+      <c r="AT63" s="160"/>
+      <c r="AU63" s="160"/>
+      <c r="AV63" s="160"/>
+      <c r="AW63" s="160"/>
+      <c r="AX63" s="160"/>
+      <c r="AY63" s="160"/>
+      <c r="AZ63" s="160"/>
+      <c r="BA63" s="160"/>
+      <c r="BB63" s="160"/>
+      <c r="BC63" s="160"/>
+      <c r="BD63" s="160"/>
+      <c r="BE63" s="160"/>
+      <c r="BF63" s="160"/>
+      <c r="BG63" s="160"/>
+      <c r="BH63" s="160"/>
+      <c r="BI63" s="160"/>
+      <c r="BJ63" s="160"/>
+      <c r="BK63" s="160"/>
+      <c r="BL63" s="160"/>
+      <c r="BM63" s="160"/>
+      <c r="BN63" s="160"/>
+      <c r="BO63" s="160"/>
+      <c r="BP63" s="160"/>
+      <c r="BQ63" s="160"/>
+      <c r="BR63" s="160"/>
+      <c r="BS63" s="160"/>
+      <c r="BT63" s="160"/>
+      <c r="BU63" s="160"/>
+      <c r="BV63" s="160"/>
+      <c r="BW63" s="160"/>
+      <c r="BX63" s="160"/>
+      <c r="BY63" s="160"/>
+      <c r="BZ63" s="160"/>
+      <c r="CA63" s="160"/>
+      <c r="CB63" s="160"/>
+      <c r="CC63" s="160"/>
+      <c r="CD63" s="160"/>
+      <c r="CE63" s="160"/>
+      <c r="CF63" s="160"/>
       <c r="CG63" s="11"/>
       <c r="CL63" s="5"/>
       <c r="CM63" s="2"/>
@@ -14584,88 +14603,88 @@
     <row r="64" spans="1:306" s="7" customFormat="1" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A64" s="10"/>
       <c r="B64" s="9"/>
-      <c r="C64" s="191" t="s">
+      <c r="C64" s="143" t="s">
         <v>270</v>
       </c>
-      <c r="D64" s="191"/>
-      <c r="E64" s="191"/>
-      <c r="F64" s="191"/>
-      <c r="G64" s="191"/>
-      <c r="H64" s="191"/>
-      <c r="I64" s="191"/>
-      <c r="J64" s="191"/>
-      <c r="K64" s="191"/>
-      <c r="L64" s="191"/>
-      <c r="M64" s="191"/>
-      <c r="N64" s="191"/>
-      <c r="O64" s="191"/>
-      <c r="P64" s="191"/>
-      <c r="Q64" s="191"/>
-      <c r="R64" s="191"/>
-      <c r="S64" s="191"/>
-      <c r="T64" s="191"/>
-      <c r="U64" s="191"/>
-      <c r="V64" s="191"/>
-      <c r="W64" s="191"/>
-      <c r="X64" s="191"/>
-      <c r="Y64" s="191"/>
-      <c r="Z64" s="191"/>
-      <c r="AA64" s="191"/>
-      <c r="AB64" s="191"/>
-      <c r="AC64" s="191"/>
-      <c r="AD64" s="191"/>
-      <c r="AE64" s="191"/>
-      <c r="AF64" s="191"/>
-      <c r="AG64" s="191"/>
-      <c r="AH64" s="191"/>
-      <c r="AI64" s="191"/>
-      <c r="AJ64" s="191"/>
-      <c r="AK64" s="191"/>
-      <c r="AL64" s="191"/>
-      <c r="AM64" s="191"/>
-      <c r="AN64" s="191"/>
-      <c r="AO64" s="191"/>
-      <c r="AP64" s="191"/>
-      <c r="AQ64" s="191"/>
-      <c r="AR64" s="191"/>
-      <c r="AS64" s="191"/>
-      <c r="AT64" s="191"/>
-      <c r="AU64" s="191"/>
-      <c r="AV64" s="191"/>
-      <c r="AW64" s="191"/>
-      <c r="AX64" s="191"/>
-      <c r="AY64" s="191"/>
-      <c r="AZ64" s="191"/>
-      <c r="BA64" s="191"/>
-      <c r="BB64" s="191"/>
-      <c r="BC64" s="191"/>
-      <c r="BD64" s="191"/>
-      <c r="BE64" s="191"/>
-      <c r="BF64" s="191"/>
-      <c r="BG64" s="191"/>
-      <c r="BH64" s="191"/>
-      <c r="BI64" s="191"/>
-      <c r="BJ64" s="191"/>
-      <c r="BK64" s="191"/>
-      <c r="BL64" s="191"/>
-      <c r="BM64" s="191"/>
-      <c r="BN64" s="191"/>
-      <c r="BO64" s="191"/>
-      <c r="BP64" s="191"/>
-      <c r="BQ64" s="191"/>
-      <c r="BR64" s="191"/>
-      <c r="BS64" s="191"/>
-      <c r="BT64" s="191"/>
-      <c r="BU64" s="191"/>
-      <c r="BV64" s="191"/>
-      <c r="BW64" s="191"/>
-      <c r="BX64" s="191"/>
-      <c r="BY64" s="191"/>
-      <c r="BZ64" s="191"/>
-      <c r="CA64" s="191"/>
-      <c r="CB64" s="191"/>
-      <c r="CC64" s="191"/>
-      <c r="CD64" s="191"/>
+      <c r="D64" s="143"/>
+      <c r="E64" s="143"/>
+      <c r="F64" s="143"/>
+      <c r="G64" s="143"/>
+      <c r="H64" s="143"/>
+      <c r="I64" s="143"/>
+      <c r="J64" s="143"/>
+      <c r="K64" s="143"/>
+      <c r="L64" s="143"/>
+      <c r="M64" s="143"/>
+      <c r="N64" s="143"/>
+      <c r="O64" s="143"/>
+      <c r="P64" s="143"/>
+      <c r="Q64" s="143"/>
+      <c r="R64" s="143"/>
+      <c r="S64" s="143"/>
+      <c r="T64" s="143"/>
+      <c r="U64" s="143"/>
+      <c r="V64" s="143"/>
+      <c r="W64" s="143"/>
+      <c r="X64" s="143"/>
+      <c r="Y64" s="143"/>
+      <c r="Z64" s="143"/>
+      <c r="AA64" s="143"/>
+      <c r="AB64" s="143"/>
+      <c r="AC64" s="143"/>
+      <c r="AD64" s="143"/>
+      <c r="AE64" s="143"/>
+      <c r="AF64" s="143"/>
+      <c r="AG64" s="143"/>
+      <c r="AH64" s="143"/>
+      <c r="AI64" s="143"/>
+      <c r="AJ64" s="143"/>
+      <c r="AK64" s="143"/>
+      <c r="AL64" s="143"/>
+      <c r="AM64" s="143"/>
+      <c r="AN64" s="143"/>
+      <c r="AO64" s="143"/>
+      <c r="AP64" s="143"/>
+      <c r="AQ64" s="143"/>
+      <c r="AR64" s="143"/>
+      <c r="AS64" s="143"/>
+      <c r="AT64" s="143"/>
+      <c r="AU64" s="143"/>
+      <c r="AV64" s="143"/>
+      <c r="AW64" s="143"/>
+      <c r="AX64" s="143"/>
+      <c r="AY64" s="143"/>
+      <c r="AZ64" s="143"/>
+      <c r="BA64" s="143"/>
+      <c r="BB64" s="143"/>
+      <c r="BC64" s="143"/>
+      <c r="BD64" s="143"/>
+      <c r="BE64" s="143"/>
+      <c r="BF64" s="143"/>
+      <c r="BG64" s="143"/>
+      <c r="BH64" s="143"/>
+      <c r="BI64" s="143"/>
+      <c r="BJ64" s="143"/>
+      <c r="BK64" s="143"/>
+      <c r="BL64" s="143"/>
+      <c r="BM64" s="143"/>
+      <c r="BN64" s="143"/>
+      <c r="BO64" s="143"/>
+      <c r="BP64" s="143"/>
+      <c r="BQ64" s="143"/>
+      <c r="BR64" s="143"/>
+      <c r="BS64" s="143"/>
+      <c r="BT64" s="143"/>
+      <c r="BU64" s="143"/>
+      <c r="BV64" s="143"/>
+      <c r="BW64" s="143"/>
+      <c r="BX64" s="143"/>
+      <c r="BY64" s="143"/>
+      <c r="BZ64" s="143"/>
+      <c r="CA64" s="143"/>
+      <c r="CB64" s="143"/>
+      <c r="CC64" s="143"/>
+      <c r="CD64" s="143"/>
       <c r="CE64" s="129"/>
       <c r="CF64" s="129"/>
       <c r="CG64" s="8"/>
@@ -17057,25 +17076,52 @@
   </sheetData>
   <dataConsolidate link="1"/>
   <mergeCells count="81">
-    <mergeCell ref="O50:V51"/>
-    <mergeCell ref="X50:AE51"/>
-    <mergeCell ref="AG50:AN51"/>
-    <mergeCell ref="O53:V53"/>
-    <mergeCell ref="X53:AE53"/>
-    <mergeCell ref="AG53:AN53"/>
-    <mergeCell ref="B52:N52"/>
-    <mergeCell ref="B55:N55"/>
-    <mergeCell ref="B54:N54"/>
-    <mergeCell ref="B53:N53"/>
-    <mergeCell ref="AG55:AN55"/>
-    <mergeCell ref="X55:AE55"/>
-    <mergeCell ref="O55:V55"/>
-    <mergeCell ref="AG54:AN54"/>
-    <mergeCell ref="X54:AE54"/>
-    <mergeCell ref="O54:V54"/>
-    <mergeCell ref="AG52:AN52"/>
-    <mergeCell ref="X52:AE52"/>
-    <mergeCell ref="O52:V52"/>
+    <mergeCell ref="BH17:CF17"/>
+    <mergeCell ref="A2:AR3"/>
+    <mergeCell ref="AU2:BK3"/>
+    <mergeCell ref="BS5:CG6"/>
+    <mergeCell ref="B7:AO8"/>
+    <mergeCell ref="AS7:CF8"/>
+    <mergeCell ref="B9:S10"/>
+    <mergeCell ref="V9:AO10"/>
+    <mergeCell ref="AS9:CF10"/>
+    <mergeCell ref="I15:AO16"/>
+    <mergeCell ref="Q13:AO14"/>
+    <mergeCell ref="AS13:BK14"/>
+    <mergeCell ref="BH18:CF18"/>
+    <mergeCell ref="B19:J20"/>
+    <mergeCell ref="L19:R20"/>
+    <mergeCell ref="T19:AO20"/>
+    <mergeCell ref="B23:R24"/>
+    <mergeCell ref="T23:AA24"/>
+    <mergeCell ref="AC23:AO24"/>
+    <mergeCell ref="AX18:BG18"/>
+    <mergeCell ref="B41:AA41"/>
+    <mergeCell ref="AB41:AO41"/>
+    <mergeCell ref="B27:S28"/>
+    <mergeCell ref="V27:AO28"/>
+    <mergeCell ref="B31:AO32"/>
+    <mergeCell ref="B38:AA38"/>
+    <mergeCell ref="AB38:AO38"/>
+    <mergeCell ref="B39:AA39"/>
+    <mergeCell ref="AB39:AO39"/>
+    <mergeCell ref="B40:AA40"/>
+    <mergeCell ref="AB40:AO40"/>
+    <mergeCell ref="B35:AO35"/>
+    <mergeCell ref="B33:AO34"/>
+    <mergeCell ref="B46:AD46"/>
+    <mergeCell ref="AE46:AO46"/>
+    <mergeCell ref="B47:AD47"/>
+    <mergeCell ref="AE47:AO47"/>
+    <mergeCell ref="B44:AD44"/>
+    <mergeCell ref="AE44:AO44"/>
+    <mergeCell ref="B45:AD45"/>
+    <mergeCell ref="AE45:AO45"/>
+    <mergeCell ref="AR60:CF63"/>
+    <mergeCell ref="C61:AP63"/>
+    <mergeCell ref="O56:V56"/>
+    <mergeCell ref="X56:AE56"/>
+    <mergeCell ref="AG56:AN56"/>
     <mergeCell ref="C64:CD64"/>
     <mergeCell ref="AS42:CF45"/>
     <mergeCell ref="BG48:BS48"/>
@@ -17092,52 +17138,25 @@
     <mergeCell ref="O58:V58"/>
     <mergeCell ref="X58:AE58"/>
     <mergeCell ref="AG58:AN58"/>
-    <mergeCell ref="AR60:CF63"/>
-    <mergeCell ref="C61:AP63"/>
-    <mergeCell ref="O56:V56"/>
-    <mergeCell ref="X56:AE56"/>
-    <mergeCell ref="AG56:AN56"/>
-    <mergeCell ref="B46:AD46"/>
-    <mergeCell ref="AE46:AO46"/>
-    <mergeCell ref="B47:AD47"/>
-    <mergeCell ref="AE47:AO47"/>
-    <mergeCell ref="B44:AD44"/>
-    <mergeCell ref="AE44:AO44"/>
-    <mergeCell ref="B45:AD45"/>
-    <mergeCell ref="AE45:AO45"/>
-    <mergeCell ref="B41:AA41"/>
-    <mergeCell ref="AB41:AO41"/>
-    <mergeCell ref="B27:S28"/>
-    <mergeCell ref="V27:AO28"/>
-    <mergeCell ref="B31:AO32"/>
-    <mergeCell ref="B38:AA38"/>
-    <mergeCell ref="AB38:AO38"/>
-    <mergeCell ref="B39:AA39"/>
-    <mergeCell ref="AB39:AO39"/>
-    <mergeCell ref="B40:AA40"/>
-    <mergeCell ref="AB40:AO40"/>
-    <mergeCell ref="B35:AO35"/>
-    <mergeCell ref="B33:AO34"/>
-    <mergeCell ref="BH18:CF18"/>
-    <mergeCell ref="B19:J20"/>
-    <mergeCell ref="L19:R20"/>
-    <mergeCell ref="T19:AO20"/>
-    <mergeCell ref="B23:R24"/>
-    <mergeCell ref="T23:AA24"/>
-    <mergeCell ref="AC23:AO24"/>
-    <mergeCell ref="AX18:BG18"/>
-    <mergeCell ref="BH17:CF17"/>
-    <mergeCell ref="A2:AR3"/>
-    <mergeCell ref="AU2:BK3"/>
-    <mergeCell ref="BS5:CG6"/>
-    <mergeCell ref="B7:AO8"/>
-    <mergeCell ref="AS7:CF8"/>
-    <mergeCell ref="B9:S10"/>
-    <mergeCell ref="V9:AO10"/>
-    <mergeCell ref="AS9:CF10"/>
-    <mergeCell ref="I15:AO16"/>
-    <mergeCell ref="Q13:AO14"/>
-    <mergeCell ref="AS13:BK14"/>
+    <mergeCell ref="B52:N52"/>
+    <mergeCell ref="B55:N55"/>
+    <mergeCell ref="B54:N54"/>
+    <mergeCell ref="B53:N53"/>
+    <mergeCell ref="AG55:AN55"/>
+    <mergeCell ref="X55:AE55"/>
+    <mergeCell ref="O55:V55"/>
+    <mergeCell ref="AG54:AN54"/>
+    <mergeCell ref="X54:AE54"/>
+    <mergeCell ref="O54:V54"/>
+    <mergeCell ref="AG52:AN52"/>
+    <mergeCell ref="X52:AE52"/>
+    <mergeCell ref="O52:V52"/>
+    <mergeCell ref="O50:V51"/>
+    <mergeCell ref="X50:AE51"/>
+    <mergeCell ref="AG50:AN51"/>
+    <mergeCell ref="O53:V53"/>
+    <mergeCell ref="X53:AE53"/>
+    <mergeCell ref="AG53:AN53"/>
   </mergeCells>
   <dataValidations count="18">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="B31 B33" xr:uid="{22E24604-9470-4274-BC4F-3FDB0DF15EB7}">
@@ -23900,27 +23919,27 @@
     </row>
     <row r="44" spans="1:263" s="7" customFormat="1" ht="11.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="21"/>
-      <c r="B44" s="159"/>
-      <c r="C44" s="159"/>
-      <c r="D44" s="159"/>
-      <c r="E44" s="159"/>
-      <c r="F44" s="159"/>
-      <c r="G44" s="159"/>
-      <c r="H44" s="159"/>
-      <c r="I44" s="159"/>
-      <c r="J44" s="159"/>
-      <c r="K44" s="159"/>
-      <c r="L44" s="159"/>
-      <c r="M44" s="159"/>
-      <c r="N44" s="159"/>
-      <c r="O44" s="159"/>
-      <c r="P44" s="159"/>
-      <c r="Q44" s="159"/>
-      <c r="R44" s="159"/>
-      <c r="S44" s="159"/>
-      <c r="T44" s="159"/>
-      <c r="U44" s="159"/>
-      <c r="V44" s="159"/>
+      <c r="B44" s="187"/>
+      <c r="C44" s="187"/>
+      <c r="D44" s="187"/>
+      <c r="E44" s="187"/>
+      <c r="F44" s="187"/>
+      <c r="G44" s="187"/>
+      <c r="H44" s="187"/>
+      <c r="I44" s="187"/>
+      <c r="J44" s="187"/>
+      <c r="K44" s="187"/>
+      <c r="L44" s="187"/>
+      <c r="M44" s="187"/>
+      <c r="N44" s="187"/>
+      <c r="O44" s="187"/>
+      <c r="P44" s="187"/>
+      <c r="Q44" s="187"/>
+      <c r="R44" s="187"/>
+      <c r="S44" s="187"/>
+      <c r="T44" s="187"/>
+      <c r="U44" s="187"/>
+      <c r="V44" s="187"/>
       <c r="W44" s="84"/>
       <c r="X44" s="84"/>
       <c r="Y44" s="84"/>
@@ -26190,6 +26209,46 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Audience xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Geltungsbereich xmlns="6284ef28-e06e-427c-b150-08f3f2b262f4">BILLA CM/EK</Geltungsbereich>
+    <Kategorie_x002d_Mitarbeiter xmlns="6284ef28-e06e-427c-b150-08f3f2b262f4"/>
+    <Kategorie_x002d_Systeme xmlns="6284ef28-e06e-427c-b150-08f3f2b262f4">
+      <Value>Stammdaten DB</Value>
+    </Kategorie_x002d_Systeme>
+    <Kategorie_x002d_Schnittstelle xmlns="6284ef28-e06e-427c-b150-08f3f2b262f4"/>
+    <Sprachvariante xmlns="6284ef28-e06e-427c-b150-08f3f2b262f4">DE</Sprachvariante>
+    <Dokumentenart xmlns="6284ef28-e06e-427c-b150-08f3f2b262f4">Formular</Dokumentenart>
+    <ext_x002e__x0020_Version xmlns="6284ef28-e06e-427c-b150-08f3f2b262f4">0.1</ext_x002e__x0020_Version>
+    <Kategorie_x002d_Lieferant xmlns="6284ef28-e06e-427c-b150-08f3f2b262f4"/>
+    <Co_x002d_Autoren xmlns="6284ef28-e06e-427c-b150-08f3f2b262f4">
+      <Value>Billa DPM</Value>
+    </Co_x002d_Autoren>
+    <Freigabe_x0020_GF xmlns="6284ef28-e06e-427c-b150-08f3f2b262f4" xsi:nil="true"/>
+    <Verantwort_x002e__x0020_Bereich xmlns="6284ef28-e06e-427c-b150-08f3f2b262f4">BILLA DPM</Verantwort_x002e__x0020_Bereich>
+    <Themengruppe xmlns="6284ef28-e06e-427c-b150-08f3f2b262f4" xsi:nil="true"/>
+    <Kategorie_x002d_Artikel xmlns="6284ef28-e06e-427c-b150-08f3f2b262f4">
+      <Value>Listung</Value>
+    </Kategorie_x002d_Artikel>
+    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <IconOverlay xmlns="http://schemas.microsoft.com/sharepoint/v4" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<customXsn xmlns="http://schemas.microsoft.com/office/2006/metadata/customXsn">
+  <xsnLocation/>
+  <cached>True</cached>
+  <openByDefault>False</openByDefault>
+  <xsnScope/>
+</customXsn>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101009CED75CD8743E64EBC1921BB5C928C52" ma:contentTypeVersion="31" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="6f13655129e2f141bd8c4ab9fdcde5f0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="6284ef28-e06e-427c-b150-08f3f2b262f4" xmlns:ns3="http://schemas.microsoft.com/sharepoint/v4" xmlns:ns4="0996e4a0-f0e6-4a4a-b1de-2f66093ad034" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="aac2a75f970dfb62df8d6e92035a60ca" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -26604,46 +26663,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<customXsn xmlns="http://schemas.microsoft.com/office/2006/metadata/customXsn">
-  <xsnLocation/>
-  <cached>True</cached>
-  <openByDefault>False</openByDefault>
-  <xsnScope/>
-</customXsn>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Audience xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Geltungsbereich xmlns="6284ef28-e06e-427c-b150-08f3f2b262f4">BILLA CM/EK</Geltungsbereich>
-    <Kategorie_x002d_Mitarbeiter xmlns="6284ef28-e06e-427c-b150-08f3f2b262f4"/>
-    <Kategorie_x002d_Systeme xmlns="6284ef28-e06e-427c-b150-08f3f2b262f4">
-      <Value>Stammdaten DB</Value>
-    </Kategorie_x002d_Systeme>
-    <Kategorie_x002d_Schnittstelle xmlns="6284ef28-e06e-427c-b150-08f3f2b262f4"/>
-    <Sprachvariante xmlns="6284ef28-e06e-427c-b150-08f3f2b262f4">DE</Sprachvariante>
-    <Dokumentenart xmlns="6284ef28-e06e-427c-b150-08f3f2b262f4">Formular</Dokumentenart>
-    <ext_x002e__x0020_Version xmlns="6284ef28-e06e-427c-b150-08f3f2b262f4">0.1</ext_x002e__x0020_Version>
-    <Kategorie_x002d_Lieferant xmlns="6284ef28-e06e-427c-b150-08f3f2b262f4"/>
-    <Co_x002d_Autoren xmlns="6284ef28-e06e-427c-b150-08f3f2b262f4">
-      <Value>Billa DPM</Value>
-    </Co_x002d_Autoren>
-    <Freigabe_x0020_GF xmlns="6284ef28-e06e-427c-b150-08f3f2b262f4" xsi:nil="true"/>
-    <Verantwort_x002e__x0020_Bereich xmlns="6284ef28-e06e-427c-b150-08f3f2b262f4">BILLA DPM</Verantwort_x002e__x0020_Bereich>
-    <Themengruppe xmlns="6284ef28-e06e-427c-b150-08f3f2b262f4" xsi:nil="true"/>
-    <Kategorie_x002d_Artikel xmlns="6284ef28-e06e-427c-b150-08f3f2b262f4">
-      <Value>Listung</Value>
-    </Kategorie_x002d_Artikel>
-    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <IconOverlay xmlns="http://schemas.microsoft.com/sharepoint/v4" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -26654,6 +26673,26 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{244DA8BB-5DC9-4D97-89C7-05702A9A2491}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="6284ef28-e06e-427c-b150-08f3f2b262f4"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v4"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{122103CB-20AA-4307-9A17-065E4D568688}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/customXsn"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12A0FA41-063C-4B02-AD50-F506DA4F70F2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -26674,26 +26713,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{122103CB-20AA-4307-9A17-065E4D568688}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/customXsn"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{244DA8BB-5DC9-4D97-89C7-05702A9A2491}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="6284ef28-e06e-427c-b150-08f3f2b262f4"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v4"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7628CFAA-8164-49A8-97FB-9F72E1233D16}">
   <ds:schemaRefs>
